--- a/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
+++ b/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\전문가WorkShop\[3-2] 경기도 태양광 잠재량 공간정보 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFC9A3B-6B8B-4EEA-826E-A723B253FFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BBBA8-A893-49D5-9AA1-A834B272E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="시군별인구_rawData" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="잠재량 데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="시군별인구_rawData" sheetId="3" r:id="rId2"/>
+    <sheet name="시군별면적_rawData" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AL$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$77:$L$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$15:$C$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">시군별인구_rawData!$A$22:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$77:$L$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">시군별면적_rawData!$A$15:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">시군별인구_rawData!$A$22:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'잠재량 데이터'!$A$2:$AL$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
   <si>
     <t>SIGUNGU_NM</t>
   </si>
@@ -725,6 +725,42 @@
   </si>
   <si>
     <t>Administrative Area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술적 잠재량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 잠재량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market potential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical potential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual generation in 2023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilization rate of market potential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population density</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrative area</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -732,8 +768,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -871,7 +909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,8 +919,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,19 +941,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -923,23 +954,40 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="STYLE0" xfId="2" xr:uid="{04ED4964-B71F-452B-9350-4303A3FDE91C}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -991,11 +1039,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$3</c:f>
+              <c:f>Sheet2!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>시장 잠재량</c:v>
+                  <c:v>Market potential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,7 +1163,7 @@
             <c:numRef>
               <c:f>Sheet2!$D$4:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4692.9772768149724</c:v>
@@ -1224,11 +1272,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$3</c:f>
+              <c:f>Sheet2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>실제 발전량 (2023)</c:v>
+                  <c:v>Actual generation in 2023</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1473,11 +1521,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$3</c:f>
+              <c:f>Sheet2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>잠재량 활용률</c:v>
+                  <c:v>Utilization rate of market potential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1491,7 +1539,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="0">
@@ -1795,7 +1843,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1900,20 +1948,20 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29125895588253947"/>
-          <c:y val="0.3675767899402817"/>
-          <c:w val="0.1793949105435465"/>
-          <c:h val="0.14667046264903907"/>
+          <c:x val="0.14115052278900897"/>
+          <c:y val="7.965147887058914E-2"/>
+          <c:w val="0.49400578122376521"/>
+          <c:h val="0.19849707517752752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst/>
@@ -1923,7 +1971,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2394,7 +2442,7 @@
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>698.18</c:v>
@@ -2629,7 +2677,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2676,6 +2724,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="352908047"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3496,8 +3545,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.19173235519453272"/>
           <c:y val="0.1946517168005569"/>
-          <c:w val="0.22557119177104251"/>
-          <c:h val="0.11068379298121987"/>
+          <c:w val="0.19967236344177544"/>
+          <c:h val="0.14353263160657886"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4774,7 +4823,7 @@
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>698.18</c:v>
@@ -5009,7 +5058,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5070,6 +5119,805 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.44219767763678E-2"/>
+          <c:y val="4.4034760727275829E-2"/>
+          <c:w val="0.8961214146860359"/>
+          <c:h val="0.68082912176051602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$78:$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$78:$D$108</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>62.413686031553581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>781.72617457632145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.80673833911794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377.36241101434609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.638290306521583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.16940124288956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>962.81931514351061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>504.68110005851372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1619.013838564631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4316.6314846798432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1377.1058833798882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3999.3198739977088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1852.6481327500812</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5742.1827099938691</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3568.8138509517153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2879.6224319822322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6566.9632140083322</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4043.3420365535244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10173.408208770335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9635.4198734393703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7190.993959362987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>957.14053690340836</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5652.6552655265532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7295.146638982611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5916.0618122219621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2391.2182882631728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352924847"/>
+        <c:axId val="352917647"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Use Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$78:$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$78:$E$108</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.2729777995043197E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6040339855942096E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1205831061299379E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7657580591934967E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8372800170715852E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8179282139130954E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21071145577649888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35520843009849717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12002329200380427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47254697565098119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21531968758934555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14522594479388795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2847638148841653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77107007045467435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36243579833114992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73031950454163241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11466437767538516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16553816310450301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18698996849706143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11054626016177703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34913852525361738</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.711710759602898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.729331821886152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49983365239764055</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.43456279379966473</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.276889781804277</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50641050489998929</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0005888811751928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7497320297209145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8377147806352201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1306827467082285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="352909487"/>
+        <c:axId val="352908047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="352924847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352917647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352917647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352924847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352908047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352909487"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="352909487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="352908047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19173235519453272"/>
+          <c:y val="0.1946517168005569"/>
+          <c:w val="0.21952121349621331"/>
+          <c:h val="0.14353263160657886"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5314,6 +6162,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7327,6 +8215,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8012,6 +9403,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>162647</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D0E5CD-E680-E7E2-F62B-76D8B48BF8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8340,7 +9769,7 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8353,14 +9782,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="7"/>
+      <c r="M1" s="19"/>
       <c r="AE1" t="s">
         <v>82</v>
       </c>
@@ -11288,1969 +12717,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-  <dimension ref="A1:L108"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D1" s="5">
-        <v>4.2729777995043197E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6">
-        <v>19327.554148223146</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4692.9772768149724</v>
-      </c>
-      <c r="E4" s="6">
-        <v>200.52987717408598</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4.2729777995043197E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>62.413686031553581</v>
-      </c>
-      <c r="H4" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>676.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6">
-        <v>31355.336931794514</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2227.7235540137372</v>
-      </c>
-      <c r="E5" s="6">
-        <v>124.842385072017</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5.6040339855942096E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>781.72617457632145</v>
-      </c>
-      <c r="H5" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>673.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6">
-        <v>21840.895466752601</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2008.9870782756591</v>
-      </c>
-      <c r="E6" s="6">
-        <v>143.05159450003001</v>
-      </c>
-      <c r="F6" s="9">
-        <v>7.1205831061299379E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>190.80673833911794</v>
-      </c>
-      <c r="H6" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>826.91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6">
-        <v>26854.336309870869</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1976.804590885605</v>
-      </c>
-      <c r="E7" s="6">
-        <v>193.04995364891798</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9.7657580591934967E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>377.36241101434609</v>
-      </c>
-      <c r="H7" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>553.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6">
-        <v>18350.067029442034</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1356.7085089440357</v>
-      </c>
-      <c r="E8" s="6">
-        <v>65.627789593059703</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4.8372800170715852E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>146.35805352687166</v>
-      </c>
-      <c r="H8" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>877.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6">
-        <v>9793.6831244079513</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1150.248435949318</v>
-      </c>
-      <c r="E9" s="6">
-        <v>55.418143925696299</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4.8179282139130954E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>75.638290306521583</v>
-      </c>
-      <c r="H9" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>843.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6">
-        <v>27735.132525380792</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1004.9221167440427</v>
-      </c>
-      <c r="E10" s="6">
-        <v>211.748602161138</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.21071145577649888</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>196.16940124288956</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>608.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6">
-        <v>44751.392991897432</v>
-      </c>
-      <c r="D11" s="6">
-        <v>855.22171643638376</v>
-      </c>
-      <c r="E11" s="6">
-        <v>303.78196328151</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.35520843009849717</v>
-      </c>
-      <c r="G11" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>1460.769429087055</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>698.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6">
-        <v>11762.539121880636</v>
-      </c>
-      <c r="D12" s="6">
-        <v>447.15844883203658</v>
-      </c>
-      <c r="E12" s="6">
-        <v>53.6694290761357</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.12002329200380427</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>962.81931514351061</v>
-      </c>
-      <c r="H12" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>310.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6">
-        <v>27055.708066988154</v>
-      </c>
-      <c r="D13" s="6">
-        <v>402.0577628197683</v>
-      </c>
-      <c r="E13" s="6">
-        <v>189.991179857481</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.47254697565098119</v>
-      </c>
-      <c r="G13" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>504.68110005851372</v>
-      </c>
-      <c r="H13" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>461.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6">
-        <v>24151.977285743757</v>
-      </c>
-      <c r="D14" s="6">
-        <v>386.43167819357132</v>
-      </c>
-      <c r="E14" s="6">
-        <v>83.206348223266289</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.21531968758934555</v>
-      </c>
-      <c r="G14" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>1871.9838303198417</v>
-      </c>
-      <c r="H14" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>591.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6">
-        <v>12899.100715625664</v>
-      </c>
-      <c r="D15" s="6">
-        <v>341.16965803718733</v>
-      </c>
-      <c r="E15" s="6">
-        <v>49.546685923458199</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.14522594479388795</v>
-      </c>
-      <c r="G15" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>1619.013838564631</v>
-      </c>
-      <c r="H15" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>458.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6">
-        <v>8871.1323354231117</v>
-      </c>
-      <c r="D16" s="6">
-        <v>220.16842282295258</v>
-      </c>
-      <c r="E16" s="6">
-        <v>62.696000000093903</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.2847638148841653</v>
-      </c>
-      <c r="G16" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>4316.6314846798432</v>
-      </c>
-      <c r="H16" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>156.33000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6">
-        <v>31245.400532437368</v>
-      </c>
-      <c r="D17" s="6">
-        <v>197.75919323301312</v>
-      </c>
-      <c r="E17" s="6">
-        <v>152.48619505923898</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.77107007045467435</v>
-      </c>
-      <c r="G17" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>1377.1058833798882</v>
-      </c>
-      <c r="H17" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>458.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6">
-        <v>8668.5007439447181</v>
-      </c>
-      <c r="D18" s="6">
-        <v>148.26039961481143</v>
-      </c>
-      <c r="E18" s="6">
-        <v>53.734876295289496</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.36243579833114992</v>
-      </c>
-      <c r="G18" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>3999.3198739977088</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>139.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6">
-        <v>16960.33486496273</v>
-      </c>
-      <c r="D19" s="6">
-        <v>129.60568758583017</v>
-      </c>
-      <c r="E19" s="6">
-        <v>94.653561543461095</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.73031950454163241</v>
-      </c>
-      <c r="G19" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>1852.6481327500812</v>
-      </c>
-      <c r="H19" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>276.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2082.0128753843478</v>
-      </c>
-      <c r="D20" s="6">
-        <v>105.73545297765708</v>
-      </c>
-      <c r="E20" s="6">
-        <v>12.124089913908</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.11466437767538516</v>
-      </c>
-      <c r="G20" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>952.18981917006374</v>
-      </c>
-      <c r="H20" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>95.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2950.3734714636626</v>
-      </c>
-      <c r="D21" s="6">
-        <v>95.841170288562466</v>
-      </c>
-      <c r="E21" s="6">
-        <v>15.8653712793545</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.16553816310450301</v>
-      </c>
-      <c r="G21" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>5742.1827099938691</v>
-      </c>
-      <c r="H21" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>81.55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3446.780221259145</v>
-      </c>
-      <c r="D22" s="6">
-        <v>82.999177209377407</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15.520013531663501</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.18698996849706143</v>
-      </c>
-      <c r="G22" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>3568.8138509517153</v>
-      </c>
-      <c r="H22" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>92.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2005.9091581458854</v>
-      </c>
-      <c r="D23" s="6">
-        <v>75.274060715675475</v>
-      </c>
-      <c r="E23" s="6">
-        <v>8.3212658993084609</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.11054626016177703</v>
-      </c>
-      <c r="G23" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>2879.6224319822322</v>
-      </c>
-      <c r="H23" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>54.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6">
-        <v>5711.5137585405673</v>
-      </c>
-      <c r="D24" s="6">
-        <v>73.266551779270216</v>
-      </c>
-      <c r="E24" s="6">
-        <v>25.580175838632201</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.34913852525361738</v>
-      </c>
-      <c r="G24" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>6566.9632140083322</v>
-      </c>
-      <c r="H24" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>141.63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="6">
-        <v>14593.03026418845</v>
-      </c>
-      <c r="D25" s="6">
-        <v>34.339339865684501</v>
-      </c>
-      <c r="E25" s="6">
-        <v>58.779017525752899</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1.711710759602898</v>
-      </c>
-      <c r="G25" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>4043.3420365535244</v>
-      </c>
-      <c r="H25" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>268.10000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="6">
-        <v>7935.4560050335003</v>
-      </c>
-      <c r="D26" s="6">
-        <v>23.515375140666947</v>
-      </c>
-      <c r="E26" s="6">
-        <v>40.665886534345894</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1.729331821886152</v>
-      </c>
-      <c r="G26" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>10173.408208770335</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>121.09</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2276.9368646054131</v>
-      </c>
-      <c r="D27" s="6">
-        <v>17.150895530223842</v>
-      </c>
-      <c r="E27" s="6">
-        <v>8.5725947547621502</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.49983365239764055</v>
-      </c>
-      <c r="G27" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>9635.4198734393703</v>
-      </c>
-      <c r="H27" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>58.47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1737.5953858203882</v>
-      </c>
-      <c r="D28" s="6">
-        <v>16.545192607879624</v>
-      </c>
-      <c r="E28" s="6">
-        <v>7.1899251236337305</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0.43456279379966473</v>
-      </c>
-      <c r="G28" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>7190.993959362987</v>
-      </c>
-      <c r="H28" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>36.42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="6">
-        <v>10988.834203464858</v>
-      </c>
-      <c r="D29" s="6">
-        <v>13.607353075027472</v>
-      </c>
-      <c r="E29" s="6">
-        <v>58.197149323988</v>
-      </c>
-      <c r="F29" s="9">
-        <v>4.276889781804277</v>
-      </c>
-      <c r="G29" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>957.14053690340836</v>
-      </c>
-      <c r="H29" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>430.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1694.4436725592789</v>
-      </c>
-      <c r="D30" s="6">
-        <v>12.209053881168373</v>
-      </c>
-      <c r="E30" s="6">
-        <v>6.1827931403136498</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0.50641050489998929</v>
-      </c>
-      <c r="G30" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>5652.6552655265532</v>
-      </c>
-      <c r="H30" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2219.2646619820498</v>
-      </c>
-      <c r="D31" s="6">
-        <v>11.243136580944061</v>
-      </c>
-      <c r="E31" s="6">
-        <v>11.249757452426699</v>
-      </c>
-      <c r="F31" s="9">
-        <v>1.0005888811751928</v>
-      </c>
-      <c r="G31" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>7295.146638982611</v>
-      </c>
-      <c r="H31" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>38.53</v>
-      </c>
-      <c r="L31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2853.9785406570368</v>
-      </c>
-      <c r="D32" s="6">
-        <v>6.763776578426361</v>
-      </c>
-      <c r="E32" s="6">
-        <v>18.598573099575098</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2.7497320297209145</v>
-      </c>
-      <c r="G32" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>5916.0618122219621</v>
-      </c>
-      <c r="H32" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>42.71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3823.426548084667</v>
-      </c>
-      <c r="D33" s="6">
-        <v>6.5368619575500473</v>
-      </c>
-      <c r="E33" s="6">
-        <v>12.012887838361799</v>
-      </c>
-      <c r="F33" s="9">
-        <v>1.8377147806352201</v>
-      </c>
-      <c r="G33" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>14952.703461178671</v>
-      </c>
-      <c r="H33" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>53.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1188.7077430954027</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2.3620001182556152</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2.67067278143442</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1.1306827467082285</v>
-      </c>
-      <c r="G34" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$D$23:$D$54)</f>
-        <v>2391.2182882631728</v>
-      </c>
-      <c r="H34" s="6">
-        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$C$23:$C$54)</f>
-        <v>35.869999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="6">
-        <v>44751.392991897432</v>
-      </c>
-      <c r="D42" s="6">
-        <v>698.18</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="6">
-        <v>31355.336931794514</v>
-      </c>
-      <c r="D43" s="6">
-        <v>673.86</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="6">
-        <v>31245.400532437368</v>
-      </c>
-      <c r="D44" s="6">
-        <v>458.24</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="6">
-        <v>27735.132525380792</v>
-      </c>
-      <c r="D45" s="6">
-        <v>608.26</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="6">
-        <v>27055.708066988154</v>
-      </c>
-      <c r="D46" s="6">
-        <v>461.43</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="6">
-        <v>26854.336309870869</v>
-      </c>
-      <c r="D47" s="6">
-        <v>553.46</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="6">
-        <v>24151.977285743757</v>
-      </c>
-      <c r="D48" s="6">
-        <v>591.23</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="6">
-        <v>21840.895466752601</v>
-      </c>
-      <c r="D49" s="6">
-        <v>826.91</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="6">
-        <v>19327.554148223146</v>
-      </c>
-      <c r="D50" s="6">
-        <v>676.31</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="6">
-        <v>18350.067029442034</v>
-      </c>
-      <c r="D51" s="6">
-        <v>877.69</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="6">
-        <v>16960.33486496273</v>
-      </c>
-      <c r="D52" s="6">
-        <v>276.61</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>188</v>
-      </c>
-      <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="6">
-        <v>14593.03026418845</v>
-      </c>
-      <c r="D53" s="6">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="6">
-        <v>12899.100715625664</v>
-      </c>
-      <c r="D54" s="6">
-        <v>458.14</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="6">
-        <v>11762.539121880636</v>
-      </c>
-      <c r="D55" s="6">
-        <v>310.43</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="6">
-        <v>10988.834203464858</v>
-      </c>
-      <c r="D56" s="6">
-        <v>430.99</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="6">
-        <v>9793.6831244079513</v>
-      </c>
-      <c r="D57" s="6">
-        <v>843.66</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="6">
-        <v>8871.1323354231117</v>
-      </c>
-      <c r="D58" s="6">
-        <v>156.33000000000001</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="6">
-        <v>8668.5007439447181</v>
-      </c>
-      <c r="D59" s="6">
-        <v>139.68</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="6">
-        <v>7935.4560050335003</v>
-      </c>
-      <c r="D60" s="6">
-        <v>121.09</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="6">
-        <v>5711.5137585405673</v>
-      </c>
-      <c r="D61" s="6">
-        <v>141.63</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="6">
-        <v>3823.426548084667</v>
-      </c>
-      <c r="D62" s="6">
-        <v>53.45</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="6">
-        <v>3446.780221259145</v>
-      </c>
-      <c r="D63" s="6">
-        <v>92.99</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="6">
-        <v>2950.3734714636626</v>
-      </c>
-      <c r="D64" s="6">
-        <v>81.55</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2853.9785406570368</v>
-      </c>
-      <c r="D65" s="6">
-        <v>42.71</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="6">
-        <v>2276.9368646054131</v>
-      </c>
-      <c r="D66" s="6">
-        <v>58.47</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="6">
-        <v>2219.2646619820498</v>
-      </c>
-      <c r="D67" s="6">
-        <v>38.53</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>183</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="6">
-        <v>2082.0128753843478</v>
-      </c>
-      <c r="D68" s="6">
-        <v>95.67</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="6">
-        <v>2005.9091581458854</v>
-      </c>
-      <c r="D69" s="6">
-        <v>54.03</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="6">
-        <v>1737.5953858203882</v>
-      </c>
-      <c r="D70" s="6">
-        <v>36.42</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1694.4436725592789</v>
-      </c>
-      <c r="D71" s="6">
-        <v>33.33</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="6">
-        <v>1188.7077430954027</v>
-      </c>
-      <c r="D72" s="6">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C75" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C77" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="6">
-        <v>4692.9772768149724</v>
-      </c>
-      <c r="D78" s="6">
-        <v>62.413686031553581</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="6">
-        <v>2227.7235540137372</v>
-      </c>
-      <c r="D79" s="6">
-        <v>781.72617457632145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="6">
-        <v>2008.9870782756591</v>
-      </c>
-      <c r="D80" s="6">
-        <v>190.80673833911794</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1976.804590885605</v>
-      </c>
-      <c r="D81" s="6">
-        <v>377.36241101434609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1356.7085089440357</v>
-      </c>
-      <c r="D82" s="6">
-        <v>146.35805352687166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1150.248435949318</v>
-      </c>
-      <c r="D83" s="6">
-        <v>75.638290306521583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="6">
-        <v>1004.9221167440427</v>
-      </c>
-      <c r="D84" s="6">
-        <v>196.16940124288956</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="6">
-        <v>855.22171643638376</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1460.769429087055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="6">
-        <v>447.15844883203658</v>
-      </c>
-      <c r="D86" s="6">
-        <v>962.81931514351061</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="6">
-        <v>402.0577628197683</v>
-      </c>
-      <c r="D87" s="6">
-        <v>504.68110005851372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="6">
-        <v>386.43167819357132</v>
-      </c>
-      <c r="D88" s="6">
-        <v>1871.9838303198417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="6">
-        <v>341.16965803718733</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1619.013838564631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="6">
-        <v>220.16842282295258</v>
-      </c>
-      <c r="D90" s="6">
-        <v>4316.6314846798432</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="6">
-        <v>197.75919323301312</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1377.1058833798882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="6">
-        <v>148.26039961481143</v>
-      </c>
-      <c r="D92" s="6">
-        <v>3999.3198739977088</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="6">
-        <v>129.60568758583017</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1852.6481327500812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="6">
-        <v>105.73545297765708</v>
-      </c>
-      <c r="D94" s="6">
-        <v>952.18981917006374</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="6">
-        <v>95.841170288562466</v>
-      </c>
-      <c r="D95" s="6">
-        <v>5742.1827099938691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C96" s="6">
-        <v>82.999177209377407</v>
-      </c>
-      <c r="D96" s="6">
-        <v>3568.8138509517153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" s="6">
-        <v>75.274060715675475</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2879.6224319822322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="6">
-        <v>73.266551779270216</v>
-      </c>
-      <c r="D98" s="6">
-        <v>6566.9632140083322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>188</v>
-      </c>
-      <c r="B99" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="6">
-        <v>34.339339865684501</v>
-      </c>
-      <c r="D99" s="6">
-        <v>4043.3420365535244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="6">
-        <v>23.515375140666947</v>
-      </c>
-      <c r="D100" s="6">
-        <v>10173.408208770335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" s="6">
-        <v>17.150895530223842</v>
-      </c>
-      <c r="D101" s="6">
-        <v>9635.4198734393703</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>191</v>
-      </c>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="6">
-        <v>16.545192607879624</v>
-      </c>
-      <c r="D102" s="6">
-        <v>7190.993959362987</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="6">
-        <v>13.607353075027472</v>
-      </c>
-      <c r="D103" s="6">
-        <v>957.14053690340836</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="6">
-        <v>12.209053881168373</v>
-      </c>
-      <c r="D104" s="6">
-        <v>5652.6552655265532</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>194</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="6">
-        <v>11.243136580944061</v>
-      </c>
-      <c r="D105" s="6">
-        <v>7295.146638982611</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>195</v>
-      </c>
-      <c r="B106" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="6">
-        <v>6.763776578426361</v>
-      </c>
-      <c r="D106" s="6">
-        <v>5916.0618122219621</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>196</v>
-      </c>
-      <c r="B107" t="s">
-        <v>56</v>
-      </c>
-      <c r="C107" s="6">
-        <v>6.5368619575500473</v>
-      </c>
-      <c r="D107" s="6">
-        <v>14952.703461178671</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>197</v>
-      </c>
-      <c r="B108" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="6">
-        <v>2.3620001182556152</v>
-      </c>
-      <c r="D108" s="6">
-        <v>2391.2182882631728</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A77:L77" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:L108">
-      <sortCondition descending="1" ref="C77"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B57443-F769-4FFC-8F3B-CF1EBC1DE2C5}">
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -13270,135 +12736,135 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C22" t="s">
@@ -13409,514 +12875,514 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>799222</v>
       </c>
-      <c r="C23" s="19">
-        <f>Sheet4!C37</f>
+      <c r="C23" s="15">
+        <f>시군별면적_rawData!C37</f>
         <v>53.45</v>
       </c>
-      <c r="D23" s="19">
-        <f>B23/C23</f>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:D54" si="0">B23/C23</f>
         <v>14952.703461178671</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="14">
         <v>1231898</v>
       </c>
-      <c r="C24" s="19">
-        <f>Sheet4!C35</f>
+      <c r="C24" s="15">
+        <f>시군별면적_rawData!C35</f>
         <v>121.09</v>
       </c>
-      <c r="D24" s="19">
-        <f>B24/C24</f>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
         <v>10173.408208770335</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="14">
         <v>563383</v>
       </c>
-      <c r="C25" s="19">
-        <f>Sheet4!C31</f>
+      <c r="C25" s="15">
+        <f>시군별면적_rawData!C31</f>
         <v>58.47</v>
       </c>
-      <c r="D25" s="19">
-        <f>B25/C25</f>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
         <v>9635.4198734393703</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>281082</v>
       </c>
-      <c r="C26" s="19">
-        <f>Sheet4!C44</f>
+      <c r="C26" s="15">
+        <f>시군별면적_rawData!C44</f>
         <v>38.53</v>
       </c>
-      <c r="D26" s="19">
-        <f>B26/C26</f>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
         <v>7295.146638982611</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>261896</v>
       </c>
-      <c r="C27" s="19">
-        <f>Sheet4!C41</f>
+      <c r="C27" s="15">
+        <f>시군별면적_rawData!C41</f>
         <v>36.42</v>
       </c>
-      <c r="D27" s="19">
-        <f>B27/C27</f>
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
         <v>7190.993959362987</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="14">
         <v>930079</v>
       </c>
-      <c r="C28" s="19">
-        <f>Sheet4!C36</f>
+      <c r="C28" s="15">
+        <f>시군별면적_rawData!C36</f>
         <v>141.63</v>
       </c>
-      <c r="D28" s="19">
-        <f>B28/C28</f>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
         <v>6566.9632140083322</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>252675</v>
       </c>
-      <c r="C29" s="19">
-        <f>Sheet4!C26</f>
+      <c r="C29" s="15">
+        <f>시군별면적_rawData!C26</f>
         <v>42.71</v>
       </c>
-      <c r="D29" s="19">
-        <f>B29/C29</f>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
         <v>5916.0618122219621</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="14">
         <v>468275</v>
       </c>
-      <c r="C30" s="19">
-        <f>Sheet4!C23</f>
+      <c r="C30" s="15">
+        <f>시군별면적_rawData!C23</f>
         <v>81.55</v>
       </c>
-      <c r="D30" s="19">
-        <f>B30/C30</f>
+      <c r="D30" s="15">
+        <f t="shared" si="0"/>
         <v>5742.1827099938691</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="14">
         <v>188403</v>
       </c>
-      <c r="C31" s="19">
-        <f>Sheet4!C42</f>
+      <c r="C31" s="15">
+        <f>시군별면적_rawData!C42</f>
         <v>33.33</v>
       </c>
-      <c r="D31" s="19">
-        <f>B31/C31</f>
+      <c r="D31" s="15">
+        <f t="shared" si="0"/>
         <v>5652.6552655265532</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="14">
         <v>674819</v>
       </c>
-      <c r="C32" s="19">
-        <f>Sheet4!C33</f>
+      <c r="C32" s="15">
+        <f>시군별면적_rawData!C33</f>
         <v>156.33000000000001</v>
       </c>
-      <c r="D32" s="19">
-        <f>B32/C32</f>
+      <c r="D32" s="15">
+        <f t="shared" si="0"/>
         <v>4316.6314846798432</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="14">
         <v>1084020</v>
       </c>
-      <c r="C33" s="19">
-        <f>Sheet4!C46</f>
+      <c r="C33" s="15">
+        <f>시군별면적_rawData!C46</f>
         <v>268.10000000000002</v>
       </c>
-      <c r="D33" s="19">
-        <f>B33/C33</f>
+      <c r="D33" s="15">
+        <f t="shared" si="0"/>
         <v>4043.3420365535244</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="14">
         <v>558625</v>
       </c>
-      <c r="C34" s="19">
-        <f>Sheet4!C34</f>
+      <c r="C34" s="15">
+        <f>시군별면적_rawData!C34</f>
         <v>139.68</v>
       </c>
-      <c r="D34" s="19">
-        <f>B34/C34</f>
+      <c r="D34" s="15">
+        <f t="shared" si="0"/>
         <v>3999.3198739977088</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="14">
         <v>331864</v>
       </c>
-      <c r="C35" s="19">
-        <f>Sheet4!C18</f>
+      <c r="C35" s="15">
+        <f>시군별면적_rawData!C18</f>
         <v>92.99</v>
       </c>
-      <c r="D35" s="19">
-        <f>B35/C35</f>
+      <c r="D35" s="15">
+        <f t="shared" si="0"/>
         <v>3568.8138509517153</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="14">
         <v>155586</v>
       </c>
-      <c r="C36" s="19">
-        <f>Sheet4!C24</f>
+      <c r="C36" s="15">
+        <f>시군별면적_rawData!C24</f>
         <v>54.03</v>
       </c>
-      <c r="D36" s="19">
-        <f>B36/C36</f>
+      <c r="D36" s="15">
+        <f t="shared" si="0"/>
         <v>2879.6224319822322</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="14">
         <v>85773</v>
       </c>
-      <c r="C37" s="19">
-        <f>Sheet4!C45</f>
+      <c r="C37" s="15">
+        <f>시군별면적_rawData!C45</f>
         <v>35.869999999999997</v>
       </c>
-      <c r="D37" s="19">
-        <f>B37/C37</f>
+      <c r="D37" s="15">
+        <f t="shared" si="0"/>
         <v>2391.2182882631728</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="14">
         <v>1106773</v>
       </c>
-      <c r="C38" s="19">
-        <f>Sheet4!C25</f>
+      <c r="C38" s="15">
+        <f>시군별면적_rawData!C25</f>
         <v>591.23</v>
       </c>
-      <c r="D38" s="19">
-        <f>B38/C38</f>
+      <c r="D38" s="15">
+        <f t="shared" si="0"/>
         <v>1871.9838303198417</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="14">
         <v>512461</v>
       </c>
-      <c r="C39" s="19">
-        <f>Sheet4!C40</f>
+      <c r="C39" s="15">
+        <f>시군별면적_rawData!C40</f>
         <v>276.61</v>
       </c>
-      <c r="D39" s="19">
-        <f>B39/C39</f>
+      <c r="D39" s="15">
+        <f t="shared" si="0"/>
         <v>1852.6481327500812</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="14">
         <v>741735</v>
       </c>
-      <c r="C40" s="19">
-        <f>Sheet4!C39</f>
+      <c r="C40" s="15">
+        <f>시군별면적_rawData!C39</f>
         <v>458.14</v>
       </c>
-      <c r="D40" s="19">
-        <f>B40/C40</f>
+      <c r="D40" s="15">
+        <f t="shared" si="0"/>
         <v>1619.013838564631</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="14">
         <v>1019880</v>
       </c>
-      <c r="C41" s="19">
-        <f>Sheet4!C16</f>
+      <c r="C41" s="15">
+        <f>시군별면적_rawData!C16</f>
         <v>698.18</v>
       </c>
-      <c r="D41" s="19">
-        <f>B41/C41</f>
+      <c r="D41" s="15">
+        <f t="shared" si="0"/>
         <v>1460.769429087055</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="17">
         <v>14162083</v>
       </c>
-      <c r="C42" s="22">
-        <f>Sheet4!C17</f>
+      <c r="C42" s="18">
+        <f>시군별면적_rawData!C17</f>
         <v>10195.27</v>
       </c>
-      <c r="D42" s="22">
-        <f>B42/C42</f>
+      <c r="D42" s="18">
+        <f t="shared" si="0"/>
         <v>1389.0836633066117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="14">
         <v>631045</v>
       </c>
-      <c r="C43" s="19">
-        <f>Sheet4!C20</f>
+      <c r="C43" s="15">
+        <f>시군별면적_rawData!C20</f>
         <v>458.24</v>
       </c>
-      <c r="D43" s="19">
-        <f>B43/C43</f>
+      <c r="D43" s="15">
+        <f t="shared" si="0"/>
         <v>1377.1058833798882</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="14">
         <v>298888</v>
       </c>
-      <c r="C44" s="19">
-        <f>Sheet4!C30</f>
+      <c r="C44" s="15">
+        <f>시군별면적_rawData!C30</f>
         <v>310.43</v>
       </c>
-      <c r="D44" s="19">
-        <f>B44/C44</f>
+      <c r="D44" s="15">
+        <f t="shared" si="0"/>
         <v>962.81931514351061</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="14">
         <v>412518</v>
       </c>
-      <c r="C45" s="19">
-        <f>Sheet4!C43</f>
+      <c r="C45" s="15">
+        <f>시군별면적_rawData!C43</f>
         <v>430.99</v>
       </c>
-      <c r="D45" s="19">
-        <f>B45/C45</f>
+      <c r="D45" s="15">
+        <f t="shared" si="0"/>
         <v>957.14053690340836</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="14">
         <v>91096</v>
       </c>
-      <c r="C46" s="19">
-        <f>Sheet4!C38</f>
+      <c r="C46" s="15">
+        <f>시군별면적_rawData!C38</f>
         <v>95.67</v>
       </c>
-      <c r="D46" s="19">
-        <f>B46/C46</f>
+      <c r="D46" s="15">
+        <f t="shared" si="0"/>
         <v>952.18981917006374</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="14">
         <v>526774</v>
       </c>
-      <c r="C47" s="19">
-        <f>Sheet4!C21</f>
+      <c r="C47" s="15">
+        <f>시군별면적_rawData!C21</f>
         <v>673.86</v>
       </c>
-      <c r="D47" s="19">
-        <f>B47/C47</f>
+      <c r="D47" s="15">
+        <f t="shared" si="0"/>
         <v>781.72617457632145</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="14">
         <v>232875</v>
       </c>
-      <c r="C48" s="19">
-        <f>Sheet4!C22</f>
+      <c r="C48" s="15">
+        <f>시군별면적_rawData!C22</f>
         <v>461.43</v>
       </c>
-      <c r="D48" s="19">
-        <f>B48/C48</f>
+      <c r="D48" s="15">
+        <f t="shared" si="0"/>
         <v>504.68110005851372</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="14">
         <v>208855</v>
       </c>
-      <c r="C49" s="19">
-        <f>Sheet4!C32</f>
+      <c r="C49" s="15">
+        <f>시군별면적_rawData!C32</f>
         <v>553.46</v>
       </c>
-      <c r="D49" s="19">
-        <f>B49/C49</f>
+      <c r="D49" s="15">
+        <f t="shared" si="0"/>
         <v>377.36241101434609</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="14">
         <v>119322</v>
       </c>
-      <c r="C50" s="19">
-        <f>Sheet4!C28</f>
+      <c r="C50" s="15">
+        <f>시군별면적_rawData!C28</f>
         <v>608.26</v>
       </c>
-      <c r="D50" s="19">
-        <f>B50/C50</f>
+      <c r="D50" s="15">
+        <f t="shared" si="0"/>
         <v>196.16940124288956</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="14">
         <v>157780</v>
       </c>
-      <c r="C51" s="19">
-        <f>Sheet4!C19</f>
+      <c r="C51" s="15">
+        <f>시군별면적_rawData!C19</f>
         <v>826.91</v>
       </c>
-      <c r="D51" s="19">
-        <f>B51/C51</f>
+      <c r="D51" s="15">
+        <f t="shared" si="0"/>
         <v>190.80673833911794</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="14">
         <v>128457</v>
       </c>
-      <c r="C52" s="19">
-        <f>Sheet4!C29</f>
+      <c r="C52" s="15">
+        <f>시군별면적_rawData!C29</f>
         <v>877.69</v>
       </c>
-      <c r="D52" s="19">
-        <f>B52/C52</f>
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
         <v>146.35805352687166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="14">
         <v>63813</v>
       </c>
-      <c r="C53" s="19">
-        <f>Sheet4!C47</f>
+      <c r="C53" s="15">
+        <f>시군별면적_rawData!C47</f>
         <v>843.66</v>
       </c>
-      <c r="D53" s="19">
-        <f>B53/C53</f>
+      <c r="D53" s="15">
+        <f t="shared" si="0"/>
         <v>75.638290306521583</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="14">
         <v>42211</v>
       </c>
-      <c r="C54" s="19">
-        <f>Sheet4!C27</f>
+      <c r="C54" s="15">
+        <f>시군별면적_rawData!C27</f>
         <v>676.31</v>
       </c>
-      <c r="D54" s="19">
-        <f>B54/C54</f>
+      <c r="D54" s="15">
+        <f t="shared" si="0"/>
         <v>62.413686031553581</v>
       </c>
     </row>
@@ -13934,7 +13400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5684A2C-B897-49B6-8F95-655A72FB53D6}">
   <dimension ref="A3:C47"/>
   <sheetViews>
@@ -13945,71 +13411,71 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14022,354 +13488,354 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="12">
         <v>698.18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="12">
         <v>10195.27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="12">
         <v>92.99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="12">
         <v>826.91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="12">
         <v>458.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="12">
         <v>673.86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="12">
         <v>461.43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="12">
         <v>81.55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="12">
         <v>54.03</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="12">
         <v>591.23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="12">
         <v>42.71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="12">
         <v>676.31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="12">
         <v>608.26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="12">
         <v>877.69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="12">
         <v>310.43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="12">
         <v>58.47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="12">
         <v>553.46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="12">
         <v>156.33000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="12">
         <v>139.68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="12">
         <v>121.09</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="12">
         <v>141.63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="12">
         <v>53.45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="12">
         <v>95.67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="12">
         <v>458.14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="12">
         <v>276.61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="12">
         <v>36.42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="12">
         <v>33.33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="12">
         <v>430.99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="12">
         <v>38.53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="12">
         <v>35.869999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="12">
         <v>268.10000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="12">
         <v>843.66</v>
       </c>
     </row>
@@ -14382,4 +13848,2152 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
+  <dimension ref="A1:Z108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24">
+        <v>19327.554148223146</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4692.9772768149724</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200.52987717408598</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.2729777995043197E-2</v>
+      </c>
+      <c r="G4" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>62.413686031553581</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="24">
+        <v>31355.336931794514</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2227.7235540137372</v>
+      </c>
+      <c r="E5" s="6">
+        <v>124.842385072017</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.6040339855942096E-2</v>
+      </c>
+      <c r="G5" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>781.72617457632145</v>
+      </c>
+      <c r="H5" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>673.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="24">
+        <v>21840.895466752601</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2008.9870782756591</v>
+      </c>
+      <c r="E6" s="6">
+        <v>143.05159450003001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.1205831061299379E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>190.80673833911794</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>826.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="24">
+        <v>26854.336309870869</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1976.804590885605</v>
+      </c>
+      <c r="E7" s="6">
+        <v>193.04995364891798</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9.7657580591934967E-2</v>
+      </c>
+      <c r="G7" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>377.36241101434609</v>
+      </c>
+      <c r="H7" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>553.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="24">
+        <v>18350.067029442034</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1356.7085089440357</v>
+      </c>
+      <c r="E8" s="6">
+        <v>65.627789593059703</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.8372800170715852E-2</v>
+      </c>
+      <c r="G8" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>877.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="24">
+        <v>9793.6831244079513</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1150.248435949318</v>
+      </c>
+      <c r="E9" s="6">
+        <v>55.418143925696299</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.8179282139130954E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>75.638290306521583</v>
+      </c>
+      <c r="H9" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>843.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="24">
+        <v>27735.132525380792</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1004.9221167440427</v>
+      </c>
+      <c r="E10" s="6">
+        <v>211.748602161138</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.21071145577649888</v>
+      </c>
+      <c r="G10" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>196.16940124288956</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>608.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="24">
+        <v>44751.392991897432</v>
+      </c>
+      <c r="D11" s="23">
+        <v>855.22171643638376</v>
+      </c>
+      <c r="E11" s="6">
+        <v>303.78196328151</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.35520843009849717</v>
+      </c>
+      <c r="G11" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="H11" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>698.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="24">
+        <v>11762.539121880636</v>
+      </c>
+      <c r="D12" s="23">
+        <v>447.15844883203658</v>
+      </c>
+      <c r="E12" s="6">
+        <v>53.6694290761357</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.12002329200380427</v>
+      </c>
+      <c r="G12" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>962.81931514351061</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>310.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="24">
+        <v>27055.708066988154</v>
+      </c>
+      <c r="D13" s="23">
+        <v>402.0577628197683</v>
+      </c>
+      <c r="E13" s="6">
+        <v>189.991179857481</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.47254697565098119</v>
+      </c>
+      <c r="G13" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>504.68110005851372</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>461.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="24">
+        <v>24151.977285743757</v>
+      </c>
+      <c r="D14" s="23">
+        <v>386.43167819357132</v>
+      </c>
+      <c r="E14" s="6">
+        <v>83.206348223266289</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.21531968758934555</v>
+      </c>
+      <c r="G14" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1871.9838303198417</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>591.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="24">
+        <v>12899.100715625664</v>
+      </c>
+      <c r="D15" s="23">
+        <v>341.16965803718733</v>
+      </c>
+      <c r="E15" s="6">
+        <v>49.546685923458199</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.14522594479388795</v>
+      </c>
+      <c r="G15" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1619.013838564631</v>
+      </c>
+      <c r="H15" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>458.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="24">
+        <v>8871.1323354231117</v>
+      </c>
+      <c r="D16" s="23">
+        <v>220.16842282295258</v>
+      </c>
+      <c r="E16" s="6">
+        <v>62.696000000093903</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.2847638148841653</v>
+      </c>
+      <c r="G16" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4316.6314846798432</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>156.33000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="24">
+        <v>31245.400532437368</v>
+      </c>
+      <c r="D17" s="23">
+        <v>197.75919323301312</v>
+      </c>
+      <c r="E17" s="6">
+        <v>152.48619505923898</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.77107007045467435</v>
+      </c>
+      <c r="G17" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1377.1058833798882</v>
+      </c>
+      <c r="H17" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>458.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="24">
+        <v>8668.5007439447181</v>
+      </c>
+      <c r="D18" s="23">
+        <v>148.26039961481143</v>
+      </c>
+      <c r="E18" s="6">
+        <v>53.734876295289496</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.36243579833114992</v>
+      </c>
+      <c r="G18" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3999.3198739977088</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>139.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="24">
+        <v>16960.33486496273</v>
+      </c>
+      <c r="D19" s="23">
+        <v>129.60568758583017</v>
+      </c>
+      <c r="E19" s="6">
+        <v>94.653561543461095</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.73031950454163241</v>
+      </c>
+      <c r="G19" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1852.6481327500812</v>
+      </c>
+      <c r="H19" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>276.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24">
+        <v>2082.0128753843478</v>
+      </c>
+      <c r="D20" s="23">
+        <v>105.73545297765708</v>
+      </c>
+      <c r="E20" s="6">
+        <v>12.124089913908</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.11466437767538516</v>
+      </c>
+      <c r="G20" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>952.18981917006374</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>95.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="24">
+        <v>2950.3734714636626</v>
+      </c>
+      <c r="D21" s="23">
+        <v>95.841170288562466</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15.8653712793545</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.16553816310450301</v>
+      </c>
+      <c r="G21" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5742.1827099938691</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="24">
+        <v>3446.780221259145</v>
+      </c>
+      <c r="D22" s="23">
+        <v>82.999177209377407</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.520013531663501</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.18698996849706143</v>
+      </c>
+      <c r="G22" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3568.8138509517153</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>92.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2005.9091581458854</v>
+      </c>
+      <c r="D23" s="23">
+        <v>75.274060715675475</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8.3212658993084609</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.11054626016177703</v>
+      </c>
+      <c r="G23" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2879.6224319822322</v>
+      </c>
+      <c r="H23" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="24">
+        <v>5711.5137585405673</v>
+      </c>
+      <c r="D24" s="23">
+        <v>73.266551779270216</v>
+      </c>
+      <c r="E24" s="6">
+        <v>25.580175838632201</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.34913852525361738</v>
+      </c>
+      <c r="G24" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>6566.9632140083322</v>
+      </c>
+      <c r="H24" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>141.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="24">
+        <v>14593.03026418845</v>
+      </c>
+      <c r="D25" s="23">
+        <v>34.339339865684501</v>
+      </c>
+      <c r="E25" s="6">
+        <v>58.779017525752899</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.711710759602898</v>
+      </c>
+      <c r="G25" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4043.3420365535244</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>268.10000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="24">
+        <v>7935.4560050335003</v>
+      </c>
+      <c r="D26" s="23">
+        <v>23.515375140666947</v>
+      </c>
+      <c r="E26" s="6">
+        <v>40.665886534345894</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.729331821886152</v>
+      </c>
+      <c r="G26" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>10173.408208770335</v>
+      </c>
+      <c r="H26" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>121.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="24">
+        <v>2276.9368646054131</v>
+      </c>
+      <c r="D27" s="23">
+        <v>17.150895530223842</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8.5725947547621502</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.49983365239764055</v>
+      </c>
+      <c r="G27" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>9635.4198734393703</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>58.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1737.5953858203882</v>
+      </c>
+      <c r="D28" s="23">
+        <v>16.545192607879624</v>
+      </c>
+      <c r="E28" s="6">
+        <v>7.1899251236337305</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.43456279379966473</v>
+      </c>
+      <c r="G28" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7190.993959362987</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="24">
+        <v>10988.834203464858</v>
+      </c>
+      <c r="D29" s="23">
+        <v>13.607353075027472</v>
+      </c>
+      <c r="E29" s="6">
+        <v>58.197149323988</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.276889781804277</v>
+      </c>
+      <c r="G29" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>957.14053690340836</v>
+      </c>
+      <c r="H29" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>430.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1694.4436725592789</v>
+      </c>
+      <c r="D30" s="23">
+        <v>12.209053881168373</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6.1827931403136498</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.50641050489998929</v>
+      </c>
+      <c r="G30" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5652.6552655265532</v>
+      </c>
+      <c r="H30" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2219.2646619820498</v>
+      </c>
+      <c r="D31" s="23">
+        <v>11.243136580944061</v>
+      </c>
+      <c r="E31" s="6">
+        <v>11.249757452426699</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1.0005888811751928</v>
+      </c>
+      <c r="G31" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7295.146638982611</v>
+      </c>
+      <c r="H31" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>38.53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="24">
+        <v>2853.9785406570368</v>
+      </c>
+      <c r="D32" s="23">
+        <v>6.763776578426361</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18.598573099575098</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.7497320297209145</v>
+      </c>
+      <c r="G32" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5916.0618122219621</v>
+      </c>
+      <c r="H32" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="24">
+        <v>3823.426548084667</v>
+      </c>
+      <c r="D33" s="23">
+        <v>6.5368619575500473</v>
+      </c>
+      <c r="E33" s="6">
+        <v>12.012887838361799</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1.8377147806352201</v>
+      </c>
+      <c r="G33" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="H33" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1188.7077430954027</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2.3620001182556152</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2.67067278143442</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1.1306827467082285</v>
+      </c>
+      <c r="G34" s="23">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2391.2182882631728</v>
+      </c>
+      <c r="H34" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44751.392991897432</v>
+      </c>
+      <c r="D42" s="22">
+        <f>SUMIF($B$4:$B$34,$B42,$H$4:$H$34)</f>
+        <v>698.18</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="6">
+        <v>31355.336931794514</v>
+      </c>
+      <c r="D43" s="22">
+        <f>SUMIF($B$4:$B$34,$B43,$H$4:$H$34)</f>
+        <v>673.86</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6">
+        <v>31245.400532437368</v>
+      </c>
+      <c r="D44" s="22">
+        <f>SUMIF($B$4:$B$34,$B44,$H$4:$H$34)</f>
+        <v>458.24</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="6">
+        <v>27735.132525380792</v>
+      </c>
+      <c r="D45" s="22">
+        <f>SUMIF($B$4:$B$34,$B45,$H$4:$H$34)</f>
+        <v>608.26</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="6">
+        <v>27055.708066988154</v>
+      </c>
+      <c r="D46" s="22">
+        <f>SUMIF($B$4:$B$34,$B46,$H$4:$H$34)</f>
+        <v>461.43</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="6">
+        <v>26854.336309870869</v>
+      </c>
+      <c r="D47" s="22">
+        <f>SUMIF($B$4:$B$34,$B47,$H$4:$H$34)</f>
+        <v>553.46</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="6">
+        <v>24151.977285743757</v>
+      </c>
+      <c r="D48" s="22">
+        <f>SUMIF($B$4:$B$34,$B48,$H$4:$H$34)</f>
+        <v>591.23</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="6">
+        <v>21840.895466752601</v>
+      </c>
+      <c r="D49" s="22">
+        <f>SUMIF($B$4:$B$34,$B49,$H$4:$H$34)</f>
+        <v>826.91</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="6">
+        <v>19327.554148223146</v>
+      </c>
+      <c r="D50" s="22">
+        <f>SUMIF($B$4:$B$34,$B50,$H$4:$H$34)</f>
+        <v>676.31</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="6">
+        <v>18350.067029442034</v>
+      </c>
+      <c r="D51" s="22">
+        <f>SUMIF($B$4:$B$34,$B51,$H$4:$H$34)</f>
+        <v>877.69</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="6">
+        <v>16960.33486496273</v>
+      </c>
+      <c r="D52" s="22">
+        <f>SUMIF($B$4:$B$34,$B52,$H$4:$H$34)</f>
+        <v>276.61</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="6">
+        <v>14593.03026418845</v>
+      </c>
+      <c r="D53" s="22">
+        <f>SUMIF($B$4:$B$34,$B53,$H$4:$H$34)</f>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="6">
+        <v>12899.100715625664</v>
+      </c>
+      <c r="D54" s="22">
+        <f>SUMIF($B$4:$B$34,$B54,$H$4:$H$34)</f>
+        <v>458.14</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="6">
+        <v>11762.539121880636</v>
+      </c>
+      <c r="D55" s="22">
+        <f>SUMIF($B$4:$B$34,$B55,$H$4:$H$34)</f>
+        <v>310.43</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6">
+        <v>10988.834203464858</v>
+      </c>
+      <c r="D56" s="22">
+        <f>SUMIF($B$4:$B$34,$B56,$H$4:$H$34)</f>
+        <v>430.99</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9793.6831244079513</v>
+      </c>
+      <c r="D57" s="22">
+        <f>SUMIF($B$4:$B$34,$B57,$H$4:$H$34)</f>
+        <v>843.66</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="6">
+        <v>8871.1323354231117</v>
+      </c>
+      <c r="D58" s="22">
+        <f>SUMIF($B$4:$B$34,$B58,$H$4:$H$34)</f>
+        <v>156.33000000000001</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="6">
+        <v>8668.5007439447181</v>
+      </c>
+      <c r="D59" s="22">
+        <f>SUMIF($B$4:$B$34,$B59,$H$4:$H$34)</f>
+        <v>139.68</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="6">
+        <v>7935.4560050335003</v>
+      </c>
+      <c r="D60" s="22">
+        <f>SUMIF($B$4:$B$34,$B60,$H$4:$H$34)</f>
+        <v>121.09</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="6">
+        <v>5711.5137585405673</v>
+      </c>
+      <c r="D61" s="22">
+        <f>SUMIF($B$4:$B$34,$B61,$H$4:$H$34)</f>
+        <v>141.63</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3823.426548084667</v>
+      </c>
+      <c r="D62" s="22">
+        <f>SUMIF($B$4:$B$34,$B62,$H$4:$H$34)</f>
+        <v>53.45</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3446.780221259145</v>
+      </c>
+      <c r="D63" s="22">
+        <f>SUMIF($B$4:$B$34,$B63,$H$4:$H$34)</f>
+        <v>92.99</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2950.3734714636626</v>
+      </c>
+      <c r="D64" s="22">
+        <f>SUMIF($B$4:$B$34,$B64,$H$4:$H$34)</f>
+        <v>81.55</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2853.9785406570368</v>
+      </c>
+      <c r="D65" s="22">
+        <f>SUMIF($B$4:$B$34,$B65,$H$4:$H$34)</f>
+        <v>42.71</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2276.9368646054131</v>
+      </c>
+      <c r="D66" s="22">
+        <f>SUMIF($B$4:$B$34,$B66,$H$4:$H$34)</f>
+        <v>58.47</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2219.2646619820498</v>
+      </c>
+      <c r="D67" s="22">
+        <f>SUMIF($B$4:$B$34,$B67,$H$4:$H$34)</f>
+        <v>38.53</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2082.0128753843478</v>
+      </c>
+      <c r="D68" s="22">
+        <f>SUMIF($B$4:$B$34,$B68,$H$4:$H$34)</f>
+        <v>95.67</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2005.9091581458854</v>
+      </c>
+      <c r="D69" s="22">
+        <f>SUMIF($B$4:$B$34,$B69,$H$4:$H$34)</f>
+        <v>54.03</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1737.5953858203882</v>
+      </c>
+      <c r="D70" s="22">
+        <f>SUMIF($B$4:$B$34,$B70,$H$4:$H$34)</f>
+        <v>36.42</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1694.4436725592789</v>
+      </c>
+      <c r="D71" s="22">
+        <f>SUMIF($B$4:$B$34,$B71,$H$4:$H$34)</f>
+        <v>33.33</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1188.7077430954027</v>
+      </c>
+      <c r="D72" s="22">
+        <f>SUMIF($B$4:$B$34,$B72,$H$4:$H$34)</f>
+        <v>35.869999999999997</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C75" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C77" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="6">
+        <v>4692.9772768149724</v>
+      </c>
+      <c r="D78" s="6">
+        <f>SUMIF($B$4:$B$34,$B78,$G$4:$G$34)</f>
+        <v>62.413686031553581</v>
+      </c>
+      <c r="E78" s="7">
+        <v>4.2729777995043197E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2227.7235540137372</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" ref="D79:D108" si="0">SUMIF($B$4:$B$34,$B79,$G$4:$G$34)</f>
+        <v>781.72617457632145</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5.6040339855942096E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="6">
+        <v>2008.9870782756591</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="0"/>
+        <v>190.80673833911794</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7.1205831061299379E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1976.804590885605</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="0"/>
+        <v>377.36241101434609</v>
+      </c>
+      <c r="E81" s="4">
+        <v>9.7657580591934967E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1356.7085089440357</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="0"/>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="E82" s="4">
+        <v>4.8372800170715852E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1150.248435949318</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="0"/>
+        <v>75.638290306521583</v>
+      </c>
+      <c r="E83" s="4">
+        <v>4.8179282139130954E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1004.9221167440427</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="0"/>
+        <v>196.16940124288956</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.21071145577649888</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="6">
+        <v>855.22171643638376</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="0"/>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.35520843009849717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="6">
+        <v>447.15844883203658</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="0"/>
+        <v>962.81931514351061</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.12002329200380427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="6">
+        <v>402.0577628197683</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="0"/>
+        <v>504.68110005851372</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.47254697565098119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="6">
+        <v>386.43167819357132</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="0"/>
+        <v>1871.9838303198417</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.21531968758934555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="6">
+        <v>341.16965803718733</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="0"/>
+        <v>1619.013838564631</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.14522594479388795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="6">
+        <v>220.16842282295258</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="0"/>
+        <v>4316.6314846798432</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.2847638148841653</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="6">
+        <v>197.75919323301312</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="0"/>
+        <v>1377.1058833798882</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.77107007045467435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="6">
+        <v>148.26039961481143</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="0"/>
+        <v>3999.3198739977088</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.36243579833114992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="6">
+        <v>129.60568758583017</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="0"/>
+        <v>1852.6481327500812</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.73031950454163241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="6">
+        <v>105.73545297765708</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="0"/>
+        <v>952.18981917006374</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.11466437767538516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="6">
+        <v>95.841170288562466</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="0"/>
+        <v>5742.1827099938691</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.16553816310450301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="6">
+        <v>82.999177209377407</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="0"/>
+        <v>3568.8138509517153</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.18698996849706143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="6">
+        <v>75.274060715675475</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="0"/>
+        <v>2879.6224319822322</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.11054626016177703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="6">
+        <v>73.266551779270216</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="0"/>
+        <v>6566.9632140083322</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.34913852525361738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="6">
+        <v>34.339339865684501</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="0"/>
+        <v>4043.3420365535244</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1.711710759602898</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="6">
+        <v>23.515375140666947</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="0"/>
+        <v>10173.408208770335</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1.729331821886152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="6">
+        <v>17.150895530223842</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="0"/>
+        <v>9635.4198734393703</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.49983365239764055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="6">
+        <v>16.545192607879624</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="0"/>
+        <v>7190.993959362987</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.43456279379966473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="6">
+        <v>13.607353075027472</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="0"/>
+        <v>957.14053690340836</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4.276889781804277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="6">
+        <v>12.209053881168373</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="0"/>
+        <v>5652.6552655265532</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.50641050489998929</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="6">
+        <v>11.243136580944061</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="0"/>
+        <v>7295.146638982611</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1.0005888811751928</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="6">
+        <v>6.763776578426361</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="0"/>
+        <v>5916.0618122219621</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2.7497320297209145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="6">
+        <v>6.5368619575500473</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="0"/>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1.8377147806352201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2.3620001182556152</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="0"/>
+        <v>2391.2182882631728</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.1306827467082285</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A77:L77" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:L108">
+      <sortCondition descending="1" ref="C77"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
+++ b/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\전문가WorkShop\[3-2] 경기도 태양광 잠재량 공간정보 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BBBA8-A893-49D5-9AA1-A834B272E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99732EC0-221C-4F40-A8A6-377D339CED3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
   </bookViews>
   <sheets>
     <sheet name="잠재량 데이터" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$77:$L$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$115:$Z$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">시군별면적_rawData!$A$15:$C$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">시군별인구_rawData!$A$22:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'잠재량 데이터'!$A$2:$AL$2</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="214">
   <si>
     <t>SIGUNGU_NM</t>
   </si>
@@ -736,10 +736,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Use Rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Market potential</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -761,6 +757,10 @@
   </si>
   <si>
     <t>Administrative area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +967,15 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,13 +983,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,101 +1063,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$4:$B$34</c:f>
+              <c:f>Sheet2!$A$4:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>연천군</c:v>
+                  <c:v>Yeoncheon-gun</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>파주시</c:v>
+                  <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>포천시</c:v>
+                  <c:v>Pocheon-si</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>안성시</c:v>
+                  <c:v>Anseong-si</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>양평군</c:v>
+                  <c:v>Yangpyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>가평군</c:v>
+                  <c:v>Gapyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>여주시</c:v>
+                  <c:v>Yeoju-si</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>화성시</c:v>
+                  <c:v>Hwaseong-si</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>양주시</c:v>
+                  <c:v>Yangju-si</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>이천시</c:v>
+                  <c:v>Icheon-si</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>용인시</c:v>
+                  <c:v>Yongin-si</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>남양주시</c:v>
+                  <c:v>Namyangju-si</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>안산시</c:v>
+                  <c:v>Ansan-si</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>평택시</c:v>
+                  <c:v>Pyeongtaek-si</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>시흥시</c:v>
+                  <c:v>Siheung-si</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>김포시</c:v>
+                  <c:v>Gimpo-si</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>동두천시</c:v>
+                  <c:v>Dongducheon-si</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>의정부시</c:v>
+                  <c:v>Uijeongbu-si</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>하남시</c:v>
+                  <c:v>Hanam-si</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>의왕시</c:v>
+                  <c:v>Uiwang-si</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>성남시</c:v>
+                  <c:v>Seongnam-si</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>고양시</c:v>
+                  <c:v>Goyang-si</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>수원시</c:v>
+                  <c:v>Suwon-si</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>안양시</c:v>
+                  <c:v>Anyang-si</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>군포시</c:v>
+                  <c:v>Gunpo-si</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>광주시</c:v>
+                  <c:v>Gwangju-si</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>구리시</c:v>
+                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>광명시</c:v>
+                  <c:v>Gwangmyeong-si</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>오산시</c:v>
+                  <c:v>Osan-si</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>부천시</c:v>
+                  <c:v>Bucheon-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>과천시</c:v>
+                  <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,101 +1296,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$4:$B$34</c:f>
+              <c:f>Sheet2!$A$4:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>연천군</c:v>
+                  <c:v>Yeoncheon-gun</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>파주시</c:v>
+                  <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>포천시</c:v>
+                  <c:v>Pocheon-si</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>안성시</c:v>
+                  <c:v>Anseong-si</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>양평군</c:v>
+                  <c:v>Yangpyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>가평군</c:v>
+                  <c:v>Gapyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>여주시</c:v>
+                  <c:v>Yeoju-si</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>화성시</c:v>
+                  <c:v>Hwaseong-si</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>양주시</c:v>
+                  <c:v>Yangju-si</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>이천시</c:v>
+                  <c:v>Icheon-si</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>용인시</c:v>
+                  <c:v>Yongin-si</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>남양주시</c:v>
+                  <c:v>Namyangju-si</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>안산시</c:v>
+                  <c:v>Ansan-si</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>평택시</c:v>
+                  <c:v>Pyeongtaek-si</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>시흥시</c:v>
+                  <c:v>Siheung-si</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>김포시</c:v>
+                  <c:v>Gimpo-si</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>동두천시</c:v>
+                  <c:v>Dongducheon-si</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>의정부시</c:v>
+                  <c:v>Uijeongbu-si</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>하남시</c:v>
+                  <c:v>Hanam-si</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>의왕시</c:v>
+                  <c:v>Uiwang-si</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>성남시</c:v>
+                  <c:v>Seongnam-si</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>고양시</c:v>
+                  <c:v>Goyang-si</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>수원시</c:v>
+                  <c:v>Suwon-si</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>안양시</c:v>
+                  <c:v>Anyang-si</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>군포시</c:v>
+                  <c:v>Gunpo-si</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>광주시</c:v>
+                  <c:v>Gwangju-si</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>구리시</c:v>
+                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>광명시</c:v>
+                  <c:v>Gwangmyeong-si</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>오산시</c:v>
+                  <c:v>Osan-si</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>부천시</c:v>
+                  <c:v>Bucheon-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>과천시</c:v>
+                  <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1800,15 +1803,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1859,15 +1862,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1901,15 +1904,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1948,10 +1951,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14115052278900897"/>
-          <c:y val="7.965147887058914E-2"/>
-          <c:w val="0.49400578122376521"/>
-          <c:h val="0.19849707517752752"/>
+          <c:x val="0.14731936347278854"/>
+          <c:y val="0.13147803628584501"/>
+          <c:w val="0.64411423786240107"/>
+          <c:h val="0.17834230284937247"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1978,8 +1981,8 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -2052,10 +2055,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.0243911955604154E-2"/>
-          <c:y val="5.5932211920796462E-2"/>
-          <c:w val="0.88036294654504077"/>
-          <c:h val="0.66878693161799496"/>
+          <c:x val="5.4421991790224104E-2"/>
+          <c:y val="2.394774864116574E-2"/>
+          <c:w val="0.8961214146860359"/>
+          <c:h val="0.68082912176051602"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2067,11 +2070,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$40</c:f>
+              <c:f>Sheet2!$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Technical potential</c:v>
+                  <c:v>Market potential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2088,98 +2091,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$42:$A$72</c:f>
+              <c:f>Sheet2!$A$78:$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Hwaseong-si</c:v>
+                  <c:v>Yeoncheon-gun</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Pyeongtaek-si</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Gimpo-si</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Goyang-si</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Gwangju-si</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Gwacheon-si</c:v>
@@ -2189,109 +2192,109 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$42:$C$72</c:f>
+              <c:f>Sheet2!$C$78:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>44751.392991897432</c:v>
+                  <c:v>4692.9772768149724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31355.336931794514</c:v>
+                  <c:v>2227.7235540137372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31245.400532437368</c:v>
+                  <c:v>2008.9870782756591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27735.132525380792</c:v>
+                  <c:v>1976.804590885605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27055.708066988154</c:v>
+                  <c:v>1356.7085089440357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26854.336309870869</c:v>
+                  <c:v>1150.248435949318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24151.977285743757</c:v>
+                  <c:v>1004.9221167440427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21840.895466752601</c:v>
+                  <c:v>855.22171643638376</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19327.554148223146</c:v>
+                  <c:v>447.15844883203658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18350.067029442034</c:v>
+                  <c:v>402.0577628197683</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16960.33486496273</c:v>
+                  <c:v>386.43167819357132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14593.03026418845</c:v>
+                  <c:v>341.16965803718733</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12899.100715625664</c:v>
+                  <c:v>220.16842282295258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11762.539121880636</c:v>
+                  <c:v>197.75919323301312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10988.834203464858</c:v>
+                  <c:v>148.26039961481143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9793.6831244079513</c:v>
+                  <c:v>129.60568758583017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8871.1323354231117</c:v>
+                  <c:v>105.73545297765708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8668.5007439447181</c:v>
+                  <c:v>95.841170288562466</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7935.4560050335003</c:v>
+                  <c:v>82.999177209377407</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5711.5137585405673</c:v>
+                  <c:v>75.274060715675475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3823.426548084667</c:v>
+                  <c:v>73.266551779270216</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3446.780221259145</c:v>
+                  <c:v>34.339339865684501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2950.3734714636626</c:v>
+                  <c:v>23.515375140666947</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2853.9785406570368</c:v>
+                  <c:v>17.150895530223842</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2276.9368646054131</c:v>
+                  <c:v>16.545192607879624</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2219.2646619820498</c:v>
+                  <c:v>13.607353075027472</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2082.0128753843478</c:v>
+                  <c:v>12.209053881168373</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2005.9091581458854</c:v>
+                  <c:v>11.243136580944061</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1737.5953858203882</c:v>
+                  <c:v>6.763776578426361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1694.4436725592789</c:v>
+                  <c:v>6.5368619575500473</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1188.7077430954027</c:v>
+                  <c:v>2.3620001182556152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-511A-4A73-AB41-365AD747489C}"/>
+              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2308,242 +2311,252 @@
         <c:axId val="352924847"/>
         <c:axId val="352917647"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$40</c:f>
+              <c:f>Sheet2!$D$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Administrative Area</c:v>
+                  <c:v>Population density</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$42:$A$72</c:f>
+              <c:f>Sheet2!$A$78:$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Hwaseong-si</c:v>
+                  <c:v>Yeoncheon-gun</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Pyeongtaek-si</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Gimpo-si</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Goyang-si</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Gwangju-si</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$42:$D$72</c:f>
+              <c:f>Sheet2!$D$78:$D$108</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>698.18</c:v>
+                  <c:v>62.413686031553581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>673.86</c:v>
+                  <c:v>781.72617457632145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>458.24</c:v>
+                  <c:v>190.80673833911794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>608.26</c:v>
+                  <c:v>377.36241101434609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>461.43</c:v>
+                  <c:v>146.35805352687166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553.46</c:v>
+                  <c:v>75.638290306521583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>591.23</c:v>
+                  <c:v>196.16940124288956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>826.91</c:v>
+                  <c:v>1460.769429087055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>676.31</c:v>
+                  <c:v>962.81931514351061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>877.69</c:v>
+                  <c:v>504.68110005851372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>276.61</c:v>
+                  <c:v>1871.9838303198417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>268.10000000000002</c:v>
+                  <c:v>1619.013838564631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>458.14</c:v>
+                  <c:v>4316.6314846798432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>310.43</c:v>
+                  <c:v>1377.1058833798882</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>430.99</c:v>
+                  <c:v>3999.3198739977088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>843.66</c:v>
+                  <c:v>1852.6481327500812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>156.33000000000001</c:v>
+                  <c:v>952.18981917006374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>139.68</c:v>
+                  <c:v>5742.1827099938691</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121.09</c:v>
+                  <c:v>3568.8138509517153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.63</c:v>
+                  <c:v>2879.6224319822322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.45</c:v>
+                  <c:v>6566.9632140083322</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92.99</c:v>
+                  <c:v>4043.3420365535244</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>81.55</c:v>
+                  <c:v>10173.408208770335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.71</c:v>
+                  <c:v>9635.4198734393703</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.47</c:v>
+                  <c:v>7190.993959362987</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38.53</c:v>
+                  <c:v>957.14053690340836</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95.67</c:v>
+                  <c:v>5652.6552655265532</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54.03</c:v>
+                  <c:v>7295.146638982611</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.42</c:v>
+                  <c:v>5916.0618122219621</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.33</c:v>
+                  <c:v>14952.703461178671</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.869999999999997</c:v>
+                  <c:v>2391.2182882631728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-511A-4A73-AB41-365AD747489C}"/>
+              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2555,11 +2568,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="352909487"/>
         <c:axId val="352908047"/>
-      </c:lineChart>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="352924847"/>
         <c:scaling>
@@ -2589,811 +2600,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="352917647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="352917647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="352924847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="352908047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="352909487"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="352909487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352908047"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.70826738027680936"/>
-          <c:y val="0.44773169399732232"/>
-          <c:w val="0.22034294817850525"/>
-          <c:h val="0.13649787596009622"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.44219767763678E-2"/>
-          <c:y val="4.4034760727275829E-2"/>
-          <c:w val="0.8961214146860359"/>
-          <c:h val="0.68082912176051602"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Market potential</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$78:$A$108</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$78:$C$108</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>4692.9772768149724</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2227.7235540137372</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008.9870782756591</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1976.804590885605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1356.7085089440357</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1150.248435949318</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1004.9221167440427</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>855.22171643638376</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>447.15844883203658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>402.0577628197683</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>386.43167819357132</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>341.16965803718733</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>220.16842282295258</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>197.75919323301312</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>148.26039961481143</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>129.60568758583017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>105.73545297765708</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95.841170288562466</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.999177209377407</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75.274060715675475</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>73.266551779270216</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.339339865684501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.515375140666947</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.150895530223842</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.545192607879624</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.607353075027472</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.209053881168373</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.243136580944061</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.763776578426361</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.5368619575500473</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3620001182556152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="352924847"/>
-        <c:axId val="352917647"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$76</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population density</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$78:$A$108</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$78:$D$108</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>62.413686031553581</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>781.72617457632145</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190.80673833911794</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>377.36241101434609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>146.35805352687166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75.638290306521583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>196.16940124288956</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1460.769429087055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>962.81931514351061</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>504.68110005851372</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1871.9838303198417</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1619.013838564631</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4316.6314846798432</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1377.1058833798882</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3999.3198739977088</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1852.6481327500812</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>952.18981917006374</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5742.1827099938691</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3568.8138509517153</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2879.6224319822322</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6566.9632140083322</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4043.3420365535244</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10173.408208770335</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9635.4198734393703</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7190.993959362987</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>957.14053690340836</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5652.6552655265532</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7295.146638982611</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5916.0618122219621</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14952.703461178671</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2391.2182882631728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="352909487"/>
-        <c:axId val="352908047"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="352924847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -3444,15 +2659,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -3489,15 +2704,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -3506,12 +2721,12 @@
         </c:txPr>
         <c:crossAx val="352909487"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
       </c:valAx>
-      <c:catAx>
+      <c:valAx>
         <c:axId val="352909487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3524,11 +2739,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="352908047"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3543,9 +2755,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19173235519453272"/>
-          <c:y val="0.1946517168005569"/>
-          <c:w val="0.19967236344177544"/>
+          <c:x val="0.1302537909346744"/>
+          <c:y val="6.9255765509655273E-2"/>
+          <c:w val="0.32070810404328548"/>
           <c:h val="0.14353263160657886"/>
         </c:manualLayout>
       </c:layout>
@@ -3566,15 +2778,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -3599,10 +2811,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3626,7 +2835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4422,7 +3631,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5163,7 +4372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5184,10 +4393,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.44219767763678E-2"/>
-          <c:y val="4.4034760727275829E-2"/>
-          <c:w val="0.8961214146860359"/>
-          <c:h val="0.68082912176051602"/>
+          <c:x val="5.0243851368974746E-2"/>
+          <c:y val="4.0048950454236204E-2"/>
+          <c:w val="0.88036294654504077"/>
+          <c:h val="0.66878693161799496"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5199,11 +4408,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$76</c:f>
+              <c:f>Sheet2!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Population density</c:v>
+                  <c:v>Technical potential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5220,98 +4429,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$78:$A$108</c:f>
+              <c:f>Sheet2!$A$42:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Yeoncheon-gun</c:v>
+                  <c:v>Hwaseong-si</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Pocheon-si</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Yangpyeong-gun</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Gapyeong-gun</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Ansan-si</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>Siheung-si</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Dongducheon-si</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>Uiwang-si</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>Gunpo-si</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Bucheon-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Gwacheon-si</c:v>
@@ -5321,109 +4530,109 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$78:$D$108</c:f>
+              <c:f>Sheet2!$C$42:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>62.413686031553581</c:v>
+                  <c:v>44751.392991897432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>781.72617457632145</c:v>
+                  <c:v>31355.336931794514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.80673833911794</c:v>
+                  <c:v>31245.400532437368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>377.36241101434609</c:v>
+                  <c:v>27735.132525380792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.35805352687166</c:v>
+                  <c:v>27055.708066988154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.638290306521583</c:v>
+                  <c:v>26854.336309870869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>196.16940124288956</c:v>
+                  <c:v>24151.977285743757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1460.769429087055</c:v>
+                  <c:v>21840.895466752601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>962.81931514351061</c:v>
+                  <c:v>19327.554148223146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>504.68110005851372</c:v>
+                  <c:v>18350.067029442034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1871.9838303198417</c:v>
+                  <c:v>16960.33486496273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1619.013838564631</c:v>
+                  <c:v>14593.03026418845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4316.6314846798432</c:v>
+                  <c:v>12899.100715625664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1377.1058833798882</c:v>
+                  <c:v>11762.539121880636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3999.3198739977088</c:v>
+                  <c:v>10988.834203464858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1852.6481327500812</c:v>
+                  <c:v>9793.6831244079513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>952.18981917006374</c:v>
+                  <c:v>8871.1323354231117</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5742.1827099938691</c:v>
+                  <c:v>8668.5007439447181</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3568.8138509517153</c:v>
+                  <c:v>7935.4560050335003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2879.6224319822322</c:v>
+                  <c:v>5711.5137585405673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6566.9632140083322</c:v>
+                  <c:v>3823.426548084667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4043.3420365535244</c:v>
+                  <c:v>3446.780221259145</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10173.408208770335</c:v>
+                  <c:v>2950.3734714636626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9635.4198734393703</c:v>
+                  <c:v>2853.9785406570368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7190.993959362987</c:v>
+                  <c:v>2276.9368646054131</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>957.14053690340836</c:v>
+                  <c:v>2219.2646619820498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5652.6552655265532</c:v>
+                  <c:v>2082.0128753843478</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7295.146638982611</c:v>
+                  <c:v>2005.9091581458854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5916.0618122219621</c:v>
+                  <c:v>1737.5953858203882</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14952.703461178671</c:v>
+                  <c:v>1694.4436725592789</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2391.2182882631728</c:v>
+                  <c:v>1188.7077430954027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
+              <c16:uniqueId val="{00000000-511A-4A73-AB41-365AD747489C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5436,246 +4645,255 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="352924847"/>
         <c:axId val="352917647"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$76</c:f>
+              <c:f>Sheet2!$D$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Use Rate</c:v>
+                  <c:v>Administrative Area</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$78:$A$108</c:f>
+              <c:f>Sheet2!$A$42:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>Yeoncheon-gun</c:v>
+                  <c:v>Hwaseong-si</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Paju-si</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Pocheon-si</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Yangpyeong-gun</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Gapyeong-gun</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Ansan-si</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>Siheung-si</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Dongducheon-si</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>Uiwang-si</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>Gunpo-si</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Bucheon-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$78:$E$108</c:f>
+              <c:f>Sheet2!$D$42:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4.2729777995043197E-2</c:v>
+                  <c:v>698.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6040339855942096E-2</c:v>
+                  <c:v>673.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1205831061299379E-2</c:v>
+                  <c:v>458.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7657580591934967E-2</c:v>
+                  <c:v>608.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8372800170715852E-2</c:v>
+                  <c:v>461.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8179282139130954E-2</c:v>
+                  <c:v>553.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21071145577649888</c:v>
+                  <c:v>591.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35520843009849717</c:v>
+                  <c:v>826.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12002329200380427</c:v>
+                  <c:v>676.31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47254697565098119</c:v>
+                  <c:v>877.69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21531968758934555</c:v>
+                  <c:v>276.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14522594479388795</c:v>
+                  <c:v>268.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2847638148841653</c:v>
+                  <c:v>458.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77107007045467435</c:v>
+                  <c:v>310.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36243579833114992</c:v>
+                  <c:v>430.99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.73031950454163241</c:v>
+                  <c:v>843.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11466437767538516</c:v>
+                  <c:v>156.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16553816310450301</c:v>
+                  <c:v>139.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18698996849706143</c:v>
+                  <c:v>121.09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11054626016177703</c:v>
+                  <c:v>141.63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34913852525361738</c:v>
+                  <c:v>53.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.711710759602898</c:v>
+                  <c:v>92.99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.729331821886152</c:v>
+                  <c:v>81.55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.49983365239764055</c:v>
+                  <c:v>42.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.43456279379966473</c:v>
+                  <c:v>58.47</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.276889781804277</c:v>
+                  <c:v>38.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.50641050489998929</c:v>
+                  <c:v>95.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0005888811751928</c:v>
+                  <c:v>54.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7497320297209145</c:v>
+                  <c:v>36.42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8377147806352201</c:v>
+                  <c:v>33.33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1306827467082285</c:v>
+                  <c:v>35.869999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
+              <c16:uniqueId val="{00000001-511A-4A73-AB41-365AD747489C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5687,11 +4905,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="352909487"/>
-        <c:axId val="352908047"/>
-      </c:lineChart>
+        <c:axId val="1661752496"/>
+        <c:axId val="1661751536"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="352924847"/>
         <c:scaling>
@@ -5721,6 +4937,110 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352917647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352917647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352924847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661751536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -5730,6 +5050,699 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661752496"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661752496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1661751536"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56031955149987189"/>
+          <c:y val="6.6533347340617111E-2"/>
+          <c:w val="0.29128422739450305"/>
+          <c:h val="0.13563181057513196"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4421991790224104E-2"/>
+          <c:y val="2.394774864116574E-2"/>
+          <c:w val="0.8961214146860359"/>
+          <c:h val="0.68082912176051602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilization rate of market potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$116:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.276889781804277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7497320297209145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8377147806352201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.729331821886152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.711710759602898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1306827467082285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0005888811751928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77107007045467435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73031950454163241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50641050489998929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49983365239764055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47254697565098119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43456279379966473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36243579833114992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35520843009849717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34913852525361738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2847638148841653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21531968758934555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21071145577649888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18698996849706143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16553816310450301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14522594479388795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12002329200380427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11466437767538516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11054626016177703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7657580591934967E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1205831061299379E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6040339855942096E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8372800170715852E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8179282139130954E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2729777995043197E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352924847"/>
+        <c:axId val="352917647"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$116:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>957.14053690340836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5916.0618122219621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10173.408208770335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4043.3420365535244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2391.2182882631728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7295.146638982611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1377.1058833798882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1852.6481327500812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5652.6552655265532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9635.4198734393703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>504.68110005851372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7190.993959362987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3999.3198739977088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6566.9632140083322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4316.6314846798432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.16940124288956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3568.8138509517153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5742.1827099938691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1619.013838564631</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>962.81931514351061</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2879.6224319822322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>377.36241101434609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>190.80673833911794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>781.72617457632145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.638290306521583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.413686031553581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="352909487"/>
+        <c:axId val="352908047"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="352924847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -5780,15 +5793,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -5809,7 +5822,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5825,15 +5838,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -5842,12 +5855,12 @@
         </c:txPr>
         <c:crossAx val="352909487"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
         </c:dispUnits>
       </c:valAx>
-      <c:catAx>
+      <c:valAx>
         <c:axId val="352909487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5860,11 +5873,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="352908047"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5879,9 +5889,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19173235519453272"/>
-          <c:y val="0.1946517168005569"/>
-          <c:w val="0.21952121349621331"/>
+          <c:x val="0.1302537909346744"/>
+          <c:y val="6.9255765509655273E-2"/>
+          <c:w val="0.51474962109184541"/>
           <c:h val="0.14353263160657886"/>
         </c:manualLayout>
       </c:layout>
@@ -5902,15 +5912,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -5935,10 +5945,950 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4421991790224104E-2"/>
+          <c:y val="2.394774864116574E-2"/>
+          <c:w val="0.8961214146860359"/>
+          <c:h val="0.68082912176051602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utilization rate of market potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$116:$C$146</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4.276889781804277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7497320297209145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8377147806352201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.729331821886152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.711710759602898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1306827467082285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0005888811751928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77107007045467435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73031950454163241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50641050489998929</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49983365239764055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47254697565098119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43456279379966473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36243579833114992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35520843009849717</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34913852525361738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2847638148841653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21531968758934555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21071145577649888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18698996849706143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16553816310450301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14522594479388795</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12002329200380427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11466437767538516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11054626016177703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7657580591934967E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1205831061299379E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6040339855942096E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8372800170715852E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8179282139130954E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2729777995043197E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352924847"/>
+        <c:axId val="352917647"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$114</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Gwangju-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Suwon-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gwacheon-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guri-si</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gunpo-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Siheung-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ansan-si</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Hanam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Uijeongbu-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Uiwang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Gapyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$116:$D$146</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>957.14053690340836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5916.0618122219621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10173.408208770335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4043.3420365535244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2391.2182882631728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7295.146638982611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1377.1058833798882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1852.6481327500812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5652.6552655265532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9635.4198734393703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>504.68110005851372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7190.993959362987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3999.3198739977088</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6566.9632140083322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4316.6314846798432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>196.16940124288956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3568.8138509517153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5742.1827099938691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1619.013838564631</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>962.81931514351061</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2879.6224319822322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>377.36241101434609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>190.80673833911794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>781.72617457632145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.638290306521583</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.413686031553581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$116:$E$146</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>430.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>458.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>461.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>139.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>698.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>591.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>608.26</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>458.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>310.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>553.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>826.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>673.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>877.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>843.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>676.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57FC-4E52-89A1-6FA9A206C73D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="352909487"/>
+        <c:axId val="352908047"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="352924847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352917647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352917647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352924847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352908047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352909487"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352909487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="352908047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1302537909346744"/>
+          <c:y val="6.9255765509655273E-2"/>
+          <c:w val="0.29125439588674945"/>
+          <c:h val="0.3428395760498083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6202,6 +7152,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8718,6 +9708,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9263,51 +10756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>157940</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>192174</xdr:rowOff>
+      <xdr:colOff>1087457</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>209367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171174</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="차트 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE649AC-9A6D-83C5-5ED4-E1F73E00249B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>13234</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>77304</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>443957</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>57047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9328,7 +10785,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9366,7 +10823,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9402,6 +10859,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598705</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>634352</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98359B5B-B98A-BB56-1664-512C2D017944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
@@ -9410,23 +10903,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>900692</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>149603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>162647</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>77304</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257192</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>213930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D0E5CD-E680-E7E2-F62B-76D8B48BF8AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78CED71-E683-1426-EDF2-1884ABF77333}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9441,6 +10934,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>900692</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>59956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257192</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>124283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EC66B8-0033-0226-7DA4-CADC5999D189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9768,8 +11299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC582A94-8A06-493D-8E8E-C421F46C6162}">
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9782,14 +11313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="19"/>
+      <c r="M1" s="22"/>
       <c r="AE1" t="s">
         <v>82</v>
       </c>
@@ -9916,7 +11447,7 @@
         <v>40665.886534345897</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T33" si="3">S3/R3</f>
+        <f t="shared" ref="T3:T34" si="3">S3/R3</f>
         <v>1.729331821886152</v>
       </c>
       <c r="AE3">
@@ -12446,6 +13977,14 @@
       <c r="R34">
         <f>SUM(R3:R33)</f>
         <v>18123593.927509293</v>
+      </c>
+      <c r="S34">
+        <f>SUM(S3:S33)</f>
+        <v>2339564.7593723405</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12908944929632202</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.45">
@@ -12721,7 +14260,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12845,7 +14384,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -12853,7 +14392,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -12861,7 +14400,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -13852,14 +15391,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-  <dimension ref="A1:Z108"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.58203125" customWidth="1"/>
@@ -13870,22 +15410,22 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
         <v>209</v>
       </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>210</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>211</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>212</v>
-      </c>
-      <c r="H2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
@@ -13921,10 +15461,10 @@
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>19327.554148223146</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>4692.9772768149724</v>
       </c>
       <c r="E4" s="6">
@@ -13933,7 +15473,7 @@
       <c r="F4" s="7">
         <v>4.2729777995043197E-2</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$D$23:$D$54)</f>
         <v>62.413686031553581</v>
       </c>
@@ -13949,10 +15489,10 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>31355.336931794514</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>2227.7235540137372</v>
       </c>
       <c r="E5" s="6">
@@ -13961,7 +15501,7 @@
       <c r="F5" s="4">
         <v>5.6040339855942096E-2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$D$23:$D$54)</f>
         <v>781.72617457632145</v>
       </c>
@@ -13977,10 +15517,10 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>21840.895466752601</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>2008.9870782756591</v>
       </c>
       <c r="E6" s="6">
@@ -13989,7 +15529,7 @@
       <c r="F6" s="4">
         <v>7.1205831061299379E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$D$23:$D$54)</f>
         <v>190.80673833911794</v>
       </c>
@@ -14005,10 +15545,10 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>26854.336309870869</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>1976.804590885605</v>
       </c>
       <c r="E7" s="6">
@@ -14017,7 +15557,7 @@
       <c r="F7" s="4">
         <v>9.7657580591934967E-2</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$D$23:$D$54)</f>
         <v>377.36241101434609</v>
       </c>
@@ -14033,10 +15573,10 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>18350.067029442034</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>1356.7085089440357</v>
       </c>
       <c r="E8" s="6">
@@ -14045,7 +15585,7 @@
       <c r="F8" s="4">
         <v>4.8372800170715852E-2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$D$23:$D$54)</f>
         <v>146.35805352687166</v>
       </c>
@@ -14061,10 +15601,10 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="21">
         <v>9793.6831244079513</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>1150.248435949318</v>
       </c>
       <c r="E9" s="6">
@@ -14073,7 +15613,7 @@
       <c r="F9" s="4">
         <v>4.8179282139130954E-2</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$D$23:$D$54)</f>
         <v>75.638290306521583</v>
       </c>
@@ -14089,10 +15629,10 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>27735.132525380792</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>1004.9221167440427</v>
       </c>
       <c r="E10" s="6">
@@ -14101,7 +15641,7 @@
       <c r="F10" s="4">
         <v>0.21071145577649888</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$D$23:$D$54)</f>
         <v>196.16940124288956</v>
       </c>
@@ -14117,10 +15657,10 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <v>44751.392991897432</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>855.22171643638376</v>
       </c>
       <c r="E11" s="6">
@@ -14129,7 +15669,7 @@
       <c r="F11" s="4">
         <v>0.35520843009849717</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$D$23:$D$54)</f>
         <v>1460.769429087055</v>
       </c>
@@ -14145,10 +15685,10 @@
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>11762.539121880636</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>447.15844883203658</v>
       </c>
       <c r="E12" s="6">
@@ -14157,7 +15697,7 @@
       <c r="F12" s="4">
         <v>0.12002329200380427</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$D$23:$D$54)</f>
         <v>962.81931514351061</v>
       </c>
@@ -14173,10 +15713,10 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="21">
         <v>27055.708066988154</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>402.0577628197683</v>
       </c>
       <c r="E13" s="6">
@@ -14185,7 +15725,7 @@
       <c r="F13" s="4">
         <v>0.47254697565098119</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$D$23:$D$54)</f>
         <v>504.68110005851372</v>
       </c>
@@ -14201,10 +15741,10 @@
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>24151.977285743757</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>386.43167819357132</v>
       </c>
       <c r="E14" s="6">
@@ -14213,7 +15753,7 @@
       <c r="F14" s="4">
         <v>0.21531968758934555</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$D$23:$D$54)</f>
         <v>1871.9838303198417</v>
       </c>
@@ -14229,10 +15769,10 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="21">
         <v>12899.100715625664</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>341.16965803718733</v>
       </c>
       <c r="E15" s="6">
@@ -14241,7 +15781,7 @@
       <c r="F15" s="4">
         <v>0.14522594479388795</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$D$23:$D$54)</f>
         <v>1619.013838564631</v>
       </c>
@@ -14257,10 +15797,10 @@
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <v>8871.1323354231117</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>220.16842282295258</v>
       </c>
       <c r="E16" s="6">
@@ -14269,7 +15809,7 @@
       <c r="F16" s="4">
         <v>0.2847638148841653</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$D$23:$D$54)</f>
         <v>4316.6314846798432</v>
       </c>
@@ -14285,10 +15825,10 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="21">
         <v>31245.400532437368</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>197.75919323301312</v>
       </c>
       <c r="E17" s="6">
@@ -14297,7 +15837,7 @@
       <c r="F17" s="4">
         <v>0.77107007045467435</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$D$23:$D$54)</f>
         <v>1377.1058833798882</v>
       </c>
@@ -14313,10 +15853,10 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="21">
         <v>8668.5007439447181</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>148.26039961481143</v>
       </c>
       <c r="E18" s="6">
@@ -14325,7 +15865,7 @@
       <c r="F18" s="4">
         <v>0.36243579833114992</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$D$23:$D$54)</f>
         <v>3999.3198739977088</v>
       </c>
@@ -14341,10 +15881,10 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="21">
         <v>16960.33486496273</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>129.60568758583017</v>
       </c>
       <c r="E19" s="6">
@@ -14353,7 +15893,7 @@
       <c r="F19" s="4">
         <v>0.73031950454163241</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$D$23:$D$54)</f>
         <v>1852.6481327500812</v>
       </c>
@@ -14369,10 +15909,10 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="21">
         <v>2082.0128753843478</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <v>105.73545297765708</v>
       </c>
       <c r="E20" s="6">
@@ -14381,7 +15921,7 @@
       <c r="F20" s="4">
         <v>0.11466437767538516</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$D$23:$D$54)</f>
         <v>952.18981917006374</v>
       </c>
@@ -14397,10 +15937,10 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="21">
         <v>2950.3734714636626</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>95.841170288562466</v>
       </c>
       <c r="E21" s="6">
@@ -14409,7 +15949,7 @@
       <c r="F21" s="4">
         <v>0.16553816310450301</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$D$23:$D$54)</f>
         <v>5742.1827099938691</v>
       </c>
@@ -14425,10 +15965,10 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="21">
         <v>3446.780221259145</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>82.999177209377407</v>
       </c>
       <c r="E22" s="6">
@@ -14437,7 +15977,7 @@
       <c r="F22" s="4">
         <v>0.18698996849706143</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$D$23:$D$54)</f>
         <v>3568.8138509517153</v>
       </c>
@@ -14453,10 +15993,10 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="21">
         <v>2005.9091581458854</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>75.274060715675475</v>
       </c>
       <c r="E23" s="6">
@@ -14465,7 +16005,7 @@
       <c r="F23" s="4">
         <v>0.11054626016177703</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$D$23:$D$54)</f>
         <v>2879.6224319822322</v>
       </c>
@@ -14481,10 +16021,10 @@
       <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="21">
         <v>5711.5137585405673</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="20">
         <v>73.266551779270216</v>
       </c>
       <c r="E24" s="6">
@@ -14493,7 +16033,7 @@
       <c r="F24" s="4">
         <v>0.34913852525361738</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$D$23:$D$54)</f>
         <v>6566.9632140083322</v>
       </c>
@@ -14509,10 +16049,10 @@
       <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="21">
         <v>14593.03026418845</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>34.339339865684501</v>
       </c>
       <c r="E25" s="6">
@@ -14521,7 +16061,7 @@
       <c r="F25" s="4">
         <v>1.711710759602898</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$D$23:$D$54)</f>
         <v>4043.3420365535244</v>
       </c>
@@ -14537,10 +16077,10 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="21">
         <v>7935.4560050335003</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>23.515375140666947</v>
       </c>
       <c r="E26" s="6">
@@ -14549,7 +16089,7 @@
       <c r="F26" s="4">
         <v>1.729331821886152</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$D$23:$D$54)</f>
         <v>10173.408208770335</v>
       </c>
@@ -14565,10 +16105,10 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="21">
         <v>2276.9368646054131</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>17.150895530223842</v>
       </c>
       <c r="E27" s="6">
@@ -14577,7 +16117,7 @@
       <c r="F27" s="4">
         <v>0.49983365239764055</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$D$23:$D$54)</f>
         <v>9635.4198734393703</v>
       </c>
@@ -14593,10 +16133,10 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="21">
         <v>1737.5953858203882</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="20">
         <v>16.545192607879624</v>
       </c>
       <c r="E28" s="6">
@@ -14605,7 +16145,7 @@
       <c r="F28" s="4">
         <v>0.43456279379966473</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$D$23:$D$54)</f>
         <v>7190.993959362987</v>
       </c>
@@ -14621,10 +16161,10 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="21">
         <v>10988.834203464858</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>13.607353075027472</v>
       </c>
       <c r="E29" s="6">
@@ -14633,7 +16173,7 @@
       <c r="F29" s="4">
         <v>4.276889781804277</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$D$23:$D$54)</f>
         <v>957.14053690340836</v>
       </c>
@@ -14649,10 +16189,10 @@
       <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="21">
         <v>1694.4436725592789</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>12.209053881168373</v>
       </c>
       <c r="E30" s="6">
@@ -14661,7 +16201,7 @@
       <c r="F30" s="4">
         <v>0.50641050489998929</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$D$23:$D$54)</f>
         <v>5652.6552655265532</v>
       </c>
@@ -14677,10 +16217,10 @@
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="21">
         <v>2219.2646619820498</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <v>11.243136580944061</v>
       </c>
       <c r="E31" s="6">
@@ -14689,7 +16229,7 @@
       <c r="F31" s="4">
         <v>1.0005888811751928</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$D$23:$D$54)</f>
         <v>7295.146638982611</v>
       </c>
@@ -14708,10 +16248,10 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="21">
         <v>2853.9785406570368</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <v>6.763776578426361</v>
       </c>
       <c r="E32" s="6">
@@ -14720,7 +16260,7 @@
       <c r="F32" s="4">
         <v>2.7497320297209145</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$D$23:$D$54)</f>
         <v>5916.0618122219621</v>
       </c>
@@ -14736,10 +16276,10 @@
       <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="21">
         <v>3823.426548084667</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="20">
         <v>6.5368619575500473</v>
       </c>
       <c r="E33" s="6">
@@ -14748,7 +16288,7 @@
       <c r="F33" s="4">
         <v>1.8377147806352201</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$D$23:$D$54)</f>
         <v>14952.703461178671</v>
       </c>
@@ -14764,10 +16304,10 @@
       <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="21">
         <v>1188.7077430954027</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <v>2.3620001182556152</v>
       </c>
       <c r="E34" s="6">
@@ -14776,7 +16316,7 @@
       <c r="F34" s="4">
         <v>1.1306827467082285</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="20">
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$D$23:$D$54)</f>
         <v>2391.2182882631728</v>
       </c>
@@ -14785,6 +16325,34 @@
         <v>35.869999999999997</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="25">
+        <f>SUM(C4:C34)</f>
+        <v>407131.35556906019</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" ref="D35:F35" si="0">SUM(D4:D34)</f>
+        <v>18123.593927509293</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
+        <v>2339.5647593723402</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.12908944929632202</v>
+      </c>
+      <c r="G35" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B35,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1389.0836633066117</v>
+      </c>
+      <c r="H35" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B35,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>10195.27</v>
+      </c>
+    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>203</v>
@@ -14811,11 +16379,11 @@
       <c r="C42" s="6">
         <v>44751.392991897432</v>
       </c>
-      <c r="D42" s="22">
-        <f>SUMIF($B$4:$B$34,$B42,$H$4:$H$34)</f>
+      <c r="D42" s="19">
+        <f t="shared" ref="D42:D72" si="1">SUMIF($B$4:$B$34,$B42,$H$4:$H$34)</f>
         <v>698.18</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -14830,11 +16398,11 @@
       <c r="C43" s="6">
         <v>31355.336931794514</v>
       </c>
-      <c r="D43" s="22">
-        <f>SUMIF($B$4:$B$34,$B43,$H$4:$H$34)</f>
+      <c r="D43" s="19">
+        <f t="shared" si="1"/>
         <v>673.86</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -14849,11 +16417,11 @@
       <c r="C44" s="6">
         <v>31245.400532437368</v>
       </c>
-      <c r="D44" s="22">
-        <f>SUMIF($B$4:$B$34,$B44,$H$4:$H$34)</f>
+      <c r="D44" s="19">
+        <f t="shared" si="1"/>
         <v>458.24</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -14868,11 +16436,11 @@
       <c r="C45" s="6">
         <v>27735.132525380792</v>
       </c>
-      <c r="D45" s="22">
-        <f>SUMIF($B$4:$B$34,$B45,$H$4:$H$34)</f>
+      <c r="D45" s="19">
+        <f t="shared" si="1"/>
         <v>608.26</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -14887,11 +16455,11 @@
       <c r="C46" s="6">
         <v>27055.708066988154</v>
       </c>
-      <c r="D46" s="22">
-        <f>SUMIF($B$4:$B$34,$B46,$H$4:$H$34)</f>
+      <c r="D46" s="19">
+        <f t="shared" si="1"/>
         <v>461.43</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -14906,11 +16474,11 @@
       <c r="C47" s="6">
         <v>26854.336309870869</v>
       </c>
-      <c r="D47" s="22">
-        <f>SUMIF($B$4:$B$34,$B47,$H$4:$H$34)</f>
+      <c r="D47" s="19">
+        <f t="shared" si="1"/>
         <v>553.46</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -14925,11 +16493,11 @@
       <c r="C48" s="6">
         <v>24151.977285743757</v>
       </c>
-      <c r="D48" s="22">
-        <f>SUMIF($B$4:$B$34,$B48,$H$4:$H$34)</f>
+      <c r="D48" s="19">
+        <f t="shared" si="1"/>
         <v>591.23</v>
       </c>
-      <c r="E48" s="22"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -14944,11 +16512,11 @@
       <c r="C49" s="6">
         <v>21840.895466752601</v>
       </c>
-      <c r="D49" s="22">
-        <f>SUMIF($B$4:$B$34,$B49,$H$4:$H$34)</f>
+      <c r="D49" s="19">
+        <f t="shared" si="1"/>
         <v>826.91</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -14963,11 +16531,11 @@
       <c r="C50" s="6">
         <v>19327.554148223146</v>
       </c>
-      <c r="D50" s="22">
-        <f>SUMIF($B$4:$B$34,$B50,$H$4:$H$34)</f>
+      <c r="D50" s="19">
+        <f t="shared" si="1"/>
         <v>676.31</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -14982,11 +16550,11 @@
       <c r="C51" s="6">
         <v>18350.067029442034</v>
       </c>
-      <c r="D51" s="22">
-        <f>SUMIF($B$4:$B$34,$B51,$H$4:$H$34)</f>
+      <c r="D51" s="19">
+        <f t="shared" si="1"/>
         <v>877.69</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -15001,11 +16569,11 @@
       <c r="C52" s="6">
         <v>16960.33486496273</v>
       </c>
-      <c r="D52" s="22">
-        <f>SUMIF($B$4:$B$34,$B52,$H$4:$H$34)</f>
+      <c r="D52" s="19">
+        <f t="shared" si="1"/>
         <v>276.61</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -15020,11 +16588,11 @@
       <c r="C53" s="6">
         <v>14593.03026418845</v>
       </c>
-      <c r="D53" s="22">
-        <f>SUMIF($B$4:$B$34,$B53,$H$4:$H$34)</f>
+      <c r="D53" s="19">
+        <f t="shared" si="1"/>
         <v>268.10000000000002</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -15039,11 +16607,11 @@
       <c r="C54" s="6">
         <v>12899.100715625664</v>
       </c>
-      <c r="D54" s="22">
-        <f>SUMIF($B$4:$B$34,$B54,$H$4:$H$34)</f>
+      <c r="D54" s="19">
+        <f t="shared" si="1"/>
         <v>458.14</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -15058,11 +16626,11 @@
       <c r="C55" s="6">
         <v>11762.539121880636</v>
       </c>
-      <c r="D55" s="22">
-        <f>SUMIF($B$4:$B$34,$B55,$H$4:$H$34)</f>
+      <c r="D55" s="19">
+        <f t="shared" si="1"/>
         <v>310.43</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -15077,11 +16645,11 @@
       <c r="C56" s="6">
         <v>10988.834203464858</v>
       </c>
-      <c r="D56" s="22">
-        <f>SUMIF($B$4:$B$34,$B56,$H$4:$H$34)</f>
+      <c r="D56" s="19">
+        <f t="shared" si="1"/>
         <v>430.99</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -15096,11 +16664,11 @@
       <c r="C57" s="6">
         <v>9793.6831244079513</v>
       </c>
-      <c r="D57" s="22">
-        <f>SUMIF($B$4:$B$34,$B57,$H$4:$H$34)</f>
+      <c r="D57" s="19">
+        <f t="shared" si="1"/>
         <v>843.66</v>
       </c>
-      <c r="E57" s="22"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -15115,11 +16683,11 @@
       <c r="C58" s="6">
         <v>8871.1323354231117</v>
       </c>
-      <c r="D58" s="22">
-        <f>SUMIF($B$4:$B$34,$B58,$H$4:$H$34)</f>
+      <c r="D58" s="19">
+        <f t="shared" si="1"/>
         <v>156.33000000000001</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -15134,11 +16702,11 @@
       <c r="C59" s="6">
         <v>8668.5007439447181</v>
       </c>
-      <c r="D59" s="22">
-        <f>SUMIF($B$4:$B$34,$B59,$H$4:$H$34)</f>
+      <c r="D59" s="19">
+        <f t="shared" si="1"/>
         <v>139.68</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -15153,11 +16721,11 @@
       <c r="C60" s="6">
         <v>7935.4560050335003</v>
       </c>
-      <c r="D60" s="22">
-        <f>SUMIF($B$4:$B$34,$B60,$H$4:$H$34)</f>
+      <c r="D60" s="19">
+        <f t="shared" si="1"/>
         <v>121.09</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -15172,11 +16740,11 @@
       <c r="C61" s="6">
         <v>5711.5137585405673</v>
       </c>
-      <c r="D61" s="22">
-        <f>SUMIF($B$4:$B$34,$B61,$H$4:$H$34)</f>
+      <c r="D61" s="19">
+        <f t="shared" si="1"/>
         <v>141.63</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -15191,11 +16759,11 @@
       <c r="C62" s="6">
         <v>3823.426548084667</v>
       </c>
-      <c r="D62" s="22">
-        <f>SUMIF($B$4:$B$34,$B62,$H$4:$H$34)</f>
+      <c r="D62" s="19">
+        <f t="shared" si="1"/>
         <v>53.45</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -15210,11 +16778,11 @@
       <c r="C63" s="6">
         <v>3446.780221259145</v>
       </c>
-      <c r="D63" s="22">
-        <f>SUMIF($B$4:$B$34,$B63,$H$4:$H$34)</f>
+      <c r="D63" s="19">
+        <f t="shared" si="1"/>
         <v>92.99</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -15229,11 +16797,11 @@
       <c r="C64" s="6">
         <v>2950.3734714636626</v>
       </c>
-      <c r="D64" s="22">
-        <f>SUMIF($B$4:$B$34,$B64,$H$4:$H$34)</f>
+      <c r="D64" s="19">
+        <f t="shared" si="1"/>
         <v>81.55</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -15248,11 +16816,11 @@
       <c r="C65" s="6">
         <v>2853.9785406570368</v>
       </c>
-      <c r="D65" s="22">
-        <f>SUMIF($B$4:$B$34,$B65,$H$4:$H$34)</f>
+      <c r="D65" s="19">
+        <f t="shared" si="1"/>
         <v>42.71</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -15267,11 +16835,11 @@
       <c r="C66" s="6">
         <v>2276.9368646054131</v>
       </c>
-      <c r="D66" s="22">
-        <f>SUMIF($B$4:$B$34,$B66,$H$4:$H$34)</f>
+      <c r="D66" s="19">
+        <f t="shared" si="1"/>
         <v>58.47</v>
       </c>
-      <c r="E66" s="22"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -15286,11 +16854,11 @@
       <c r="C67" s="6">
         <v>2219.2646619820498</v>
       </c>
-      <c r="D67" s="22">
-        <f>SUMIF($B$4:$B$34,$B67,$H$4:$H$34)</f>
+      <c r="D67" s="19">
+        <f t="shared" si="1"/>
         <v>38.53</v>
       </c>
-      <c r="E67" s="22"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -15305,11 +16873,11 @@
       <c r="C68" s="6">
         <v>2082.0128753843478</v>
       </c>
-      <c r="D68" s="22">
-        <f>SUMIF($B$4:$B$34,$B68,$H$4:$H$34)</f>
+      <c r="D68" s="19">
+        <f t="shared" si="1"/>
         <v>95.67</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -15324,11 +16892,11 @@
       <c r="C69" s="6">
         <v>2005.9091581458854</v>
       </c>
-      <c r="D69" s="22">
-        <f>SUMIF($B$4:$B$34,$B69,$H$4:$H$34)</f>
+      <c r="D69" s="19">
+        <f t="shared" si="1"/>
         <v>54.03</v>
       </c>
-      <c r="E69" s="22"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -15343,11 +16911,11 @@
       <c r="C70" s="6">
         <v>1737.5953858203882</v>
       </c>
-      <c r="D70" s="22">
-        <f>SUMIF($B$4:$B$34,$B70,$H$4:$H$34)</f>
+      <c r="D70" s="19">
+        <f t="shared" si="1"/>
         <v>36.42</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -15362,11 +16930,11 @@
       <c r="C71" s="6">
         <v>1694.4436725592789</v>
       </c>
-      <c r="D71" s="22">
-        <f>SUMIF($B$4:$B$34,$B71,$H$4:$H$34)</f>
+      <c r="D71" s="19">
+        <f t="shared" si="1"/>
         <v>33.33</v>
       </c>
-      <c r="E71" s="22"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -15381,11 +16949,11 @@
       <c r="C72" s="6">
         <v>1188.7077430954027</v>
       </c>
-      <c r="D72" s="22">
-        <f>SUMIF($B$4:$B$34,$B72,$H$4:$H$34)</f>
+      <c r="D72" s="19">
+        <f t="shared" si="1"/>
         <v>35.869999999999997</v>
       </c>
-      <c r="E72" s="22"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -15414,7 +16982,7 @@
         <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -15457,7 +17025,7 @@
         <v>2227.7235540137372</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" ref="D79:D108" si="0">SUMIF($B$4:$B$34,$B79,$G$4:$G$34)</f>
+        <f t="shared" ref="D79:D108" si="2">SUMIF($B$4:$B$34,$B79,$G$4:$G$34)</f>
         <v>781.72617457632145</v>
       </c>
       <c r="E79" s="4">
@@ -15475,7 +17043,7 @@
         <v>2008.9870782756591</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190.80673833911794</v>
       </c>
       <c r="E80" s="4">
@@ -15493,7 +17061,7 @@
         <v>1976.804590885605</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>377.36241101434609</v>
       </c>
       <c r="E81" s="4">
@@ -15511,7 +17079,7 @@
         <v>1356.7085089440357</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="0"/>
+        <f>SUMIF($B$4:$B$34,$B82,$G$4:$G$34)</f>
         <v>146.35805352687166</v>
       </c>
       <c r="E82" s="4">
@@ -15529,7 +17097,7 @@
         <v>1150.248435949318</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75.638290306521583</v>
       </c>
       <c r="E83" s="4">
@@ -15547,7 +17115,7 @@
         <v>1004.9221167440427</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>196.16940124288956</v>
       </c>
       <c r="E84" s="4">
@@ -15565,7 +17133,7 @@
         <v>855.22171643638376</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1460.769429087055</v>
       </c>
       <c r="E85" s="4">
@@ -15583,7 +17151,7 @@
         <v>447.15844883203658</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>962.81931514351061</v>
       </c>
       <c r="E86" s="4">
@@ -15601,7 +17169,7 @@
         <v>402.0577628197683</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>504.68110005851372</v>
       </c>
       <c r="E87" s="4">
@@ -15619,7 +17187,7 @@
         <v>386.43167819357132</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1871.9838303198417</v>
       </c>
       <c r="E88" s="4">
@@ -15637,7 +17205,7 @@
         <v>341.16965803718733</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1619.013838564631</v>
       </c>
       <c r="E89" s="4">
@@ -15655,7 +17223,7 @@
         <v>220.16842282295258</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4316.6314846798432</v>
       </c>
       <c r="E90" s="4">
@@ -15673,7 +17241,7 @@
         <v>197.75919323301312</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1377.1058833798882</v>
       </c>
       <c r="E91" s="4">
@@ -15691,7 +17259,7 @@
         <v>148.26039961481143</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3999.3198739977088</v>
       </c>
       <c r="E92" s="4">
@@ -15709,7 +17277,7 @@
         <v>129.60568758583017</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1852.6481327500812</v>
       </c>
       <c r="E93" s="4">
@@ -15727,7 +17295,7 @@
         <v>105.73545297765708</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>952.18981917006374</v>
       </c>
       <c r="E94" s="4">
@@ -15745,7 +17313,7 @@
         <v>95.841170288562466</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5742.1827099938691</v>
       </c>
       <c r="E95" s="4">
@@ -15763,7 +17331,7 @@
         <v>82.999177209377407</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3568.8138509517153</v>
       </c>
       <c r="E96" s="4">
@@ -15781,7 +17349,7 @@
         <v>75.274060715675475</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2879.6224319822322</v>
       </c>
       <c r="E97" s="4">
@@ -15799,7 +17367,7 @@
         <v>73.266551779270216</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6566.9632140083322</v>
       </c>
       <c r="E98" s="4">
@@ -15817,7 +17385,7 @@
         <v>34.339339865684501</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4043.3420365535244</v>
       </c>
       <c r="E99" s="4">
@@ -15835,7 +17403,7 @@
         <v>23.515375140666947</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10173.408208770335</v>
       </c>
       <c r="E100" s="4">
@@ -15853,7 +17421,7 @@
         <v>17.150895530223842</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9635.4198734393703</v>
       </c>
       <c r="E101" s="4">
@@ -15871,7 +17439,7 @@
         <v>16.545192607879624</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7190.993959362987</v>
       </c>
       <c r="E102" s="4">
@@ -15889,7 +17457,7 @@
         <v>13.607353075027472</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>957.14053690340836</v>
       </c>
       <c r="E103" s="4">
@@ -15907,7 +17475,7 @@
         <v>12.209053881168373</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5652.6552655265532</v>
       </c>
       <c r="E104" s="4">
@@ -15925,7 +17493,7 @@
         <v>11.243136580944061</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7295.146638982611</v>
       </c>
       <c r="E105" s="4">
@@ -15943,7 +17511,7 @@
         <v>6.763776578426361</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5916.0618122219621</v>
       </c>
       <c r="E106" s="4">
@@ -15961,7 +17529,7 @@
         <v>6.5368619575500473</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14952.703461178671</v>
       </c>
       <c r="E107" s="4">
@@ -15979,17 +17547,627 @@
         <v>2.3620001182556152</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2391.2182882631728</v>
       </c>
       <c r="E108" s="4">
         <v>1.1306827467082285</v>
       </c>
     </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>210</v>
+      </c>
+      <c r="D114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="4">
+        <v>4.276889781804277</v>
+      </c>
+      <c r="D116" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B116,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>957.14053690340836</v>
+      </c>
+      <c r="E116" s="19">
+        <f t="shared" ref="E116:E146" si="3">SUMIF($B$4:$B$34,$B116,$H$4:$H$34)</f>
+        <v>430.99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2.7497320297209145</v>
+      </c>
+      <c r="D117" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B117,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5916.0618122219621</v>
+      </c>
+      <c r="E117" s="19">
+        <f t="shared" si="3"/>
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1.8377147806352201</v>
+      </c>
+      <c r="D118" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B118,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="E118" s="19">
+        <f t="shared" si="3"/>
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1.729331821886152</v>
+      </c>
+      <c r="D119" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B119,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>10173.408208770335</v>
+      </c>
+      <c r="E119" s="19">
+        <f t="shared" si="3"/>
+        <v>121.09</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1.711710759602898</v>
+      </c>
+      <c r="D120" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B120,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4043.3420365535244</v>
+      </c>
+      <c r="E120" s="19">
+        <f t="shared" si="3"/>
+        <v>268.10000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1.1306827467082285</v>
+      </c>
+      <c r="D121" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B121,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2391.2182882631728</v>
+      </c>
+      <c r="E121" s="19">
+        <f t="shared" si="3"/>
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1.0005888811751928</v>
+      </c>
+      <c r="D122" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B122,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7295.146638982611</v>
+      </c>
+      <c r="E122" s="19">
+        <f t="shared" si="3"/>
+        <v>38.53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.77107007045467435</v>
+      </c>
+      <c r="D123" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B123,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1377.1058833798882</v>
+      </c>
+      <c r="E123" s="19">
+        <f t="shared" si="3"/>
+        <v>458.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0.73031950454163241</v>
+      </c>
+      <c r="D124" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B124,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1852.6481327500812</v>
+      </c>
+      <c r="E124" s="19">
+        <f t="shared" si="3"/>
+        <v>276.61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.50641050489998929</v>
+      </c>
+      <c r="D125" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B125,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5652.6552655265532</v>
+      </c>
+      <c r="E125" s="19">
+        <f t="shared" si="3"/>
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.49983365239764055</v>
+      </c>
+      <c r="D126" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B126,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>9635.4198734393703</v>
+      </c>
+      <c r="E126" s="19">
+        <f t="shared" si="3"/>
+        <v>58.47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.47254697565098119</v>
+      </c>
+      <c r="D127" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B127,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>504.68110005851372</v>
+      </c>
+      <c r="E127" s="19">
+        <f t="shared" si="3"/>
+        <v>461.43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.43456279379966473</v>
+      </c>
+      <c r="D128" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B128,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7190.993959362987</v>
+      </c>
+      <c r="E128" s="19">
+        <f t="shared" si="3"/>
+        <v>36.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.36243579833114992</v>
+      </c>
+      <c r="D129" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B129,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3999.3198739977088</v>
+      </c>
+      <c r="E129" s="19">
+        <f t="shared" si="3"/>
+        <v>139.68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.35520843009849717</v>
+      </c>
+      <c r="D130" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B130,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="E130" s="19">
+        <f t="shared" si="3"/>
+        <v>698.18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.34913852525361738</v>
+      </c>
+      <c r="D131" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B131,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>6566.9632140083322</v>
+      </c>
+      <c r="E131" s="19">
+        <f t="shared" si="3"/>
+        <v>141.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.2847638148841653</v>
+      </c>
+      <c r="D132" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B132,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4316.6314846798432</v>
+      </c>
+      <c r="E132" s="19">
+        <f t="shared" si="3"/>
+        <v>156.33000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.21531968758934555</v>
+      </c>
+      <c r="D133" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B133,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1871.9838303198417</v>
+      </c>
+      <c r="E133" s="19">
+        <f t="shared" si="3"/>
+        <v>591.23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.21071145577649888</v>
+      </c>
+      <c r="D134" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B134,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>196.16940124288956</v>
+      </c>
+      <c r="E134" s="19">
+        <f t="shared" si="3"/>
+        <v>608.26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.18698996849706143</v>
+      </c>
+      <c r="D135" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B135,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3568.8138509517153</v>
+      </c>
+      <c r="E135" s="19">
+        <f t="shared" si="3"/>
+        <v>92.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.16553816310450301</v>
+      </c>
+      <c r="D136" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B136,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5742.1827099938691</v>
+      </c>
+      <c r="E136" s="19">
+        <f t="shared" si="3"/>
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.14522594479388795</v>
+      </c>
+      <c r="D137" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B137,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1619.013838564631</v>
+      </c>
+      <c r="E137" s="19">
+        <f t="shared" si="3"/>
+        <v>458.14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.12002329200380427</v>
+      </c>
+      <c r="D138" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B138,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>962.81931514351061</v>
+      </c>
+      <c r="E138" s="19">
+        <f t="shared" si="3"/>
+        <v>310.43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0.11466437767538516</v>
+      </c>
+      <c r="D139" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B139,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>952.18981917006374</v>
+      </c>
+      <c r="E139" s="19">
+        <f t="shared" si="3"/>
+        <v>95.67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0.11054626016177703</v>
+      </c>
+      <c r="D140" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B140,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2879.6224319822322</v>
+      </c>
+      <c r="E140" s="19">
+        <f t="shared" si="3"/>
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="4">
+        <v>9.7657580591934967E-2</v>
+      </c>
+      <c r="D141" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B141,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>377.36241101434609</v>
+      </c>
+      <c r="E141" s="19">
+        <f t="shared" si="3"/>
+        <v>553.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="4">
+        <v>7.1205831061299379E-2</v>
+      </c>
+      <c r="D142" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B142,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>190.80673833911794</v>
+      </c>
+      <c r="E142" s="19">
+        <f t="shared" si="3"/>
+        <v>826.91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="4">
+        <v>5.6040339855942096E-2</v>
+      </c>
+      <c r="D143" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B143,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>781.72617457632145</v>
+      </c>
+      <c r="E143" s="19">
+        <f t="shared" si="3"/>
+        <v>673.86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" s="4">
+        <v>4.8372800170715852E-2</v>
+      </c>
+      <c r="D144" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B144,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="E144" s="19">
+        <f t="shared" si="3"/>
+        <v>877.69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4.8179282139130954E-2</v>
+      </c>
+      <c r="D145" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B145,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>75.638290306521583</v>
+      </c>
+      <c r="E145" s="19">
+        <f t="shared" si="3"/>
+        <v>843.66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="7">
+        <v>4.2729777995043197E-2</v>
+      </c>
+      <c r="D146" s="20">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B146,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>62.413686031553581</v>
+      </c>
+      <c r="E146" s="19">
+        <f t="shared" si="3"/>
+        <v>676.31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C147" s="4"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A77:L77" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:L108">
-      <sortCondition descending="1" ref="C77"/>
+  <autoFilter ref="A115:Z115" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A116:Z146">
+      <sortCondition descending="1" ref="C115"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
+++ b/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\전문가WorkShop\[3-2] 경기도 태양광 잠재량 공간정보 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99732EC0-221C-4F40-A8A6-377D339CED3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A71C6-84D3-43F7-B4EB-66891AFA965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
   </bookViews>
   <sheets>
     <sheet name="잠재량 데이터" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="212">
   <si>
     <t>SIGUNGU_NM</t>
   </si>
@@ -476,10 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x축 같은순서로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>면적(km2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -728,14 +724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기술적 잠재량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시장 잠재량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Market potential</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -761,6 +749,10 @@
   </si>
   <si>
     <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWh</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -768,8 +760,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
@@ -923,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,6 +969,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,7 +979,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4032,7 +4034,7 @@
             <c:numRef>
               <c:f>Sheet2!$D$42:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>698.18</c:v>
@@ -4267,7 +4269,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4373,802 +4375,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.0243851368974746E-2"/>
-          <c:y val="4.0048950454236204E-2"/>
-          <c:w val="0.88036294654504077"/>
-          <c:h val="0.66878693161799496"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Technical potential</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$42:$A$72</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$42:$C$72</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>44751.392991897432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31355.336931794514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31245.400532437368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27735.132525380792</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27055.708066988154</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26854.336309870869</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24151.977285743757</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21840.895466752601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19327.554148223146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18350.067029442034</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16960.33486496273</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14593.03026418845</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12899.100715625664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11762.539121880636</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10988.834203464858</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9793.6831244079513</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8871.1323354231117</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8668.5007439447181</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7935.4560050335003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5711.5137585405673</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3823.426548084667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3446.780221259145</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2950.3734714636626</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2853.9785406570368</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2276.9368646054131</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2219.2646619820498</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2082.0128753843478</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2005.9091581458854</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1737.5953858203882</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1694.4436725592789</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1188.7077430954027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-511A-4A73-AB41-365AD747489C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="352924847"/>
-        <c:axId val="352917647"/>
-      </c:barChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Administrative Area</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet2!$A$42:$A$72</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Yeoju-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Yongin-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Yeoncheon-gun</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Yangpyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Gwangju-si</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Gapyeong-gun</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ansan-si</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seongnam-si</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Hanam-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Uijeongbu-si</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dongducheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Uiwang-si</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$D$42:$D$72</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>698.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>673.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>458.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>608.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>461.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>553.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>591.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>826.91</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>676.31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>877.69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>276.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>268.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>458.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310.43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>430.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>843.66</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>156.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>139.68</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>121.09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>141.63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>53.45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>92.99</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42.71</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>58.47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38.53</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>95.67</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.03</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36.42</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.869999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-511A-4A73-AB41-365AD747489C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1661752496"/>
-        <c:axId val="1661751536"/>
-      </c:scatterChart>
-      <c:catAx>
-        <c:axId val="352924847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="352917647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="352917647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="352924847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1661751536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1661752496"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1661752496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1661751536"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.56031955149987189"/>
-          <c:y val="6.6533347340617111E-2"/>
-          <c:w val="0.29128422739450305"/>
-          <c:h val="0.13563181057513196"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5812,7 +5018,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
+          <c:builtInUnit val="hundreds"/>
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
@@ -5969,6 +5175,627 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12717966337380984"/>
+          <c:y val="3.7414965986394558E-2"/>
+          <c:w val="0.84227998736904064"/>
+          <c:h val="0.84209732711982421"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$160:$H$190</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>676.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>826.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>553.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>877.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>698.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>591.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>458.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>276.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141.63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>268.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>121.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>430.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.869999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$160:$C$190</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>19327.554148223146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31355.336931794514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21840.895466752601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26854.336309870869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18350.067029442034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9793.6831244079513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27735.132525380792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44751.392991897432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11762.539121880636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27055.708066988154</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24151.977285743757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12899.100715625664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8871.1323354231117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31245.400532437368</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8668.5007439447181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16960.33486496273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2082.0128753843478</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2950.3734714636626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3446.780221259145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005.9091581458854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5711.5137585405673</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14593.03026418845</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7935.4560050335003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2276.9368646054131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1737.5953858203882</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10988.834203464858</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1694.4436725592789</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2219.2646619820498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2853.9785406570368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3823.426548084667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1188.7077430954027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A8-4010-902A-8BFB4B21EE30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1168426607"/>
+        <c:axId val="1168427087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1168426607"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Administrative area (km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="30000">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168427087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1168427087"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Technical potential (GWh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168426607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5990,10 +5817,632 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4421991790224104E-2"/>
-          <c:y val="2.394774864116574E-2"/>
-          <c:w val="0.8961214146860359"/>
-          <c:h val="0.68082912176051602"/>
+          <c:x val="0.11290220039308677"/>
+          <c:y val="3.7415011690091642E-2"/>
+          <c:w val="0.83269780249261549"/>
+          <c:h val="0.84209732711982421"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$160:$G$190</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>62.413686031553581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>781.72617457632145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.80673833911794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377.36241101434609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.638290306521583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.16940124288956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>962.81931514351061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>504.68110005851372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1619.013838564631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4316.6314846798432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1377.1058833798882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3999.3198739977088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1852.6481327500812</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5742.1827099938691</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3568.8138509517153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2879.6224319822322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6566.9632140083322</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4043.3420365535244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10173.408208770335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9635.4198734393703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7190.993959362987</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>957.14053690340836</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5652.6552655265532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7295.146638982611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5916.0618122219621</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2391.2182882631728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$160:$D$190</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>4692.9772768149724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2227.7235540137372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.9870782756591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976.804590885605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1356.7085089440357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1150.248435949318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1004.9221167440427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>855.22171643638376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>447.15844883203658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>402.0577628197683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386.43167819357132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341.16965803718733</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220.16842282295258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>197.75919323301312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>148.26039961481143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>129.60568758583017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105.73545297765708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95.841170288562466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.999177209377407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.274060715675475</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.266551779270216</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.339339865684501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.515375140666947</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.150895530223842</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.545192607879624</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.607353075027472</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.209053881168373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.243136580944061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.763776578426361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5368619575500473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3620001182556152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A8-4010-902A-8BFB4B21EE30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1168426607"/>
+        <c:axId val="1168427087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1168426607"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Population density (people/km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="30000">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168427087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1168427087"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Market potential (GWh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168426607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6149840496038419E-2"/>
+          <c:y val="4.0048950454236204E-2"/>
+          <c:w val="0.80385282530833346"/>
+          <c:h val="0.66878693161799496"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6005,11 +6454,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$114</c:f>
+              <c:f>Sheet2!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilization rate of market potential</c:v>
+                  <c:v>Technical potential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6026,210 +6475,210 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:f>Sheet2!$A$42:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Gwangju-si</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Seongnam-si</c:v>
+                  <c:v>Gapyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Ansan-si</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Yongin-si</c:v>
+                  <c:v>Siheung-si</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Yeoju-si</c:v>
+                  <c:v>Suwon-si</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Hanam-si</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Uijeongbu-si</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Dongducheon-si</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Uiwang-si</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>Yangpyeong-gun</c:v>
+                  <c:v>Gunpo-si</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Gapyeong-gun</c:v>
+                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Yeoncheon-gun</c:v>
+                  <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$116:$C$146</c:f>
+              <c:f>Sheet2!$C$42:$C$72</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>4.276889781804277</c:v>
+                  <c:v>44751.392991897432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7497320297209145</c:v>
+                  <c:v>31355.336931794514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8377147806352201</c:v>
+                  <c:v>31245.400532437368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.729331821886152</c:v>
+                  <c:v>27735.132525380792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.711710759602898</c:v>
+                  <c:v>27055.708066988154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1306827467082285</c:v>
+                  <c:v>26854.336309870869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0005888811751928</c:v>
+                  <c:v>24151.977285743757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77107007045467435</c:v>
+                  <c:v>21840.895466752601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73031950454163241</c:v>
+                  <c:v>19327.554148223146</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50641050489998929</c:v>
+                  <c:v>18350.067029442034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49983365239764055</c:v>
+                  <c:v>16960.33486496273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47254697565098119</c:v>
+                  <c:v>14593.03026418845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43456279379966473</c:v>
+                  <c:v>12899.100715625664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36243579833114992</c:v>
+                  <c:v>11762.539121880636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35520843009849717</c:v>
+                  <c:v>10988.834203464858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34913852525361738</c:v>
+                  <c:v>9793.6831244079513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2847638148841653</c:v>
+                  <c:v>8871.1323354231117</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21531968758934555</c:v>
+                  <c:v>8668.5007439447181</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21071145577649888</c:v>
+                  <c:v>7935.4560050335003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18698996849706143</c:v>
+                  <c:v>5711.5137585405673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16553816310450301</c:v>
+                  <c:v>3823.426548084667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14522594479388795</c:v>
+                  <c:v>3446.780221259145</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12002329200380427</c:v>
+                  <c:v>2950.3734714636626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11466437767538516</c:v>
+                  <c:v>2853.9785406570368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11054626016177703</c:v>
+                  <c:v>2276.9368646054131</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.7657580591934967E-2</c:v>
+                  <c:v>2219.2646619820498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1205831061299379E-2</c:v>
+                  <c:v>2082.0128753843478</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6040339855942096E-2</c:v>
+                  <c:v>2005.9091581458854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.8372800170715852E-2</c:v>
+                  <c:v>1737.5953858203882</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8179282139130954E-2</c:v>
+                  <c:v>1694.4436725592789</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.2729777995043197E-2</c:v>
+                  <c:v>1188.7077430954027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8145-4FD1-99DC-589F7C568C7B}"/>
+              <c16:uniqueId val="{00000000-511A-4A73-AB41-365AD747489C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6242,7 +6691,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="352924847"/>
         <c:axId val="352917647"/>
       </c:barChart>
@@ -6254,11 +6702,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$114</c:f>
+              <c:f>Sheet2!$D$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Population density</c:v>
+                  <c:v>Administrative Area</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6287,203 +6735,203 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet2!$A$116:$A$146</c:f>
+              <c:f>Sheet2!$A$42:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paju-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pyeongtaek-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yeoju-si</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Icheon-si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Anseong-si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Yongin-si</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pocheon-si</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Yeoncheon-gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gimpo-si</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Goyang-si</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Namyangju-si</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Yangju-si</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Gwangju-si</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Osan-si</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Bucheon-si</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Suwon-si</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Goyang-si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gwacheon-si</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gwangmyeong-si</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pyeongtaek-si</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gimpo-si</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Guri-si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Anyang-si</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Icheon-si</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gunpo-si</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Siheung-si</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Hwaseong-si</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>Seongnam-si</c:v>
+                  <c:v>Gapyeong-gun</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Ansan-si</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Yongin-si</c:v>
+                  <c:v>Siheung-si</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Yeoju-si</c:v>
+                  <c:v>Suwon-si</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Seongnam-si</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>Hanam-si</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Uijeongbu-si</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>Namyangju-si</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Yangju-si</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>Osan-si</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Anyang-si</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Gwangmyeong-si</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Dongducheon-si</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Uiwang-si</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>Anseong-si</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Pocheon-si</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Paju-si</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>Yangpyeong-gun</c:v>
+                  <c:v>Gunpo-si</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Gapyeong-gun</c:v>
+                  <c:v>Guri-si</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Yeoncheon-gun</c:v>
+                  <c:v>Gwacheon-si</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$116:$D$146</c:f>
+              <c:f>Sheet2!$D$42:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>957.14053690340836</c:v>
+                  <c:v>698.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5916.0618122219621</c:v>
+                  <c:v>673.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14952.703461178671</c:v>
+                  <c:v>458.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10173.408208770335</c:v>
+                  <c:v>608.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4043.3420365535244</c:v>
+                  <c:v>461.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2391.2182882631728</c:v>
+                  <c:v>553.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7295.146638982611</c:v>
+                  <c:v>591.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1377.1058833798882</c:v>
+                  <c:v>826.91</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1852.6481327500812</c:v>
+                  <c:v>676.31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5652.6552655265532</c:v>
+                  <c:v>877.69</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9635.4198734393703</c:v>
+                  <c:v>276.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>504.68110005851372</c:v>
+                  <c:v>268.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7190.993959362987</c:v>
+                  <c:v>458.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3999.3198739977088</c:v>
+                  <c:v>310.43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1460.769429087055</c:v>
+                  <c:v>430.99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6566.9632140083322</c:v>
+                  <c:v>843.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4316.6314846798432</c:v>
+                  <c:v>156.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1871.9838303198417</c:v>
+                  <c:v>139.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196.16940124288956</c:v>
+                  <c:v>121.09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3568.8138509517153</c:v>
+                  <c:v>141.63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5742.1827099938691</c:v>
+                  <c:v>53.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1619.013838564631</c:v>
+                  <c:v>92.99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>962.81931514351061</c:v>
+                  <c:v>81.55</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>952.18981917006374</c:v>
+                  <c:v>42.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2879.6224319822322</c:v>
+                  <c:v>58.47</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>377.36241101434609</c:v>
+                  <c:v>38.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>190.80673833911794</c:v>
+                  <c:v>95.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>781.72617457632145</c:v>
+                  <c:v>54.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.35805352687166</c:v>
+                  <c:v>36.42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75.638290306521583</c:v>
+                  <c:v>33.33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.413686031553581</c:v>
+                  <c:v>35.869999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6491,149 +6939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8145-4FD1-99DC-589F7C568C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$115</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$116:$E$146</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>430.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>268.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>458.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>276.61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58.47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>461.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>139.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>698.18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>141.63</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>156.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>591.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>608.26</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>92.99</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81.55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>458.14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>310.43</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95.67</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.03</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>553.46</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>826.91</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>673.86</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>877.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>843.66</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>676.31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57FC-4E52-89A1-6FA9A206C73D}"/>
+              <c16:uniqueId val="{00000001-511A-4A73-AB41-365AD747489C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6645,8 +6951,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352909487"/>
-        <c:axId val="352908047"/>
+        <c:axId val="1661752496"/>
+        <c:axId val="1661751536"/>
       </c:scatterChart>
       <c:catAx>
         <c:axId val="352924847"/>
@@ -6720,7 +7026,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Technical potential (TWh)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6759,13 +7127,97 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352908047"/>
+        <c:axId val="1661751536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>Administrative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t> area (km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="30000">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1400" baseline="0">
+                    <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                    <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6796,15 +7248,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352909487"/>
+        <c:crossAx val="1661752496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-        </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352909487"/>
+        <c:axId val="1661752496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6814,7 +7263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352908047"/>
+        <c:crossAx val="1661751536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6832,10 +7281,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1302537909346744"/>
-          <c:y val="6.9255765509655273E-2"/>
-          <c:w val="0.29125439588674945"/>
-          <c:h val="0.3428395760498083"/>
+          <c:x val="0.56031955149987189"/>
+          <c:y val="6.6533347340617111E-2"/>
+          <c:w val="0.29128422739450305"/>
+          <c:h val="0.13563181057513196"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7192,6 +7641,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9708,7 +10197,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9735,8 +10224,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9837,7 +10326,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9869,10 +10358,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9912,22 +10401,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10032,8 +10522,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10165,19 +10655,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10191,6 +10682,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10211,7 +10713,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10238,8 +10740,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10340,6 +10842,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10717,16 +11735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>505336</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>172206</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6407</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>107419</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33484</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>270704</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10867,42 +11885,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>598705</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>634352</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>51158</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98359B5B-B98A-BB56-1664-512C2D017944}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>900692</xdr:colOff>
       <xdr:row>115</xdr:row>
@@ -10933,6 +11915,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83857</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="차트 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5DCF83-B426-12FF-22AE-35325008CD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
@@ -10941,29 +11959,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>900692</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>59956</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83857</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>184524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257192</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>124283</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>19424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
+        <xdr:cNvPr id="21" name="차트 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EC66B8-0033-0226-7DA4-CADC5999D189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB47FDD-03AA-645C-E843-B2A635BF4828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10972,6 +11988,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103405</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120002</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="차트 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB960883-19C8-FEAA-ADE9-E1E4934A5C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11299,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC582A94-8A06-493D-8E8E-C421F46C6162}">
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11313,14 +12365,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="AE1" t="s">
         <v>82</v>
       </c>
@@ -11443,11 +12495,11 @@
         <v>23515.375140666947</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S33" si="2">SUMIF($AG$3:$AG$33,P3,$AJ$3:$AJ$33)</f>
+        <f>SUMIF($AG$3:$AG$33,P3,$AJ$3:$AJ$33)</f>
         <v>40665.886534345897</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T34" si="3">S3/R3</f>
+        <f>S3/R3</f>
         <v>1.729331821886152</v>
       </c>
       <c r="AE3">
@@ -11525,11 +12577,11 @@
         <v>73266.551779270216</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S3:S33" si="2">SUMIF($AG$3:$AG$33,P4,$AJ$3:$AJ$33)</f>
         <v>25580.1758386322</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T3:T34" si="3">S4/R4</f>
         <v>0.34913852525361738</v>
       </c>
       <c r="AE4">
@@ -14384,7 +15436,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -14392,7 +15444,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -14400,7 +15452,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -15391,10 +16443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -15405,30 +16457,38 @@
     <col min="7" max="7" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="F2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>64</v>
       </c>
@@ -15445,18 +16505,12 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -15481,10 +16535,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B4,시군별인구_rawData!$C$23:$C$54)</f>
         <v>676.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I4" s="26">
+        <f>C4/H4</f>
+        <v>28.577951158822355</v>
+      </c>
+      <c r="J4" s="26">
+        <f>D4/H4</f>
+        <v>6.9390919501633466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -15509,10 +16571,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B5,시군별인구_rawData!$C$23:$C$54)</f>
         <v>673.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I5" s="26">
+        <f t="shared" ref="I5:I34" si="0">C5/H5</f>
+        <v>46.53093659186554</v>
+      </c>
+      <c r="J5" s="26">
+        <f t="shared" ref="J5:J34" si="1">D5/H5</f>
+        <v>3.3059145134207952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -15537,10 +16607,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B6,시군별인구_rawData!$C$23:$C$54)</f>
         <v>826.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I6" s="26">
+        <f t="shared" si="0"/>
+        <v>26.412663369354103</v>
+      </c>
+      <c r="J6" s="26">
+        <f t="shared" si="1"/>
+        <v>2.429511165998306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -15565,10 +16643,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B7,시군별인구_rawData!$C$23:$C$54)</f>
         <v>553.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>48.520825913111821</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" si="1"/>
+        <v>3.5717207944306812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -15593,10 +16679,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B8,시군별인구_rawData!$C$23:$C$54)</f>
         <v>877.69</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>20.907230376832405</v>
+      </c>
+      <c r="J8" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5457718658570059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -15621,10 +16715,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B9,시군별인구_rawData!$C$23:$C$54)</f>
         <v>843.66</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>11.608566394528545</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3634028352053174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -15649,10 +16751,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B10,시군별인구_rawData!$C$23:$C$54)</f>
         <v>608.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
+        <v>45.597495356230546</v>
+      </c>
+      <c r="J10" s="26">
+        <f t="shared" si="1"/>
+        <v>1.6521259276362783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -15677,10 +16787,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B11,시군별인구_rawData!$C$23:$C$54)</f>
         <v>698.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I11" s="26">
+        <f t="shared" si="0"/>
+        <v>64.097214173848343</v>
+      </c>
+      <c r="J11" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2249301275264026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -15705,10 +16823,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B12,시군별인구_rawData!$C$23:$C$54)</f>
         <v>310.43</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>37.891115942017962</v>
+      </c>
+      <c r="J12" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4404485675741281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -15733,10 +16859,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B13,시군별인구_rawData!$C$23:$C$54)</f>
         <v>461.43</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I13" s="26">
+        <f t="shared" si="0"/>
+        <v>58.634479914587594</v>
+      </c>
+      <c r="J13" s="26">
+        <f t="shared" si="1"/>
+        <v>0.87132991530626158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -15761,10 +16895,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B14,시군별인구_rawData!$C$23:$C$54)</f>
         <v>591.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I14" s="26">
+        <f t="shared" si="0"/>
+        <v>40.850392039889307</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="1"/>
+        <v>0.65360634303667153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -15789,10 +16931,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B15,시군별인구_rawData!$C$23:$C$54)</f>
         <v>458.14</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
+        <v>28.155368916980976</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="1"/>
+        <v>0.74468428436108469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -15817,10 +16967,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B16,시군별인구_rawData!$C$23:$C$54)</f>
         <v>156.33000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I16" s="26">
+        <f t="shared" si="0"/>
+        <v>56.746192895945185</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4083568273712823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -15845,10 +17003,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B17,시군별인구_rawData!$C$23:$C$54)</f>
         <v>458.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
+        <v>68.185668061359479</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="1"/>
+        <v>0.43156248523265783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -15873,10 +17039,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B18,시군별인구_rawData!$C$23:$C$54)</f>
         <v>139.68</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I18" s="26">
+        <f t="shared" si="0"/>
+        <v>62.059713229844775</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0614289777692685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -15901,10 +17075,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B19,시군별인구_rawData!$C$23:$C$54)</f>
         <v>276.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I19" s="26">
+        <f t="shared" si="0"/>
+        <v>61.314973663145686</v>
+      </c>
+      <c r="J19" s="26">
+        <f t="shared" si="1"/>
+        <v>0.46855026060457017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -15929,10 +17111,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B20,시군별인구_rawData!$C$23:$C$54)</f>
         <v>95.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I20" s="26">
+        <f t="shared" si="0"/>
+        <v>21.762442514731344</v>
+      </c>
+      <c r="J20" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1052101283334073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -15957,10 +17147,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B21,시군별인구_rawData!$C$23:$C$54)</f>
         <v>81.55</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I21" s="26">
+        <f t="shared" si="0"/>
+        <v>36.178705965219649</v>
+      </c>
+      <c r="J21" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1752442708591351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -15985,10 +17183,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B22,시군별인구_rawData!$C$23:$C$54)</f>
         <v>92.99</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
+        <v>37.066138523057802</v>
+      </c>
+      <c r="J22" s="26">
+        <f t="shared" si="1"/>
+        <v>0.89256024528849787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16013,10 +17219,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B23,시군별인구_rawData!$C$23:$C$54)</f>
         <v>54.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>37.125840424687865</v>
+      </c>
+      <c r="J23" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3931900928313061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -16041,10 +17255,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B24,시군별인구_rawData!$C$23:$C$54)</f>
         <v>141.63</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I24" s="26">
+        <f t="shared" si="0"/>
+        <v>40.327005285183702</v>
+      </c>
+      <c r="J24" s="26">
+        <f t="shared" si="1"/>
+        <v>0.51730955150229629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -16069,10 +17291,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B25,시군별인구_rawData!$C$23:$C$54)</f>
         <v>268.10000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I25" s="26">
+        <f t="shared" si="0"/>
+        <v>54.431295278584294</v>
+      </c>
+      <c r="J25" s="26">
+        <f t="shared" si="1"/>
+        <v>0.12808407260605931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -16097,10 +17327,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B26,시군별인구_rawData!$C$23:$C$54)</f>
         <v>121.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I26" s="26">
+        <f t="shared" si="0"/>
+        <v>65.533537080134607</v>
+      </c>
+      <c r="J26" s="26">
+        <f t="shared" si="1"/>
+        <v>0.19419749889063462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -16125,10 +17363,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B27,시군별인구_rawData!$C$23:$C$54)</f>
         <v>58.47</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="26">
+        <f t="shared" si="0"/>
+        <v>38.941967925524423</v>
+      </c>
+      <c r="J27" s="26">
+        <f t="shared" si="1"/>
+        <v>0.29332812605137409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -16153,10 +17399,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B28,시군별인구_rawData!$C$23:$C$54)</f>
         <v>36.42</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="26">
+        <f t="shared" si="0"/>
+        <v>47.709922729829437</v>
+      </c>
+      <c r="J28" s="26">
+        <f t="shared" si="1"/>
+        <v>0.45428864931025875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
@@ -16181,10 +17435,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B29,시군별인구_rawData!$C$23:$C$54)</f>
         <v>430.99</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="26">
+        <f t="shared" si="0"/>
+        <v>25.496726614225057</v>
+      </c>
+      <c r="J29" s="26">
+        <f t="shared" si="1"/>
+        <v>3.1572317397219128E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -16209,10 +17471,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B30,시군별인구_rawData!$C$23:$C$54)</f>
         <v>33.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I30" s="26">
+        <f t="shared" si="0"/>
+        <v>50.83839401617999</v>
+      </c>
+      <c r="J30" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36630824725977718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -16237,13 +17507,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B31,시군별인구_rawData!$C$23:$C$54)</f>
         <v>38.53</v>
       </c>
-      <c r="L31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="I31" s="26">
+        <f t="shared" si="0"/>
+        <v>57.598356137608349</v>
+      </c>
+      <c r="J31" s="26">
+        <f t="shared" si="1"/>
+        <v>0.29180214328949028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -16268,10 +17543,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B32,시군별인구_rawData!$C$23:$C$54)</f>
         <v>42.71</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="26">
+        <f t="shared" si="0"/>
+        <v>66.822255693210877</v>
+      </c>
+      <c r="J32" s="26">
+        <f t="shared" si="1"/>
+        <v>0.15836517392709812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -16296,10 +17579,18 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B33,시군별인구_rawData!$C$23:$C$54)</f>
         <v>53.45</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="26">
+        <f t="shared" si="0"/>
+        <v>71.532769842556917</v>
+      </c>
+      <c r="J33" s="26">
+        <f t="shared" si="1"/>
+        <v>0.12229863344340593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -16324,21 +17615,29 @@
         <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B34,시군별인구_rawData!$C$23:$C$54)</f>
         <v>35.869999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="26">
+        <f t="shared" si="0"/>
+        <v>33.139329330789039</v>
+      </c>
+      <c r="J34" s="26">
+        <f t="shared" si="1"/>
+        <v>6.5848902098009907E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="25">
+        <v>210</v>
+      </c>
+      <c r="C35" s="22">
         <f>SUM(C4:C34)</f>
         <v>407131.35556906019</v>
       </c>
-      <c r="D35" s="25">
-        <f t="shared" ref="D35:F35" si="0">SUM(D4:D34)</f>
+      <c r="D35" s="22">
+        <f>SUM(D4:D34)</f>
         <v>18123.593927509293</v>
       </c>
-      <c r="E35" s="25">
-        <f t="shared" si="0"/>
+      <c r="E35" s="22">
+        <f>SUM(E4:E34)</f>
         <v>2339.5647593723402</v>
       </c>
       <c r="F35" s="4">
@@ -16353,25 +17652,25 @@
         <v>10195.27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
         <v>203</v>
       </c>
-      <c r="D40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -16379,18 +17678,21 @@
       <c r="C42" s="6">
         <v>44751.392991897432</v>
       </c>
-      <c r="D42" s="19">
-        <f t="shared" ref="D42:D72" si="1">SUMIF($B$4:$B$34,$B42,$H$4:$H$34)</f>
+      <c r="D42" s="6">
+        <f t="shared" ref="D42:D72" si="2">SUMIF($B$4:$B$34,$B42,$H$4:$H$34)</f>
         <v>698.18</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="19">
+        <f>C42/D42</f>
+        <v>64.097214173848343</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -16398,18 +17700,21 @@
       <c r="C43" s="6">
         <v>31355.336931794514</v>
       </c>
-      <c r="D43" s="19">
-        <f t="shared" si="1"/>
+      <c r="D43" s="6">
+        <f t="shared" si="2"/>
         <v>673.86</v>
       </c>
-      <c r="E43" s="19"/>
+      <c r="E43" s="19">
+        <f t="shared" ref="E43:E72" si="3">C43/D43</f>
+        <v>46.53093659186554</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -16417,18 +17722,21 @@
       <c r="C44" s="6">
         <v>31245.400532437368</v>
       </c>
-      <c r="D44" s="19">
-        <f t="shared" si="1"/>
+      <c r="D44" s="6">
+        <f t="shared" si="2"/>
         <v>458.24</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="19">
+        <f t="shared" si="3"/>
+        <v>68.185668061359479</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -16436,18 +17744,21 @@
       <c r="C45" s="6">
         <v>27735.132525380792</v>
       </c>
-      <c r="D45" s="19">
-        <f t="shared" si="1"/>
+      <c r="D45" s="6">
+        <f t="shared" si="2"/>
         <v>608.26</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="19">
+        <f t="shared" si="3"/>
+        <v>45.597495356230546</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -16455,18 +17766,21 @@
       <c r="C46" s="6">
         <v>27055.708066988154</v>
       </c>
-      <c r="D46" s="19">
-        <f t="shared" si="1"/>
+      <c r="D46" s="6">
+        <f t="shared" si="2"/>
         <v>461.43</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="19">
+        <f t="shared" si="3"/>
+        <v>58.634479914587594</v>
+      </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -16474,18 +17788,21 @@
       <c r="C47" s="6">
         <v>26854.336309870869</v>
       </c>
-      <c r="D47" s="19">
-        <f t="shared" si="1"/>
+      <c r="D47" s="6">
+        <f t="shared" si="2"/>
         <v>553.46</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="19">
+        <f t="shared" si="3"/>
+        <v>48.520825913111821</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -16493,18 +17810,21 @@
       <c r="C48" s="6">
         <v>24151.977285743757</v>
       </c>
-      <c r="D48" s="19">
-        <f t="shared" si="1"/>
+      <c r="D48" s="6">
+        <f t="shared" si="2"/>
         <v>591.23</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="19">
+        <f t="shared" si="3"/>
+        <v>40.850392039889307</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
@@ -16512,18 +17832,21 @@
       <c r="C49" s="6">
         <v>21840.895466752601</v>
       </c>
-      <c r="D49" s="19">
-        <f t="shared" si="1"/>
+      <c r="D49" s="6">
+        <f t="shared" si="2"/>
         <v>826.91</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="19">
+        <f t="shared" si="3"/>
+        <v>26.412663369354103</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
@@ -16531,18 +17854,21 @@
       <c r="C50" s="6">
         <v>19327.554148223146</v>
       </c>
-      <c r="D50" s="19">
-        <f t="shared" si="1"/>
+      <c r="D50" s="6">
+        <f t="shared" si="2"/>
         <v>676.31</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="19">
+        <f t="shared" si="3"/>
+        <v>28.577951158822355</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -16550,18 +17876,21 @@
       <c r="C51" s="6">
         <v>18350.067029442034</v>
       </c>
-      <c r="D51" s="19">
-        <f t="shared" si="1"/>
+      <c r="D51" s="6">
+        <f t="shared" si="2"/>
         <v>877.69</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="19">
+        <f t="shared" si="3"/>
+        <v>20.907230376832405</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -16569,18 +17898,21 @@
       <c r="C52" s="6">
         <v>16960.33486496273</v>
       </c>
-      <c r="D52" s="19">
-        <f t="shared" si="1"/>
+      <c r="D52" s="6">
+        <f t="shared" si="2"/>
         <v>276.61</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="19">
+        <f t="shared" si="3"/>
+        <v>61.314973663145686</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -16588,18 +17920,21 @@
       <c r="C53" s="6">
         <v>14593.03026418845</v>
       </c>
-      <c r="D53" s="19">
-        <f t="shared" si="1"/>
+      <c r="D53" s="6">
+        <f t="shared" si="2"/>
         <v>268.10000000000002</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="19">
+        <f t="shared" si="3"/>
+        <v>54.431295278584294</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -16607,18 +17942,21 @@
       <c r="C54" s="6">
         <v>12899.100715625664</v>
       </c>
-      <c r="D54" s="19">
-        <f t="shared" si="1"/>
+      <c r="D54" s="6">
+        <f t="shared" si="2"/>
         <v>458.14</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="19">
+        <f t="shared" si="3"/>
+        <v>28.155368916980976</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -16626,18 +17964,21 @@
       <c r="C55" s="6">
         <v>11762.539121880636</v>
       </c>
-      <c r="D55" s="19">
-        <f t="shared" si="1"/>
+      <c r="D55" s="6">
+        <f t="shared" si="2"/>
         <v>310.43</v>
       </c>
-      <c r="E55" s="19"/>
+      <c r="E55" s="19">
+        <f t="shared" si="3"/>
+        <v>37.891115942017962</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
         <v>36</v>
@@ -16645,18 +17986,21 @@
       <c r="C56" s="6">
         <v>10988.834203464858</v>
       </c>
-      <c r="D56" s="19">
-        <f t="shared" si="1"/>
+      <c r="D56" s="6">
+        <f t="shared" si="2"/>
         <v>430.99</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="19">
+        <f t="shared" si="3"/>
+        <v>25.496726614225057</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -16664,18 +18008,21 @@
       <c r="C57" s="6">
         <v>9793.6831244079513</v>
       </c>
-      <c r="D57" s="19">
-        <f t="shared" si="1"/>
+      <c r="D57" s="6">
+        <f t="shared" si="2"/>
         <v>843.66</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="19">
+        <f t="shared" si="3"/>
+        <v>11.608566394528545</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -16683,18 +18030,21 @@
       <c r="C58" s="6">
         <v>8871.1323354231117</v>
       </c>
-      <c r="D58" s="19">
-        <f t="shared" si="1"/>
+      <c r="D58" s="6">
+        <f t="shared" si="2"/>
         <v>156.33000000000001</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="19">
+        <f t="shared" si="3"/>
+        <v>56.746192895945185</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -16702,18 +18052,21 @@
       <c r="C59" s="6">
         <v>8668.5007439447181</v>
       </c>
-      <c r="D59" s="19">
-        <f t="shared" si="1"/>
+      <c r="D59" s="6">
+        <f t="shared" si="2"/>
         <v>139.68</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19">
+        <f t="shared" si="3"/>
+        <v>62.059713229844775</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -16721,18 +18074,21 @@
       <c r="C60" s="6">
         <v>7935.4560050335003</v>
       </c>
-      <c r="D60" s="19">
-        <f t="shared" si="1"/>
+      <c r="D60" s="6">
+        <f t="shared" si="2"/>
         <v>121.09</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="19">
+        <f t="shared" si="3"/>
+        <v>65.533537080134607</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
         <v>52</v>
@@ -16740,18 +18096,21 @@
       <c r="C61" s="6">
         <v>5711.5137585405673</v>
       </c>
-      <c r="D61" s="19">
-        <f t="shared" si="1"/>
+      <c r="D61" s="6">
+        <f t="shared" si="2"/>
         <v>141.63</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="19">
+        <f t="shared" si="3"/>
+        <v>40.327005285183702</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -16759,18 +18118,21 @@
       <c r="C62" s="6">
         <v>3823.426548084667</v>
       </c>
-      <c r="D62" s="19">
-        <f t="shared" si="1"/>
+      <c r="D62" s="6">
+        <f t="shared" si="2"/>
         <v>53.45</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="19">
+        <f t="shared" si="3"/>
+        <v>71.532769842556917</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -16778,18 +18140,21 @@
       <c r="C63" s="6">
         <v>3446.780221259145</v>
       </c>
-      <c r="D63" s="19">
-        <f t="shared" si="1"/>
+      <c r="D63" s="6">
+        <f t="shared" si="2"/>
         <v>92.99</v>
       </c>
-      <c r="E63" s="19"/>
+      <c r="E63" s="19">
+        <f t="shared" si="3"/>
+        <v>37.066138523057802</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -16797,18 +18162,21 @@
       <c r="C64" s="6">
         <v>2950.3734714636626</v>
       </c>
-      <c r="D64" s="19">
-        <f t="shared" si="1"/>
+      <c r="D64" s="6">
+        <f t="shared" si="2"/>
         <v>81.55</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="19">
+        <f t="shared" si="3"/>
+        <v>36.178705965219649</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -16816,18 +18184,21 @@
       <c r="C65" s="6">
         <v>2853.9785406570368</v>
       </c>
-      <c r="D65" s="19">
-        <f t="shared" si="1"/>
+      <c r="D65" s="6">
+        <f t="shared" si="2"/>
         <v>42.71</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="19">
+        <f t="shared" si="3"/>
+        <v>66.822255693210877</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
         <v>54</v>
@@ -16835,18 +18206,21 @@
       <c r="C66" s="6">
         <v>2276.9368646054131</v>
       </c>
-      <c r="D66" s="19">
-        <f t="shared" si="1"/>
+      <c r="D66" s="6">
+        <f t="shared" si="2"/>
         <v>58.47</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="19">
+        <f t="shared" si="3"/>
+        <v>38.941967925524423</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -16854,18 +18228,21 @@
       <c r="C67" s="6">
         <v>2219.2646619820498</v>
       </c>
-      <c r="D67" s="19">
-        <f t="shared" si="1"/>
+      <c r="D67" s="6">
+        <f t="shared" si="2"/>
         <v>38.53</v>
       </c>
-      <c r="E67" s="19"/>
+      <c r="E67" s="19">
+        <f t="shared" si="3"/>
+        <v>57.598356137608349</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -16873,18 +18250,21 @@
       <c r="C68" s="6">
         <v>2082.0128753843478</v>
       </c>
-      <c r="D68" s="19">
-        <f t="shared" si="1"/>
+      <c r="D68" s="6">
+        <f t="shared" si="2"/>
         <v>95.67</v>
       </c>
-      <c r="E68" s="19"/>
+      <c r="E68" s="19">
+        <f t="shared" si="3"/>
+        <v>21.762442514731344</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -16892,18 +18272,21 @@
       <c r="C69" s="6">
         <v>2005.9091581458854</v>
       </c>
-      <c r="D69" s="19">
-        <f t="shared" si="1"/>
+      <c r="D69" s="6">
+        <f t="shared" si="2"/>
         <v>54.03</v>
       </c>
-      <c r="E69" s="19"/>
+      <c r="E69" s="19">
+        <f t="shared" si="3"/>
+        <v>37.125840424687865</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -16911,18 +18294,21 @@
       <c r="C70" s="6">
         <v>1737.5953858203882</v>
       </c>
-      <c r="D70" s="19">
-        <f t="shared" si="1"/>
+      <c r="D70" s="6">
+        <f t="shared" si="2"/>
         <v>36.42</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="19">
+        <f t="shared" si="3"/>
+        <v>47.709922729829437</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -16930,18 +18316,21 @@
       <c r="C71" s="6">
         <v>1694.4436725592789</v>
       </c>
-      <c r="D71" s="19">
-        <f t="shared" si="1"/>
+      <c r="D71" s="6">
+        <f t="shared" si="2"/>
         <v>33.33</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="19">
+        <f t="shared" si="3"/>
+        <v>50.83839401617999</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -16949,11 +18338,14 @@
       <c r="C72" s="6">
         <v>1188.7077430954027</v>
       </c>
-      <c r="D72" s="19">
-        <f t="shared" si="1"/>
+      <c r="D72" s="6">
+        <f t="shared" si="2"/>
         <v>35.869999999999997</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="19">
+        <f t="shared" si="3"/>
+        <v>33.139329330789039</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -16968,21 +18360,21 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C75" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="D76" t="s">
-        <v>202</v>
-      </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -16990,7 +18382,7 @@
         <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
@@ -16998,7 +18390,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
         <v>40</v>
@@ -17013,10 +18405,14 @@
       <c r="E78" s="7">
         <v>4.2729777995043197E-2</v>
       </c>
+      <c r="F78">
+        <f>C78/D78</f>
+        <v>75.19147762627594</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
@@ -17025,16 +18421,20 @@
         <v>2227.7235540137372</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" ref="D79:D108" si="2">SUMIF($B$4:$B$34,$B79,$G$4:$G$34)</f>
+        <f t="shared" ref="D79:D108" si="4">SUMIF($B$4:$B$34,$B79,$G$4:$G$34)</f>
         <v>781.72617457632145</v>
       </c>
       <c r="E79" s="4">
         <v>5.6040339855942096E-2</v>
       </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F108" si="5">C79/D79</f>
+        <v>2.8497492171361856</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
@@ -17043,16 +18443,20 @@
         <v>2008.9870782756591</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>190.80673833911794</v>
       </c>
       <c r="E80" s="4">
         <v>7.1205831061299379E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>10.528910539339112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
         <v>33</v>
@@ -17061,16 +18465,20 @@
         <v>1976.804590885605</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>377.36241101434609</v>
       </c>
       <c r="E81" s="4">
         <v>9.7657580591934967E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>5.2384777423166646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
@@ -17085,10 +18493,14 @@
       <c r="E82" s="4">
         <v>4.8372800170715852E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>9.2697906008632529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
         <v>41</v>
@@ -17097,16 +18509,20 @@
         <v>1150.248435949318</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75.638290306521583</v>
       </c>
       <c r="E83" s="4">
         <v>4.8179282139130954E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>15.207224162365062</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
         <v>39</v>
@@ -17115,16 +18531,20 @@
         <v>1004.9221167440427</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>196.16940124288956</v>
       </c>
       <c r="E84" s="4">
         <v>0.21071145577649888</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>5.1227261253644034</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
@@ -17133,16 +18553,20 @@
         <v>855.22171643638376</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1460.769429087055</v>
       </c>
       <c r="E85" s="4">
         <v>0.35520843009849717</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>0.58545975799266026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -17151,16 +18575,20 @@
         <v>447.15844883203658</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>962.81931514351061</v>
       </c>
       <c r="E86" s="4">
         <v>0.12002329200380427</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>0.46442613042654479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -17169,16 +18597,20 @@
         <v>402.0577628197683</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>504.68110005851372</v>
       </c>
       <c r="E87" s="4">
         <v>0.47254697565098119</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>0.79665706279302495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
         <v>62</v>
@@ -17187,16 +18619,20 @@
         <v>386.43167819357132</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1871.9838303198417</v>
       </c>
       <c r="E88" s="4">
         <v>0.21531968758934555</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>0.20642896158325616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -17205,16 +18641,20 @@
         <v>341.16965803718733</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1619.013838564631</v>
       </c>
       <c r="E89" s="4">
         <v>0.14522594479388795</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>0.21072683253878677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
@@ -17223,16 +18663,20 @@
         <v>220.16842282295258</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4316.6314846798432</v>
       </c>
       <c r="E90" s="4">
         <v>0.2847638148841653</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>5.1004683537233218E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -17241,16 +18685,20 @@
         <v>197.75919323301312</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1377.1058833798882</v>
       </c>
       <c r="E91" s="4">
         <v>0.77107007045467435</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>0.14360492945367753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
         <v>24</v>
@@ -17259,16 +18707,20 @@
         <v>148.26039961481143</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3999.3198739977088</v>
       </c>
       <c r="E92" s="4">
         <v>0.36243579833114992</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>3.7071403210018998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
         <v>34</v>
@@ -17277,16 +18729,20 @@
         <v>129.60568758583017</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1852.6481327500812</v>
       </c>
       <c r="E93" s="4">
         <v>0.73031950454163241</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>6.9956990372177563E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -17295,16 +18751,20 @@
         <v>105.73545297765708</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>952.18981917006374</v>
       </c>
       <c r="E94" s="4">
         <v>0.11466437767538516</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>0.111044511135203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -17313,16 +18773,20 @@
         <v>95.841170288562466</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5742.1827099938691</v>
       </c>
       <c r="E95" s="4">
         <v>0.16553816310450301</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>1.6690721129746983E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -17331,16 +18795,20 @@
         <v>82.999177209377407</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3568.8138509517153</v>
       </c>
       <c r="E96" s="4">
         <v>0.18698996849706143</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>2.325679642474027E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -17349,16 +18817,20 @@
         <v>75.274060715675475</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2879.6224319822322</v>
       </c>
       <c r="E97" s="4">
         <v>0.11054626016177703</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>2.6140253624798798E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -17367,16 +18839,20 @@
         <v>73.266551779270216</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6566.9632140083322</v>
       </c>
       <c r="E98" s="4">
         <v>0.34913852525361738</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>1.1156839073345425E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
         <v>60</v>
@@ -17385,16 +18861,20 @@
         <v>34.339339865684501</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4043.3420365535244</v>
       </c>
       <c r="E99" s="4">
         <v>1.711710759602898</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>8.4928110348425449E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
         <v>50</v>
@@ -17403,16 +18883,20 @@
         <v>23.515375140666947</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10173.408208770335</v>
       </c>
       <c r="E100" s="4">
         <v>1.729331821886152</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>2.3114549871688732E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" t="s">
         <v>54</v>
@@ -17421,16 +18905,20 @@
         <v>17.150895530223842</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9635.4198734393703</v>
       </c>
       <c r="E101" s="4">
         <v>0.49983365239764055</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>1.779984241008671E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
         <v>25</v>
@@ -17439,16 +18927,20 @@
         <v>16.545192607879624</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7190.993959362987</v>
       </c>
       <c r="E102" s="4">
         <v>0.43456279379966473</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>2.3008213748166293E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
         <v>36</v>
@@ -17457,16 +18949,20 @@
         <v>13.607353075027472</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>957.14053690340836</v>
       </c>
       <c r="E103" s="4">
         <v>4.276889781804277</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>1.4216672004145493E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -17475,16 +18971,20 @@
         <v>12.209053881168373</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5652.6552655265532</v>
       </c>
       <c r="E104" s="4">
         <v>0.50641050489998929</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>2.1598794385404786E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -17493,16 +18993,20 @@
         <v>11.243136580944061</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7295.146638982611</v>
       </c>
       <c r="E105" s="4">
         <v>1.0005888811751928</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>1.5411803404834698E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
@@ -17511,16 +19015,20 @@
         <v>6.763776578426361</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5916.0618122219621</v>
       </c>
       <c r="E106" s="4">
         <v>2.7497320297209145</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>1.1432903835543282E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
         <v>56</v>
@@ -17529,16 +19037,20 @@
         <v>6.5368619575500473</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14952.703461178671</v>
       </c>
       <c r="E107" s="4">
         <v>1.8377147806352201</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>4.3716923662142688E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -17547,19 +19059,23 @@
         <v>2.3620001182556152</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2391.2182882631728</v>
       </c>
       <c r="E108" s="4">
         <v>1.1306827467082285</v>
       </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>9.8778105280016926E-4</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C114" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -17572,12 +19088,12 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="28">
         <v>4.276889781804277</v>
       </c>
       <c r="D116" s="20">
@@ -17585,18 +19101,18 @@
         <v>957.14053690340836</v>
       </c>
       <c r="E116" s="19">
-        <f t="shared" ref="E116:E146" si="3">SUMIF($B$4:$B$34,$B116,$H$4:$H$34)</f>
+        <f t="shared" ref="E116:E146" si="6">SUMIF($B$4:$B$34,$B116,$H$4:$H$34)</f>
         <v>430.99</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="28">
         <v>2.7497320297209145</v>
       </c>
       <c r="D117" s="20">
@@ -17604,18 +19120,18 @@
         <v>5916.0618122219621</v>
       </c>
       <c r="E117" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.71</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
         <v>56</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="28">
         <v>1.8377147806352201</v>
       </c>
       <c r="D118" s="20">
@@ -17623,18 +19139,18 @@
         <v>14952.703461178671</v>
       </c>
       <c r="E118" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.45</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="28">
         <v>1.729331821886152</v>
       </c>
       <c r="D119" s="20">
@@ -17642,18 +19158,18 @@
         <v>10173.408208770335</v>
       </c>
       <c r="E119" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>121.09</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="28">
         <v>1.711710759602898</v>
       </c>
       <c r="D120" s="20">
@@ -17661,18 +19177,18 @@
         <v>4043.3420365535244</v>
       </c>
       <c r="E120" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>268.10000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="28">
         <v>1.1306827467082285</v>
       </c>
       <c r="D121" s="20">
@@ -17680,18 +19196,18 @@
         <v>2391.2182882631728</v>
       </c>
       <c r="E121" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.869999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="28">
         <v>1.0005888811751928</v>
       </c>
       <c r="D122" s="20">
@@ -17699,18 +19215,18 @@
         <v>7295.146638982611</v>
       </c>
       <c r="E122" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.53</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="28">
         <v>0.77107007045467435</v>
       </c>
       <c r="D123" s="20">
@@ -17718,18 +19234,18 @@
         <v>1377.1058833798882</v>
       </c>
       <c r="E123" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>458.24</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="28">
         <v>0.73031950454163241</v>
       </c>
       <c r="D124" s="20">
@@ -17737,18 +19253,18 @@
         <v>1852.6481327500812</v>
       </c>
       <c r="E124" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>276.61</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="28">
         <v>0.50641050489998929</v>
       </c>
       <c r="D125" s="20">
@@ -17756,18 +19272,18 @@
         <v>5652.6552655265532</v>
       </c>
       <c r="E125" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33.33</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
         <v>54</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="28">
         <v>0.49983365239764055</v>
       </c>
       <c r="D126" s="20">
@@ -17775,18 +19291,18 @@
         <v>9635.4198734393703</v>
       </c>
       <c r="E126" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>58.47</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
         <v>32</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="28">
         <v>0.47254697565098119</v>
       </c>
       <c r="D127" s="20">
@@ -17794,18 +19310,18 @@
         <v>504.68110005851372</v>
       </c>
       <c r="E127" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>461.43</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="28">
         <v>0.43456279379966473</v>
       </c>
       <c r="D128" s="20">
@@ -17813,18 +19329,18 @@
         <v>7190.993959362987</v>
       </c>
       <c r="E128" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36.42</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="28">
         <v>0.36243579833114992</v>
       </c>
       <c r="D129" s="20">
@@ -17832,18 +19348,18 @@
         <v>3999.3198739977088</v>
       </c>
       <c r="E129" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>139.68</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="28">
         <v>0.35520843009849717</v>
       </c>
       <c r="D130" s="20">
@@ -17851,18 +19367,18 @@
         <v>1460.769429087055</v>
       </c>
       <c r="E130" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>698.18</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
         <v>52</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="28">
         <v>0.34913852525361738</v>
       </c>
       <c r="D131" s="20">
@@ -17870,18 +19386,18 @@
         <v>6566.9632140083322</v>
       </c>
       <c r="E131" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>141.63</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
         <v>58</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="28">
         <v>0.2847638148841653</v>
       </c>
       <c r="D132" s="20">
@@ -17889,18 +19405,18 @@
         <v>4316.6314846798432</v>
       </c>
       <c r="E132" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156.33000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="28">
         <v>0.21531968758934555</v>
       </c>
       <c r="D133" s="20">
@@ -17908,18 +19424,18 @@
         <v>1871.9838303198417</v>
       </c>
       <c r="E133" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>591.23</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="28">
         <v>0.21071145577649888</v>
       </c>
       <c r="D134" s="20">
@@ -17927,18 +19443,18 @@
         <v>196.16940124288956</v>
       </c>
       <c r="E134" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>608.26</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="28">
         <v>0.18698996849706143</v>
       </c>
       <c r="D135" s="20">
@@ -17946,18 +19462,18 @@
         <v>3568.8138509517153</v>
       </c>
       <c r="E135" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92.99</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="28">
         <v>0.16553816310450301</v>
       </c>
       <c r="D136" s="20">
@@ -17965,18 +19481,18 @@
         <v>5742.1827099938691</v>
       </c>
       <c r="E136" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>81.55</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
         <v>22</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="28">
         <v>0.14522594479388795</v>
       </c>
       <c r="D137" s="20">
@@ -17984,18 +19500,18 @@
         <v>1619.013838564631</v>
       </c>
       <c r="E137" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>458.14</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
         <v>37</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="28">
         <v>0.12002329200380427</v>
       </c>
       <c r="D138" s="20">
@@ -18003,18 +19519,18 @@
         <v>962.81931514351061</v>
       </c>
       <c r="E138" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>310.43</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="28">
         <v>0.11466437767538516</v>
       </c>
       <c r="D139" s="20">
@@ -18022,18 +19538,18 @@
         <v>952.18981917006374</v>
       </c>
       <c r="E139" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>95.67</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="28">
         <v>0.11054626016177703</v>
       </c>
       <c r="D140" s="20">
@@ -18041,18 +19557,18 @@
         <v>2879.6224319822322</v>
       </c>
       <c r="E140" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54.03</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
         <v>33</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="28">
         <v>9.7657580591934967E-2</v>
       </c>
       <c r="D141" s="20">
@@ -18060,18 +19576,18 @@
         <v>377.36241101434609</v>
       </c>
       <c r="E141" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>553.46</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="28">
         <v>7.1205831061299379E-2</v>
       </c>
       <c r="D142" s="20">
@@ -18079,18 +19595,18 @@
         <v>190.80673833911794</v>
       </c>
       <c r="E142" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>826.91</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
         <v>31</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="28">
         <v>5.6040339855942096E-2</v>
       </c>
       <c r="D143" s="20">
@@ -18098,18 +19614,18 @@
         <v>781.72617457632145</v>
       </c>
       <c r="E143" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>673.86</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B144" t="s">
         <v>42</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="28">
         <v>4.8372800170715852E-2</v>
       </c>
       <c r="D144" s="20">
@@ -18117,18 +19633,18 @@
         <v>146.35805352687166</v>
       </c>
       <c r="E144" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>877.69</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="28">
         <v>4.8179282139130954E-2</v>
       </c>
       <c r="D145" s="20">
@@ -18136,13 +19652,13 @@
         <v>75.638290306521583</v>
       </c>
       <c r="E145" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>843.66</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>40</v>
@@ -18155,14 +19671,984 @@
         <v>62.413686031553581</v>
       </c>
       <c r="E146" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>676.31</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C147" s="4"/>
       <c r="D147" s="20"/>
       <c r="E147" s="6"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C158" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" t="s">
+        <v>206</v>
+      </c>
+      <c r="F158" t="s">
+        <v>207</v>
+      </c>
+      <c r="G158" t="s">
+        <v>201</v>
+      </c>
+      <c r="H158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>86</v>
+      </c>
+      <c r="E159" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" t="s">
+        <v>84</v>
+      </c>
+      <c r="G159" t="s">
+        <v>133</v>
+      </c>
+      <c r="H159" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="21">
+        <v>19327.554148223146</v>
+      </c>
+      <c r="D160" s="20">
+        <v>4692.9772768149724</v>
+      </c>
+      <c r="E160" s="6">
+        <v>200.52987717408598</v>
+      </c>
+      <c r="F160" s="7">
+        <v>4.2729777995043197E-2</v>
+      </c>
+      <c r="G160" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B160,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>62.413686031553581</v>
+      </c>
+      <c r="H160" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B160,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>676.31</v>
+      </c>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="21">
+        <v>31355.336931794514</v>
+      </c>
+      <c r="D161" s="20">
+        <v>2227.7235540137372</v>
+      </c>
+      <c r="E161" s="6">
+        <v>124.842385072017</v>
+      </c>
+      <c r="F161" s="4">
+        <v>5.6040339855942096E-2</v>
+      </c>
+      <c r="G161" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B161,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>781.72617457632145</v>
+      </c>
+      <c r="H161" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B161,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>673.86</v>
+      </c>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="21">
+        <v>21840.895466752601</v>
+      </c>
+      <c r="D162" s="20">
+        <v>2008.9870782756591</v>
+      </c>
+      <c r="E162" s="6">
+        <v>143.05159450003001</v>
+      </c>
+      <c r="F162" s="4">
+        <v>7.1205831061299379E-2</v>
+      </c>
+      <c r="G162" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B162,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>190.80673833911794</v>
+      </c>
+      <c r="H162" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B162,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>826.91</v>
+      </c>
+      <c r="I162" s="26"/>
+      <c r="J162" s="26"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="21">
+        <v>26854.336309870869</v>
+      </c>
+      <c r="D163" s="20">
+        <v>1976.804590885605</v>
+      </c>
+      <c r="E163" s="6">
+        <v>193.04995364891798</v>
+      </c>
+      <c r="F163" s="4">
+        <v>9.7657580591934967E-2</v>
+      </c>
+      <c r="G163" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B163,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>377.36241101434609</v>
+      </c>
+      <c r="H163" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B163,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>553.46</v>
+      </c>
+      <c r="I163" s="26"/>
+      <c r="J163" s="26"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="21">
+        <v>18350.067029442034</v>
+      </c>
+      <c r="D164" s="20">
+        <v>1356.7085089440357</v>
+      </c>
+      <c r="E164" s="6">
+        <v>65.627789593059703</v>
+      </c>
+      <c r="F164" s="4">
+        <v>4.8372800170715852E-2</v>
+      </c>
+      <c r="G164" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B164,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="H164" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B164,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>877.69</v>
+      </c>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="21">
+        <v>9793.6831244079513</v>
+      </c>
+      <c r="D165" s="20">
+        <v>1150.248435949318</v>
+      </c>
+      <c r="E165" s="6">
+        <v>55.418143925696299</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4.8179282139130954E-2</v>
+      </c>
+      <c r="G165" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B165,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>75.638290306521583</v>
+      </c>
+      <c r="H165" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B165,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>843.66</v>
+      </c>
+      <c r="I165" s="26"/>
+      <c r="J165" s="26"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="21">
+        <v>27735.132525380792</v>
+      </c>
+      <c r="D166" s="20">
+        <v>1004.9221167440427</v>
+      </c>
+      <c r="E166" s="6">
+        <v>211.748602161138</v>
+      </c>
+      <c r="F166" s="4">
+        <v>0.21071145577649888</v>
+      </c>
+      <c r="G166" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B166,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>196.16940124288956</v>
+      </c>
+      <c r="H166" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B166,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>608.26</v>
+      </c>
+      <c r="I166" s="26"/>
+      <c r="J166" s="26"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="21">
+        <v>44751.392991897432</v>
+      </c>
+      <c r="D167" s="20">
+        <v>855.22171643638376</v>
+      </c>
+      <c r="E167" s="6">
+        <v>303.78196328151</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0.35520843009849717</v>
+      </c>
+      <c r="G167" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B167,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="H167" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B167,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>698.18</v>
+      </c>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168" s="21">
+        <v>11762.539121880636</v>
+      </c>
+      <c r="D168" s="20">
+        <v>447.15844883203658</v>
+      </c>
+      <c r="E168" s="6">
+        <v>53.6694290761357</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0.12002329200380427</v>
+      </c>
+      <c r="G168" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B168,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>962.81931514351061</v>
+      </c>
+      <c r="H168" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B168,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>310.43</v>
+      </c>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="21">
+        <v>27055.708066988154</v>
+      </c>
+      <c r="D169" s="20">
+        <v>402.0577628197683</v>
+      </c>
+      <c r="E169" s="6">
+        <v>189.991179857481</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0.47254697565098119</v>
+      </c>
+      <c r="G169" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B169,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>504.68110005851372</v>
+      </c>
+      <c r="H169" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B169,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>461.43</v>
+      </c>
+      <c r="I169" s="26"/>
+      <c r="J169" s="26"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="21">
+        <v>24151.977285743757</v>
+      </c>
+      <c r="D170" s="20">
+        <v>386.43167819357132</v>
+      </c>
+      <c r="E170" s="6">
+        <v>83.206348223266289</v>
+      </c>
+      <c r="F170" s="4">
+        <v>0.21531968758934555</v>
+      </c>
+      <c r="G170" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B170,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1871.9838303198417</v>
+      </c>
+      <c r="H170" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B170,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>591.23</v>
+      </c>
+      <c r="I170" s="26"/>
+      <c r="J170" s="26"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="21">
+        <v>12899.100715625664</v>
+      </c>
+      <c r="D171" s="20">
+        <v>341.16965803718733</v>
+      </c>
+      <c r="E171" s="6">
+        <v>49.546685923458199</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0.14522594479388795</v>
+      </c>
+      <c r="G171" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B171,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1619.013838564631</v>
+      </c>
+      <c r="H171" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B171,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>458.14</v>
+      </c>
+      <c r="I171" s="26"/>
+      <c r="J171" s="26"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>137</v>
+      </c>
+      <c r="B172" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" s="21">
+        <v>8871.1323354231117</v>
+      </c>
+      <c r="D172" s="20">
+        <v>220.16842282295258</v>
+      </c>
+      <c r="E172" s="6">
+        <v>62.696000000093903</v>
+      </c>
+      <c r="F172" s="4">
+        <v>0.2847638148841653</v>
+      </c>
+      <c r="G172" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B172,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4316.6314846798432</v>
+      </c>
+      <c r="H172" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B172,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>156.33000000000001</v>
+      </c>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="21">
+        <v>31245.400532437368</v>
+      </c>
+      <c r="D173" s="20">
+        <v>197.75919323301312</v>
+      </c>
+      <c r="E173" s="6">
+        <v>152.48619505923898</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0.77107007045467435</v>
+      </c>
+      <c r="G173" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B173,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1377.1058833798882</v>
+      </c>
+      <c r="H173" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B173,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>458.24</v>
+      </c>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="21">
+        <v>8668.5007439447181</v>
+      </c>
+      <c r="D174" s="20">
+        <v>148.26039961481143</v>
+      </c>
+      <c r="E174" s="6">
+        <v>53.734876295289496</v>
+      </c>
+      <c r="F174" s="4">
+        <v>0.36243579833114992</v>
+      </c>
+      <c r="G174" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B174,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3999.3198739977088</v>
+      </c>
+      <c r="H174" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B174,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>139.68</v>
+      </c>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>143</v>
+      </c>
+      <c r="B175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="21">
+        <v>16960.33486496273</v>
+      </c>
+      <c r="D175" s="20">
+        <v>129.60568758583017</v>
+      </c>
+      <c r="E175" s="6">
+        <v>94.653561543461095</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0.73031950454163241</v>
+      </c>
+      <c r="G175" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B175,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>1852.6481327500812</v>
+      </c>
+      <c r="H175" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B175,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>276.61</v>
+      </c>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="21">
+        <v>2082.0128753843478</v>
+      </c>
+      <c r="D176" s="20">
+        <v>105.73545297765708</v>
+      </c>
+      <c r="E176" s="6">
+        <v>12.124089913908</v>
+      </c>
+      <c r="F176" s="4">
+        <v>0.11466437767538516</v>
+      </c>
+      <c r="G176" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B176,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>952.18981917006374</v>
+      </c>
+      <c r="H176" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B176,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>95.67</v>
+      </c>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="21">
+        <v>2950.3734714636626</v>
+      </c>
+      <c r="D177" s="20">
+        <v>95.841170288562466</v>
+      </c>
+      <c r="E177" s="6">
+        <v>15.8653712793545</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0.16553816310450301</v>
+      </c>
+      <c r="G177" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B177,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5742.1827099938691</v>
+      </c>
+      <c r="H177" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B177,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>81.55</v>
+      </c>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>153</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="21">
+        <v>3446.780221259145</v>
+      </c>
+      <c r="D178" s="20">
+        <v>82.999177209377407</v>
+      </c>
+      <c r="E178" s="6">
+        <v>15.520013531663501</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0.18698996849706143</v>
+      </c>
+      <c r="G178" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B178,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>3568.8138509517153</v>
+      </c>
+      <c r="H178" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B178,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>92.99</v>
+      </c>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>158</v>
+      </c>
+      <c r="B179" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="21">
+        <v>2005.9091581458854</v>
+      </c>
+      <c r="D179" s="20">
+        <v>75.274060715675475</v>
+      </c>
+      <c r="E179" s="6">
+        <v>8.3212658993084609</v>
+      </c>
+      <c r="F179" s="4">
+        <v>0.11054626016177703</v>
+      </c>
+      <c r="G179" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B179,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2879.6224319822322</v>
+      </c>
+      <c r="H179" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B179,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>54.03</v>
+      </c>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="21">
+        <v>5711.5137585405673</v>
+      </c>
+      <c r="D180" s="20">
+        <v>73.266551779270216</v>
+      </c>
+      <c r="E180" s="6">
+        <v>25.580175838632201</v>
+      </c>
+      <c r="F180" s="4">
+        <v>0.34913852525361738</v>
+      </c>
+      <c r="G180" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B180,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>6566.9632140083322</v>
+      </c>
+      <c r="H180" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B180,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>141.63</v>
+      </c>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="21">
+        <v>14593.03026418845</v>
+      </c>
+      <c r="D181" s="20">
+        <v>34.339339865684501</v>
+      </c>
+      <c r="E181" s="6">
+        <v>58.779017525752899</v>
+      </c>
+      <c r="F181" s="4">
+        <v>1.711710759602898</v>
+      </c>
+      <c r="G181" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B181,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>4043.3420365535244</v>
+      </c>
+      <c r="H181" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B181,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>135</v>
+      </c>
+      <c r="B182" t="s">
+        <v>50</v>
+      </c>
+      <c r="C182" s="21">
+        <v>7935.4560050335003</v>
+      </c>
+      <c r="D182" s="20">
+        <v>23.515375140666947</v>
+      </c>
+      <c r="E182" s="6">
+        <v>40.665886534345894</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1.729331821886152</v>
+      </c>
+      <c r="G182" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B182,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>10173.408208770335</v>
+      </c>
+      <c r="H182" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B182,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>121.09</v>
+      </c>
+      <c r="I182" s="26"/>
+      <c r="J182" s="26"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>140</v>
+      </c>
+      <c r="B183" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="21">
+        <v>2276.9368646054131</v>
+      </c>
+      <c r="D183" s="20">
+        <v>17.150895530223842</v>
+      </c>
+      <c r="E183" s="6">
+        <v>8.5725947547621502</v>
+      </c>
+      <c r="F183" s="4">
+        <v>0.49983365239764055</v>
+      </c>
+      <c r="G183" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B183,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>9635.4198734393703</v>
+      </c>
+      <c r="H183" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B183,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>58.47</v>
+      </c>
+      <c r="I183" s="26"/>
+      <c r="J183" s="26"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="21">
+        <v>1737.5953858203882</v>
+      </c>
+      <c r="D184" s="20">
+        <v>16.545192607879624</v>
+      </c>
+      <c r="E184" s="6">
+        <v>7.1899251236337305</v>
+      </c>
+      <c r="F184" s="4">
+        <v>0.43456279379966473</v>
+      </c>
+      <c r="G184" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B184,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7190.993959362987</v>
+      </c>
+      <c r="H184" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B184,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>36.42</v>
+      </c>
+      <c r="I184" s="26"/>
+      <c r="J184" s="26"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>156</v>
+      </c>
+      <c r="B185" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" s="21">
+        <v>10988.834203464858</v>
+      </c>
+      <c r="D185" s="20">
+        <v>13.607353075027472</v>
+      </c>
+      <c r="E185" s="6">
+        <v>58.197149323988</v>
+      </c>
+      <c r="F185" s="4">
+        <v>4.276889781804277</v>
+      </c>
+      <c r="G185" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B185,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>957.14053690340836</v>
+      </c>
+      <c r="H185" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B185,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>430.99</v>
+      </c>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="21">
+        <v>1694.4436725592789</v>
+      </c>
+      <c r="D186" s="20">
+        <v>12.209053881168373</v>
+      </c>
+      <c r="E186" s="6">
+        <v>6.1827931403136498</v>
+      </c>
+      <c r="F186" s="4">
+        <v>0.50641050489998929</v>
+      </c>
+      <c r="G186" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B186,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5652.6552655265532</v>
+      </c>
+      <c r="H186" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B186,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>33.33</v>
+      </c>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="21">
+        <v>2219.2646619820498</v>
+      </c>
+      <c r="D187" s="20">
+        <v>11.243136580944061</v>
+      </c>
+      <c r="E187" s="6">
+        <v>11.249757452426699</v>
+      </c>
+      <c r="F187" s="4">
+        <v>1.0005888811751928</v>
+      </c>
+      <c r="G187" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B187,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>7295.146638982611</v>
+      </c>
+      <c r="H187" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B187,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>38.53</v>
+      </c>
+      <c r="I187" s="26"/>
+      <c r="J187" s="26"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="21">
+        <v>2853.9785406570368</v>
+      </c>
+      <c r="D188" s="20">
+        <v>6.763776578426361</v>
+      </c>
+      <c r="E188" s="6">
+        <v>18.598573099575098</v>
+      </c>
+      <c r="F188" s="4">
+        <v>2.7497320297209145</v>
+      </c>
+      <c r="G188" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B188,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>5916.0618122219621</v>
+      </c>
+      <c r="H188" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B188,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>42.71</v>
+      </c>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>136</v>
+      </c>
+      <c r="B189" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="21">
+        <v>3823.426548084667</v>
+      </c>
+      <c r="D189" s="20">
+        <v>6.5368619575500473</v>
+      </c>
+      <c r="E189" s="6">
+        <v>12.012887838361799</v>
+      </c>
+      <c r="F189" s="4">
+        <v>1.8377147806352201</v>
+      </c>
+      <c r="G189" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B189,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="H189" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B189,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>53.45</v>
+      </c>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="21">
+        <v>1188.7077430954027</v>
+      </c>
+      <c r="D190" s="20">
+        <v>2.3620001182556152</v>
+      </c>
+      <c r="E190" s="6">
+        <v>2.67067278143442</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1.1306827467082285</v>
+      </c>
+      <c r="G190" s="27">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B190,시군별인구_rawData!$D$23:$D$54)</f>
+        <v>2391.2182882631728</v>
+      </c>
+      <c r="H190" s="6">
+        <f>SUMIF(시군별인구_rawData!$A$23:$A$54,Sheet2!$B190,시군별인구_rawData!$C$23:$C$54)</f>
+        <v>35.869999999999997</v>
+      </c>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A115:Z115" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">

--- a/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
+++ b/전문가WorkShop/[3-2] 경기도 태양광 잠재량 공간정보 구축/시군별 태양광 잠재량.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\전문가WorkShop\[3-2] 경기도 태양광 잠재량 공간정보 구축\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FE9CB-8FDE-4CEA-A4AE-058B8EAF9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467F7A66-6AE0-47C2-90D4-B90EEFF8626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{5DA6F7D6-59B5-4D1E-AC40-24C5547C276F}"/>
   </bookViews>
   <sheets>
     <sheet name="잠재량 데이터" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="시군별면적_rawData" sheetId="4" r:id="rId4"/>
     <sheet name="분석용 및 그래프" sheetId="2" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'분석용 및 그래프'!$A$117:$Z$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시군별면적_rawData!$A$15:$C$15</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="245">
   <si>
     <t>SIGUNGU_NM</t>
   </si>
@@ -873,6 +876,14 @@
     <t>옥상형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>중위값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구밀도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -884,7 +895,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="189" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1128,6 +1139,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,9 +1149,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="STYLE0" xfId="2" xr:uid="{04ED4964-B71F-452B-9350-4303A3FDE91C}"/>
@@ -3354,6 +3365,1601 @@
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4003479617674386E-2"/>
+          <c:y val="3.9943501532549525E-2"/>
+          <c:w val="0.85630102623174498"/>
+          <c:h val="0.87610881101605742"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$C$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technical potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$C$242:$C$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5071613321930395E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3911375181126612E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10991880723445389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1138602981690108E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$D$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Market potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$D$242:$D$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.4858690520798188E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6068243327985451E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7188307123691771E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8341327553782917E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2010038383"/>
+        <c:axId val="2010039823"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$E$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Administrative area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$E$242:$E$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6088129275888256E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2426375027586356E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.848091022780213E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3837816630293492E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2010038383"/>
+        <c:axId val="2010039823"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$F$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$F$242:$F$245</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365795551"/>
+        <c:axId val="149080591"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="2010038383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010039823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2010039823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010038383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149080591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365795551"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365795551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149080591"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31874758655565338"/>
+          <c:y val="0.78096493435198322"/>
+          <c:w val="0.31300674143171986"/>
+          <c:h val="0.21656640285465942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4003479617674386E-2"/>
+          <c:y val="3.9943501532549525E-2"/>
+          <c:w val="0.85630102623174498"/>
+          <c:h val="0.87610881101605742"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$C$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technical potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$C$242:$C$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5071613321930395E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3911375181126612E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10991880723445389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1138602981690108E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$D$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Market potential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$D$242:$D$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.4858690520798188E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6068243327985451E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7188307123691771E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8341327553782917E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2010038383"/>
+        <c:axId val="2010039823"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$E$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Administrative area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$E$242:$E$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6088129275888256E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2426375027586356E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.848091022780213E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3837816630293492E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$I$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$I$242:$I$245</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6296559672396452E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6296559672396452E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6296559672396452E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6296559672396452E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7613-4667-8490-71AC365BDAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2010038383"/>
+        <c:axId val="2010039823"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$F$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$F$242:$F$245</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>146.35805352687166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14952.703461178671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460.769429087055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952.18981917006374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2330-42AC-8D97-47A52D6F8E65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$G$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$G$242:$G$245</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4055339856393559E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4055339856393559E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4055339856393559E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4055339856393559E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7613-4667-8490-71AC365BDAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$H$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$H$242:$H$245</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1512133909105817E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1512133909105817E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1512133909105817E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1512133909105817E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7613-4667-8490-71AC365BDAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$J$240</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'분석용 및 그래프'!$A$242:$A$245</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yangpyeong-gun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bucheon-si</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hwaseong-si</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dongducheon-si</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'분석용 및 그래프'!$J$242:$J$245</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1871.9838303198417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7613-4667-8490-71AC365BDAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365795551"/>
+        <c:axId val="149080591"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="2010038383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010039823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2010039823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010038383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149080591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365795551"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365795551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149080591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16068438158016693"/>
+          <c:y val="1.1144722997392383E-2"/>
+          <c:w val="0.33962611626590627"/>
+          <c:h val="0.57352053363227173"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
+              <a:ea typeface="바탕체" panose="02030609000101010101" pitchFamily="17" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -10127,6 +11733,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11629,6 +13315,1012 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16453,16 +19145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>244930</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>16288</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>39934</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>433574</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16485,8 +19177,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25853572" y="42195750"/>
-          <a:ext cx="8017287" cy="9211148"/>
+          <a:off x="19929930" y="47162357"/>
+          <a:ext cx="8135215" cy="9211149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16495,7 +19187,92 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534165</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>112226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191191</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>164101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="차트 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E516FA-D018-C306-F306-745ACF761A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539686</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>112226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20017</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>164101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="차트 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5714EE08-BBC5-846D-441E-39FC75679D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16831,14 +19608,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="AE1" t="s">
         <v>82</v>
       </c>
@@ -19777,8 +22554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D157731F-0CEF-45FD-BFF1-2CE1FCDA44B2}">
   <dimension ref="B2:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -19865,15 +22642,15 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="29">
         <f>SUMIF($B$4:$B$34,$J4,E$4:E$34)/10^(3)</f>
         <v>23.289433753013597</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="29">
         <f>SUMIF($B$4:$B$34,$J4,F$4:F$34)/10^(3)</f>
         <v>0.22594138765335084</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="29">
         <f>SUM(P4:Q4)</f>
         <v>23.515375140666947</v>
       </c>
@@ -19912,15 +22689,15 @@
       <c r="O5" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="29">
         <f>SUMIF($B$4:$B$34,$J5,E$4:E$34)/10^(3)</f>
         <v>380.110008793833</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="29">
         <f t="shared" ref="Q5:Q24" si="3">SUMIF($B$4:$B$34,$J5,F$4:F$34)/10^(3)</f>
         <v>6.3216693997383153</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="29">
         <f t="shared" ref="R5:R36" si="4">SUM(P5:Q5)</f>
         <v>386.43167819357132</v>
       </c>
@@ -19959,15 +22736,15 @@
       <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="32">
-        <f t="shared" ref="P5:P24" si="5">SUMIF($B$4:$B$34,$J6,E$4:E$34)/10^(3)</f>
+      <c r="P6" s="29">
+        <f t="shared" ref="P6:P24" si="5">SUMIF($B$4:$B$34,$J6,E$4:E$34)/10^(3)</f>
         <v>67.800393896102946</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="29">
         <f t="shared" si="3"/>
         <v>5.466157883167269</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="29">
         <f t="shared" si="4"/>
         <v>73.266551779270216</v>
       </c>
@@ -20006,15 +22783,15 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="29">
         <f t="shared" si="5"/>
         <v>6.2752943239212016</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="29">
         <f t="shared" si="3"/>
         <v>0.26156763362884522</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="29">
         <f t="shared" si="4"/>
         <v>6.5368619575500464</v>
       </c>
@@ -20053,15 +22830,15 @@
       <c r="O8" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="29">
         <f t="shared" si="5"/>
         <v>835.0300808868385</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="29">
         <f t="shared" si="3"/>
         <v>20.191635549545282</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="29">
         <f t="shared" si="4"/>
         <v>855.22171643638376</v>
       </c>
@@ -20100,15 +22877,15 @@
       <c r="O9" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="32">
+      <c r="P9" s="29">
         <f t="shared" si="5"/>
         <v>215.00478203201325</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="29">
         <f t="shared" si="3"/>
         <v>5.1636407909393309</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="29">
         <f t="shared" si="4"/>
         <v>220.16842282295258</v>
       </c>
@@ -20147,15 +22924,15 @@
       <c r="O10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="29">
         <f t="shared" si="5"/>
         <v>16.697501078605647</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="29">
         <f t="shared" si="3"/>
         <v>0.45339445161819464</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="29">
         <f t="shared" si="4"/>
         <v>17.150895530223842</v>
       </c>
@@ -20194,15 +22971,15 @@
       <c r="O11" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="29">
         <f t="shared" si="5"/>
         <v>189.17433318805692</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="29">
         <f t="shared" si="3"/>
         <v>8.5848600449562049</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="29">
         <f t="shared" si="4"/>
         <v>197.75919323301312</v>
       </c>
@@ -20241,15 +23018,15 @@
       <c r="O12" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="29">
         <f t="shared" si="5"/>
         <v>142.90910233783771</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="29">
         <f t="shared" si="3"/>
         <v>5.3512972769737237</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="29">
         <f t="shared" si="4"/>
         <v>148.26039961481143</v>
       </c>
@@ -20288,15 +23065,15 @@
       <c r="O13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="29">
         <f t="shared" si="5"/>
         <v>122.24544634914348</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="29">
         <f t="shared" si="3"/>
         <v>7.3602412366867096</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="29">
         <f t="shared" si="4"/>
         <v>129.6056875858302</v>
       </c>
@@ -20335,15 +23112,15 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="29">
         <f t="shared" si="5"/>
         <v>13.515313793182379</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="29">
         <f t="shared" si="3"/>
         <v>9.2039281845092774E-2</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="29">
         <f t="shared" si="4"/>
         <v>13.607353075027472</v>
       </c>
@@ -20382,15 +23159,15 @@
       <c r="O15" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="29">
         <f t="shared" si="5"/>
         <v>10.545319922447204</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="29">
         <f t="shared" si="3"/>
         <v>0.69781665849685648</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="29">
         <f t="shared" si="4"/>
         <v>11.243136580944061</v>
       </c>
@@ -20429,15 +23206,15 @@
       <c r="O16" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="29">
         <f t="shared" si="5"/>
         <v>15.462343129158008</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="29">
         <f t="shared" si="3"/>
         <v>1.0828494787216187</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="29">
         <f t="shared" si="4"/>
         <v>16.545192607879628</v>
       </c>
@@ -20476,15 +23253,15 @@
       <c r="O17" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="29">
         <f t="shared" si="5"/>
         <v>64.635307708740356</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="29">
         <f t="shared" si="3"/>
         <v>18.36386950063704</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="29">
         <f t="shared" si="4"/>
         <v>82.999177209377393</v>
       </c>
@@ -20523,15 +23300,15 @@
       <c r="O18" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="29">
         <f t="shared" si="5"/>
         <v>6.4853776350021359</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="29">
         <f t="shared" si="3"/>
         <v>0.27839894342422483</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="29">
         <f t="shared" si="4"/>
         <v>6.763776578426361</v>
       </c>
@@ -20570,15 +23347,15 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="29">
         <f t="shared" si="5"/>
         <v>380.70522060203677</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="29">
         <f t="shared" si="3"/>
         <v>21.352542217731465</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="29">
         <f t="shared" si="4"/>
         <v>402.05776281976824</v>
       </c>
@@ -20617,15 +23394,15 @@
       <c r="O20" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="29">
         <f t="shared" si="5"/>
         <v>1947.3455948552744</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="29">
         <f t="shared" si="3"/>
         <v>29.458996030330642</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="29">
         <f t="shared" si="4"/>
         <v>1976.804590885605</v>
       </c>
@@ -20664,15 +23441,15 @@
       <c r="O21" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="29">
         <f t="shared" si="5"/>
         <v>73.903122450828675</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="29">
         <f t="shared" si="3"/>
         <v>1.3709382648468018</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="29">
         <f t="shared" si="4"/>
         <v>75.274060715675475</v>
       </c>
@@ -20711,15 +23488,15 @@
       <c r="O22" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="29">
         <f t="shared" si="5"/>
         <v>1341.5242372980128</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="29">
         <f t="shared" si="3"/>
         <v>15.18427164602279</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="29">
         <f t="shared" si="4"/>
         <v>1356.7085089440357</v>
       </c>
@@ -20758,15 +23535,15 @@
       <c r="O23" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="29">
         <f t="shared" si="5"/>
         <v>990.70456260395179</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="29">
         <f t="shared" si="3"/>
         <v>14.217554140090943</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="29">
         <f t="shared" si="4"/>
         <v>1004.9221167440427</v>
       </c>
@@ -20805,15 +23582,15 @@
       <c r="O24" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="29">
         <f t="shared" si="5"/>
         <v>2.1027096948623658</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="29">
         <f t="shared" si="3"/>
         <v>0.25929042339324954</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="29">
         <f t="shared" si="4"/>
         <v>2.3620001182556152</v>
       </c>
@@ -20852,15 +23629,15 @@
       <c r="O25" t="s">
         <v>236</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="29">
         <f>SUM(P4:P24)</f>
         <v>6845.4654863328633</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="29">
         <f>SUM(Q4:Q24)</f>
         <v>161.73897224044796</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="29">
         <f t="shared" si="4"/>
         <v>7007.2044585733111</v>
       </c>
@@ -20899,15 +23676,15 @@
       <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="29">
         <f>SUMIF($B$4:$B$34,$J26,E$4:E$34)/10^(3)</f>
         <v>30.079174032211299</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="29">
         <f>SUMIF($B$4:$B$34,$J26,F$4:F$34)/10^(3)</f>
         <v>4.260165833473204</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="29">
         <f t="shared" si="4"/>
         <v>34.339339865684501</v>
       </c>
@@ -20946,15 +23723,15 @@
       <c r="O27" t="s">
         <v>238</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="29">
         <f t="shared" ref="P27:P35" si="9">SUMIF($B$4:$B$34,$J27,E$4:E$34)/10^(3)</f>
         <v>336.73598646831681</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="29">
         <f t="shared" ref="Q27:Q35" si="10">SUMIF($B$4:$B$34,$J27,F$4:F$34)/10^(3)</f>
         <v>4.4336715688705457</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="29">
         <f t="shared" si="4"/>
         <v>341.16965803718733</v>
       </c>
@@ -20993,15 +23770,15 @@
       <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="29">
         <f t="shared" si="9"/>
         <v>2215.8211439857564</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="29">
         <f t="shared" si="10"/>
         <v>11.902410027980805</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="29">
         <f t="shared" si="4"/>
         <v>2227.7235540137372</v>
       </c>
@@ -21040,15 +23817,15 @@
       <c r="O29" t="s">
         <v>240</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="29">
         <f t="shared" si="9"/>
         <v>94.461849673270876</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="29">
         <f t="shared" si="10"/>
         <v>1.3793206152915956</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="29">
         <f t="shared" si="4"/>
         <v>95.841170288562466</v>
       </c>
@@ -21087,15 +23864,15 @@
       <c r="O30" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="29">
         <f t="shared" si="9"/>
         <v>441.00873364067229</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="29">
         <f t="shared" si="10"/>
         <v>6.1497151913642893</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="29">
         <f t="shared" si="4"/>
         <v>447.15844883203658</v>
       </c>
@@ -21134,15 +23911,15 @@
       <c r="O31" t="s">
         <v>21</v>
       </c>
-      <c r="P31" s="32">
+      <c r="P31" s="29">
         <f t="shared" si="9"/>
         <v>11.891110341072089</v>
       </c>
-      <c r="Q31" s="32">
+      <c r="Q31" s="29">
         <f t="shared" si="10"/>
         <v>0.31794354009628295</v>
       </c>
-      <c r="R31" s="32">
+      <c r="R31" s="29">
         <f t="shared" si="4"/>
         <v>12.209053881168373</v>
       </c>
@@ -21181,15 +23958,15 @@
       <c r="O32" t="s">
         <v>38</v>
       </c>
-      <c r="P32" s="32">
+      <c r="P32" s="29">
         <f t="shared" si="9"/>
         <v>1954.4098853158737</v>
       </c>
-      <c r="Q32" s="32">
+      <c r="Q32" s="29">
         <f t="shared" si="10"/>
         <v>54.577192959785457</v>
       </c>
-      <c r="R32" s="32">
+      <c r="R32" s="29">
         <f t="shared" si="4"/>
         <v>2008.9870782756591</v>
       </c>
@@ -21228,15 +24005,15 @@
       <c r="O33" t="s">
         <v>239</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="29">
         <f t="shared" si="9"/>
         <v>104.44317280483222</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="29">
         <f t="shared" si="10"/>
         <v>1.2922801728248596</v>
       </c>
-      <c r="R33" s="32">
+      <c r="R33" s="29">
         <f t="shared" si="4"/>
         <v>105.73545297765708</v>
       </c>
@@ -21275,15 +24052,15 @@
       <c r="O34" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="29">
         <f t="shared" si="9"/>
         <v>1139.584781676285</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="29">
         <f t="shared" si="10"/>
         <v>10.663654273033139</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="29">
         <f t="shared" si="4"/>
         <v>1150.2484359493183</v>
       </c>
@@ -21319,15 +24096,15 @@
       <c r="O35" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="29">
         <f t="shared" si="9"/>
         <v>4655.8976560793271</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="29">
         <f t="shared" si="10"/>
         <v>37.079620735645271</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="29">
         <f t="shared" si="4"/>
         <v>4692.9772768149724</v>
       </c>
@@ -21351,15 +24128,15 @@
       <c r="O36" t="s">
         <v>237</v>
       </c>
-      <c r="P36" s="32">
+      <c r="P36" s="29">
         <f>SUM(P26:P35)</f>
         <v>10984.333494017617</v>
       </c>
-      <c r="Q36" s="32">
+      <c r="Q36" s="29">
         <f>SUM(Q26:Q35)</f>
         <v>132.05597491836545</v>
       </c>
-      <c r="R36" s="32">
+      <c r="R36" s="29">
         <f t="shared" si="4"/>
         <v>11116.389468935982</v>
       </c>
@@ -21383,15 +24160,15 @@
       <c r="O37" t="s">
         <v>79</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="29">
         <f>SUM(P25,P36)</f>
         <v>17829.798980350482</v>
       </c>
-      <c r="Q37" s="32">
+      <c r="Q37" s="29">
         <f>SUM(Q25,Q36)</f>
         <v>293.79494715881344</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="29">
         <f>SUM(P37:Q37)</f>
         <v>18123.593927509297</v>
       </c>
@@ -21532,7 +24309,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -21540,7 +24317,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -21548,7 +24325,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -22539,10 +25316,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
-  <dimension ref="A1:AE228"/>
+  <dimension ref="A1:AE246"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S165" sqref="S165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -22668,11 +25445,11 @@
         <v>673.86</v>
       </c>
       <c r="I5" s="23">
-        <f t="shared" ref="I5:I34" si="0">C5/H5</f>
+        <f>C5/H5</f>
         <v>46.53093659186554</v>
       </c>
       <c r="J5" s="23">
-        <f t="shared" ref="J5:J34" si="1">D5/H5</f>
+        <f t="shared" ref="J5:J34" si="0">D5/H5</f>
         <v>3.3059145134207952</v>
       </c>
     </row>
@@ -22704,11 +25481,11 @@
         <v>826.91</v>
       </c>
       <c r="I6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:I34" si="1">C6/H6</f>
         <v>26.412663369354103</v>
       </c>
       <c r="J6" s="23">
-        <f t="shared" si="1"/>
+        <f>D6/H6</f>
         <v>2.429511165998306</v>
       </c>
     </row>
@@ -22740,11 +25517,11 @@
         <v>553.46</v>
       </c>
       <c r="I7" s="23">
+        <f t="shared" si="1"/>
+        <v>48.520825913111821</v>
+      </c>
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
-        <v>48.520825913111821</v>
-      </c>
-      <c r="J7" s="23">
-        <f t="shared" si="1"/>
         <v>3.5717207944306812</v>
       </c>
     </row>
@@ -22776,11 +25553,11 @@
         <v>877.69</v>
       </c>
       <c r="I8" s="23">
+        <f t="shared" si="1"/>
+        <v>20.907230376832405</v>
+      </c>
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
-        <v>20.907230376832405</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" si="1"/>
         <v>1.5457718658570059</v>
       </c>
     </row>
@@ -22812,11 +25589,11 @@
         <v>843.66</v>
       </c>
       <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>11.608566394528545</v>
+      </c>
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
-        <v>11.608566394528545</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" si="1"/>
         <v>1.3634028352053174</v>
       </c>
     </row>
@@ -22848,11 +25625,11 @@
         <v>608.26</v>
       </c>
       <c r="I10" s="23">
+        <f t="shared" si="1"/>
+        <v>45.597495356230546</v>
+      </c>
+      <c r="J10" s="23">
         <f t="shared" si="0"/>
-        <v>45.597495356230546</v>
-      </c>
-      <c r="J10" s="23">
-        <f t="shared" si="1"/>
         <v>1.6521259276362783</v>
       </c>
     </row>
@@ -22884,11 +25661,11 @@
         <v>698.18</v>
       </c>
       <c r="I11" s="23">
+        <f t="shared" si="1"/>
+        <v>64.097214173848343</v>
+      </c>
+      <c r="J11" s="23">
         <f t="shared" si="0"/>
-        <v>64.097214173848343</v>
-      </c>
-      <c r="J11" s="23">
-        <f t="shared" si="1"/>
         <v>1.2249301275264026</v>
       </c>
     </row>
@@ -22920,11 +25697,11 @@
         <v>310.43</v>
       </c>
       <c r="I12" s="23">
+        <f t="shared" si="1"/>
+        <v>37.891115942017962</v>
+      </c>
+      <c r="J12" s="23">
         <f t="shared" si="0"/>
-        <v>37.891115942017962</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="1"/>
         <v>1.4404485675741281</v>
       </c>
     </row>
@@ -22956,11 +25733,11 @@
         <v>461.43</v>
       </c>
       <c r="I13" s="23">
+        <f t="shared" si="1"/>
+        <v>58.634479914587594</v>
+      </c>
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
-        <v>58.634479914587594</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="1"/>
         <v>0.87132991530626158</v>
       </c>
     </row>
@@ -22992,11 +25769,11 @@
         <v>591.23</v>
       </c>
       <c r="I14" s="23">
+        <f t="shared" si="1"/>
+        <v>40.850392039889307</v>
+      </c>
+      <c r="J14" s="23">
         <f t="shared" si="0"/>
-        <v>40.850392039889307</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="1"/>
         <v>0.65360634303667153</v>
       </c>
     </row>
@@ -23028,11 +25805,11 @@
         <v>458.14</v>
       </c>
       <c r="I15" s="23">
+        <f t="shared" si="1"/>
+        <v>28.155368916980976</v>
+      </c>
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
-        <v>28.155368916980976</v>
-      </c>
-      <c r="J15" s="23">
-        <f t="shared" si="1"/>
         <v>0.74468428436108469</v>
       </c>
     </row>
@@ -23064,11 +25841,11 @@
         <v>156.33000000000001</v>
       </c>
       <c r="I16" s="23">
+        <f t="shared" si="1"/>
+        <v>56.746192895945185</v>
+      </c>
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
-        <v>56.746192895945185</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="1"/>
         <v>1.4083568273712823</v>
       </c>
     </row>
@@ -23100,11 +25877,11 @@
         <v>458.24</v>
       </c>
       <c r="I17" s="23">
+        <f t="shared" si="1"/>
+        <v>68.185668061359479</v>
+      </c>
+      <c r="J17" s="23">
         <f t="shared" si="0"/>
-        <v>68.185668061359479</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" si="1"/>
         <v>0.43156248523265783</v>
       </c>
     </row>
@@ -23136,11 +25913,11 @@
         <v>139.68</v>
       </c>
       <c r="I18" s="23">
+        <f t="shared" si="1"/>
+        <v>62.059713229844775</v>
+      </c>
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
-        <v>62.059713229844775</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="1"/>
         <v>1.0614289777692685</v>
       </c>
     </row>
@@ -23172,11 +25949,11 @@
         <v>276.61</v>
       </c>
       <c r="I19" s="23">
+        <f t="shared" si="1"/>
+        <v>61.314973663145686</v>
+      </c>
+      <c r="J19" s="23">
         <f t="shared" si="0"/>
-        <v>61.314973663145686</v>
-      </c>
-      <c r="J19" s="23">
-        <f t="shared" si="1"/>
         <v>0.46855026060457017</v>
       </c>
     </row>
@@ -23208,11 +25985,11 @@
         <v>95.67</v>
       </c>
       <c r="I20" s="23">
+        <f t="shared" si="1"/>
+        <v>21.762442514731344</v>
+      </c>
+      <c r="J20" s="23">
         <f t="shared" si="0"/>
-        <v>21.762442514731344</v>
-      </c>
-      <c r="J20" s="23">
-        <f t="shared" si="1"/>
         <v>1.1052101283334073</v>
       </c>
     </row>
@@ -23244,11 +26021,11 @@
         <v>81.55</v>
       </c>
       <c r="I21" s="23">
+        <f t="shared" si="1"/>
+        <v>36.178705965219649</v>
+      </c>
+      <c r="J21" s="23">
         <f t="shared" si="0"/>
-        <v>36.178705965219649</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" si="1"/>
         <v>1.1752442708591351</v>
       </c>
     </row>
@@ -23280,11 +26057,11 @@
         <v>92.99</v>
       </c>
       <c r="I22" s="23">
+        <f t="shared" si="1"/>
+        <v>37.066138523057802</v>
+      </c>
+      <c r="J22" s="23">
         <f t="shared" si="0"/>
-        <v>37.066138523057802</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="1"/>
         <v>0.89256024528849787</v>
       </c>
     </row>
@@ -23316,11 +26093,11 @@
         <v>54.03</v>
       </c>
       <c r="I23" s="23">
+        <f t="shared" si="1"/>
+        <v>37.125840424687865</v>
+      </c>
+      <c r="J23" s="23">
         <f t="shared" si="0"/>
-        <v>37.125840424687865</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="1"/>
         <v>1.3931900928313061</v>
       </c>
     </row>
@@ -23352,11 +26129,11 @@
         <v>141.63</v>
       </c>
       <c r="I24" s="23">
+        <f t="shared" si="1"/>
+        <v>40.327005285183702</v>
+      </c>
+      <c r="J24" s="23">
         <f t="shared" si="0"/>
-        <v>40.327005285183702</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="1"/>
         <v>0.51730955150229629</v>
       </c>
     </row>
@@ -23388,11 +26165,11 @@
         <v>268.10000000000002</v>
       </c>
       <c r="I25" s="23">
+        <f t="shared" si="1"/>
+        <v>54.431295278584294</v>
+      </c>
+      <c r="J25" s="23">
         <f t="shared" si="0"/>
-        <v>54.431295278584294</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="1"/>
         <v>0.12808407260605931</v>
       </c>
     </row>
@@ -23424,11 +26201,11 @@
         <v>121.09</v>
       </c>
       <c r="I26" s="23">
+        <f t="shared" si="1"/>
+        <v>65.533537080134607</v>
+      </c>
+      <c r="J26" s="23">
         <f t="shared" si="0"/>
-        <v>65.533537080134607</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="1"/>
         <v>0.19419749889063462</v>
       </c>
     </row>
@@ -23460,11 +26237,11 @@
         <v>58.47</v>
       </c>
       <c r="I27" s="23">
+        <f t="shared" si="1"/>
+        <v>38.941967925524423</v>
+      </c>
+      <c r="J27" s="23">
         <f t="shared" si="0"/>
-        <v>38.941967925524423</v>
-      </c>
-      <c r="J27" s="23">
-        <f t="shared" si="1"/>
         <v>0.29332812605137409</v>
       </c>
     </row>
@@ -23496,11 +26273,11 @@
         <v>36.42</v>
       </c>
       <c r="I28" s="23">
+        <f t="shared" si="1"/>
+        <v>47.709922729829437</v>
+      </c>
+      <c r="J28" s="23">
         <f t="shared" si="0"/>
-        <v>47.709922729829437</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="1"/>
         <v>0.45428864931025875</v>
       </c>
     </row>
@@ -23532,11 +26309,11 @@
         <v>430.99</v>
       </c>
       <c r="I29" s="23">
+        <f t="shared" si="1"/>
+        <v>25.496726614225057</v>
+      </c>
+      <c r="J29" s="23">
         <f t="shared" si="0"/>
-        <v>25.496726614225057</v>
-      </c>
-      <c r="J29" s="23">
-        <f t="shared" si="1"/>
         <v>3.1572317397219128E-2</v>
       </c>
     </row>
@@ -23568,11 +26345,11 @@
         <v>33.33</v>
       </c>
       <c r="I30" s="23">
+        <f t="shared" si="1"/>
+        <v>50.83839401617999</v>
+      </c>
+      <c r="J30" s="23">
         <f t="shared" si="0"/>
-        <v>50.83839401617999</v>
-      </c>
-      <c r="J30" s="23">
-        <f t="shared" si="1"/>
         <v>0.36630824725977718</v>
       </c>
     </row>
@@ -23604,11 +26381,11 @@
         <v>38.53</v>
       </c>
       <c r="I31" s="23">
+        <f t="shared" si="1"/>
+        <v>57.598356137608349</v>
+      </c>
+      <c r="J31" s="23">
         <f t="shared" si="0"/>
-        <v>57.598356137608349</v>
-      </c>
-      <c r="J31" s="23">
-        <f t="shared" si="1"/>
         <v>0.29180214328949028</v>
       </c>
     </row>
@@ -23640,11 +26417,11 @@
         <v>42.71</v>
       </c>
       <c r="I32" s="23">
+        <f t="shared" si="1"/>
+        <v>66.822255693210877</v>
+      </c>
+      <c r="J32" s="23">
         <f t="shared" si="0"/>
-        <v>66.822255693210877</v>
-      </c>
-      <c r="J32" s="23">
-        <f t="shared" si="1"/>
         <v>0.15836517392709812</v>
       </c>
     </row>
@@ -23676,11 +26453,11 @@
         <v>53.45</v>
       </c>
       <c r="I33" s="23">
+        <f t="shared" si="1"/>
+        <v>71.532769842556917</v>
+      </c>
+      <c r="J33" s="23">
         <f t="shared" si="0"/>
-        <v>71.532769842556917</v>
-      </c>
-      <c r="J33" s="23">
-        <f t="shared" si="1"/>
         <v>0.12229863344340593</v>
       </c>
     </row>
@@ -23712,11 +26489,11 @@
         <v>35.869999999999997</v>
       </c>
       <c r="I34" s="23">
+        <f t="shared" si="1"/>
+        <v>33.139329330789039</v>
+      </c>
+      <c r="J34" s="23">
         <f t="shared" si="0"/>
-        <v>33.139329330789039</v>
-      </c>
-      <c r="J34" s="23">
-        <f t="shared" si="1"/>
         <v>6.5848902098009907E-2</v>
       </c>
     </row>
@@ -24455,8 +27232,24 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="C73" s="6">
+        <f>SUM(C42:C72)</f>
+        <v>407131.35556906025</v>
+      </c>
+      <c r="D73" s="6">
+        <f>SUM(D42:D72)</f>
+        <v>10195.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C74" s="26">
+        <f>SUM(C42:C48)/C73</f>
+        <v>0.52353934848910733</v>
+      </c>
+      <c r="D74" s="26">
+        <f>SUM(D42:D48)/D73</f>
+        <v>0.39672004119565485</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C75" s="6"/>
@@ -28776,7 +31569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B225">
         <v>28</v>
       </c>
@@ -28826,7 +31619,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B226">
         <v>29</v>
       </c>
@@ -28876,7 +31669,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B227">
         <v>30</v>
       </c>
@@ -28926,7 +31719,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B228">
         <v>31</v>
       </c>
@@ -28975,6 +31768,431 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="C232" t="str">
+        <f t="shared" ref="C232:H233" si="16">C1</f>
+        <v>GWh</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="16"/>
+        <v>GWh</v>
+      </c>
+      <c r="E232" t="str">
+        <f t="shared" si="16"/>
+        <v>GWh</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="C233" t="str">
+        <f t="shared" si="16"/>
+        <v>Technical potential</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="16"/>
+        <v>Market potential</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="16"/>
+        <v>Actual generation in 2023</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="16"/>
+        <v>Utilization rate of market potential</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="16"/>
+        <v>Population density</v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="16"/>
+        <v>Administrative area</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="C234" t="str">
+        <f>C3</f>
+        <v>기술적</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" ref="D234:H234" si="17">D3</f>
+        <v>시장 잠재량</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="17"/>
+        <v>실제 발전량 (2023)</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="17"/>
+        <v>잠재량 활용률</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="17"/>
+        <v>인구밀도(명/km2)</v>
+      </c>
+      <c r="H234" t="str">
+        <f t="shared" si="17"/>
+        <v>면적(km2)</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A235" t="str">
+        <f>A8</f>
+        <v>Yangpyeong-gun</v>
+      </c>
+      <c r="B235" t="str">
+        <f>B8</f>
+        <v>양평군</v>
+      </c>
+      <c r="C235" s="6">
+        <f t="shared" ref="C235:I235" si="18">C8</f>
+        <v>18350.067029442034</v>
+      </c>
+      <c r="D235" s="6">
+        <f t="shared" si="18"/>
+        <v>1356.7085089440357</v>
+      </c>
+      <c r="E235" s="6">
+        <f t="shared" si="18"/>
+        <v>65.627789593059703</v>
+      </c>
+      <c r="F235" s="6">
+        <f t="shared" si="18"/>
+        <v>4.8372800170715852E-2</v>
+      </c>
+      <c r="G235" s="6">
+        <f t="shared" si="18"/>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="H235" s="6">
+        <f t="shared" si="18"/>
+        <v>877.69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A236" t="str">
+        <f>A33</f>
+        <v>Bucheon-si</v>
+      </c>
+      <c r="B236" t="str">
+        <f>B33</f>
+        <v>부천시</v>
+      </c>
+      <c r="C236" s="6">
+        <f t="shared" ref="C236:I236" si="19">C33</f>
+        <v>3823.426548084667</v>
+      </c>
+      <c r="D236" s="6">
+        <f t="shared" si="19"/>
+        <v>6.5368619575500473</v>
+      </c>
+      <c r="E236" s="6">
+        <f t="shared" si="19"/>
+        <v>12.012887838361799</v>
+      </c>
+      <c r="F236" s="6">
+        <f t="shared" si="19"/>
+        <v>1.8377147806352201</v>
+      </c>
+      <c r="G236" s="6">
+        <f t="shared" si="19"/>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="H236" s="6">
+        <f t="shared" si="19"/>
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A237" t="str">
+        <f>A11</f>
+        <v>Hwaseong-si</v>
+      </c>
+      <c r="B237" t="str">
+        <f>B11</f>
+        <v>화성시</v>
+      </c>
+      <c r="C237" s="6">
+        <f t="shared" ref="C237:I237" si="20">C11</f>
+        <v>44751.392991897432</v>
+      </c>
+      <c r="D237" s="6">
+        <f t="shared" si="20"/>
+        <v>855.22171643638376</v>
+      </c>
+      <c r="E237" s="6">
+        <f t="shared" si="20"/>
+        <v>303.78196328151</v>
+      </c>
+      <c r="F237" s="6">
+        <f t="shared" si="20"/>
+        <v>0.35520843009849717</v>
+      </c>
+      <c r="G237" s="6">
+        <f t="shared" si="20"/>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="H237" s="6">
+        <f t="shared" si="20"/>
+        <v>698.18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A238" t="str">
+        <f>A34</f>
+        <v>Gwacheon-si</v>
+      </c>
+      <c r="B238" t="str">
+        <f>B34</f>
+        <v>과천시</v>
+      </c>
+      <c r="C238" s="6">
+        <f t="shared" ref="C238:I238" si="21">C34</f>
+        <v>1188.7077430954027</v>
+      </c>
+      <c r="D238" s="6">
+        <f t="shared" si="21"/>
+        <v>2.3620001182556152</v>
+      </c>
+      <c r="E238" s="6">
+        <f t="shared" si="21"/>
+        <v>2.67067278143442</v>
+      </c>
+      <c r="F238" s="6">
+        <f t="shared" si="21"/>
+        <v>1.1306827467082285</v>
+      </c>
+      <c r="G238" s="6">
+        <f t="shared" si="21"/>
+        <v>2391.2182882631728</v>
+      </c>
+      <c r="H238" s="6">
+        <f t="shared" si="21"/>
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="C240" t="str">
+        <f>C233</f>
+        <v>Technical potential</v>
+      </c>
+      <c r="D240" t="str">
+        <f>D233</f>
+        <v>Market potential</v>
+      </c>
+      <c r="E240" t="str">
+        <f>H233</f>
+        <v>Administrative area</v>
+      </c>
+      <c r="F240" t="str">
+        <f>G233</f>
+        <v>Population density</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C241" t="s">
+        <v>226</v>
+      </c>
+      <c r="D241" t="s">
+        <v>227</v>
+      </c>
+      <c r="E241" t="s">
+        <v>218</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+      <c r="G241" s="28"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A242" t="str">
+        <f>A235</f>
+        <v>Yangpyeong-gun</v>
+      </c>
+      <c r="B242" s="4" t="str">
+        <f>K166</f>
+        <v>양평군</v>
+      </c>
+      <c r="C242" s="4">
+        <f t="shared" ref="C242:E242" si="22">L166</f>
+        <v>4.5071613321930395E-2</v>
+      </c>
+      <c r="D242" s="4">
+        <f t="shared" si="22"/>
+        <v>7.4858690520798188E-2</v>
+      </c>
+      <c r="E242" s="4">
+        <f t="shared" si="22"/>
+        <v>8.6088129275888256E-2</v>
+      </c>
+      <c r="F242" s="22">
+        <f>G166</f>
+        <v>146.35805352687166</v>
+      </c>
+      <c r="G242" s="28">
+        <f>C246</f>
+        <v>2.4055339856393559E-2</v>
+      </c>
+      <c r="H242" s="28">
+        <f>D246</f>
+        <v>7.1512133909105817E-3</v>
+      </c>
+      <c r="I242" s="28">
+        <f>E246</f>
+        <v>2.6296559672396452E-2</v>
+      </c>
+      <c r="J242" s="22">
+        <f>F246</f>
+        <v>1871.9838303198417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A243" t="str">
+        <f>A236</f>
+        <v>Bucheon-si</v>
+      </c>
+      <c r="B243" t="str">
+        <f>K191</f>
+        <v>부천시</v>
+      </c>
+      <c r="C243" s="4">
+        <f t="shared" ref="C243:E243" si="23">L191</f>
+        <v>9.3911375181126612E-3</v>
+      </c>
+      <c r="D243" s="4">
+        <f t="shared" si="23"/>
+        <v>3.6068243327985451E-4</v>
+      </c>
+      <c r="E243" s="4">
+        <f t="shared" si="23"/>
+        <v>5.2426375027586356E-3</v>
+      </c>
+      <c r="F243" s="22">
+        <f>G191</f>
+        <v>14952.703461178671</v>
+      </c>
+      <c r="G243" s="28">
+        <f>C246</f>
+        <v>2.4055339856393559E-2</v>
+      </c>
+      <c r="H243" s="28">
+        <f>D246</f>
+        <v>7.1512133909105817E-3</v>
+      </c>
+      <c r="I243" s="28">
+        <f>E246</f>
+        <v>2.6296559672396452E-2</v>
+      </c>
+      <c r="J243" s="22">
+        <f>F246</f>
+        <v>1871.9838303198417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A244" t="str">
+        <f>A237</f>
+        <v>Hwaseong-si</v>
+      </c>
+      <c r="B244" t="str">
+        <f>K169</f>
+        <v>화성시</v>
+      </c>
+      <c r="C244" s="4">
+        <f t="shared" ref="C244:E244" si="24">L169</f>
+        <v>0.10991880723445389</v>
+      </c>
+      <c r="D244" s="4">
+        <f t="shared" si="24"/>
+        <v>4.7188307123691771E-2</v>
+      </c>
+      <c r="E244" s="4">
+        <f t="shared" si="24"/>
+        <v>6.848091022780213E-2</v>
+      </c>
+      <c r="F244" s="22">
+        <f>G169</f>
+        <v>1460.769429087055</v>
+      </c>
+      <c r="G244" s="28">
+        <f>C246</f>
+        <v>2.4055339856393559E-2</v>
+      </c>
+      <c r="H244" s="28">
+        <f>D246</f>
+        <v>7.1512133909105817E-3</v>
+      </c>
+      <c r="I244" s="28">
+        <f>E246</f>
+        <v>2.6296559672396452E-2</v>
+      </c>
+      <c r="J244" s="22">
+        <f>F246</f>
+        <v>1871.9838303198417</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A245" t="str">
+        <f>A178</f>
+        <v>Dongducheon-si</v>
+      </c>
+      <c r="B245" s="4" t="str">
+        <f>K178</f>
+        <v>동두천시</v>
+      </c>
+      <c r="C245" s="4">
+        <f t="shared" ref="C245:E245" si="25">L178</f>
+        <v>5.1138602981690108E-3</v>
+      </c>
+      <c r="D245" s="4">
+        <f t="shared" si="25"/>
+        <v>5.8341327553782917E-3</v>
+      </c>
+      <c r="E245" s="4">
+        <f t="shared" si="25"/>
+        <v>9.3837816630293492E-3</v>
+      </c>
+      <c r="F245" s="22">
+        <f>G178</f>
+        <v>952.18981917006374</v>
+      </c>
+      <c r="G245" s="28">
+        <f>C246</f>
+        <v>2.4055339856393559E-2</v>
+      </c>
+      <c r="H245" s="28">
+        <f>D246</f>
+        <v>7.1512133909105817E-3</v>
+      </c>
+      <c r="I245" s="28">
+        <f>E246</f>
+        <v>2.6296559672396452E-2</v>
+      </c>
+      <c r="J245" s="22">
+        <f>F246</f>
+        <v>1871.9838303198417</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>243</v>
+      </c>
+      <c r="C246" s="28">
+        <f>L160</f>
+        <v>2.4055339856393559E-2</v>
+      </c>
+      <c r="D246" s="28">
+        <f>M160</f>
+        <v>7.1512133909105817E-3</v>
+      </c>
+      <c r="E246" s="28">
+        <f>N160</f>
+        <v>2.6296559672396452E-2</v>
+      </c>
+      <c r="F246" s="22">
+        <f>MEDIAN(G4:G34)</f>
+        <v>1871.9838303198417</v>
+      </c>
+      <c r="G246" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A117:Z117" xr:uid="{C4BB7052-C3D0-483A-AA44-AD0FFE0E1671}">
